--- a/20 開発資料/05.改修管理/070_改修管理_交通宿泊手配入力.xlsx
+++ b/20 開発資料/05.改修管理/070_改修管理_交通宿泊手配入力.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="107">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1121,6 +1121,38 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>＊確認事項</t>
+    <rPh sb="1" eb="3">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>都税を入力し別フィールドに移動すると表示がトップに戻ってしまう。</t>
+    <rPh sb="0" eb="2">
+      <t>トゼイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>モド</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1381,17 +1413,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1429,23 +1470,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1755,7 +1787,7 @@
       <pane xSplit="48" ySplit="6" topLeftCell="AW40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AW1" sqref="AW1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AK45" sqref="AK45:AV45"/>
+      <selection pane="bottomRight" activeCell="X46" sqref="X46:AJ46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
@@ -1765,246 +1797,246 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="22" t="s">
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="19" t="s">
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
-      <c r="AM1" s="19" t="s">
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="AN1" s="19"/>
-      <c r="AO1" s="19"/>
-      <c r="AP1" s="19"/>
-      <c r="AQ1" s="19"/>
-      <c r="AR1" s="19" t="s">
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="22"/>
+      <c r="AR1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="AS1" s="19"/>
-      <c r="AT1" s="19"/>
-      <c r="AU1" s="19"/>
-      <c r="AV1" s="19"/>
-      <c r="AW1" s="19" t="s">
+      <c r="AS1" s="22"/>
+      <c r="AT1" s="22"/>
+      <c r="AU1" s="22"/>
+      <c r="AV1" s="22"/>
+      <c r="AW1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AX1" s="19"/>
-      <c r="AY1" s="19"/>
-      <c r="AZ1" s="19"/>
-      <c r="BA1" s="19"/>
+      <c r="AX1" s="22"/>
+      <c r="AY1" s="22"/>
+      <c r="AZ1" s="22"/>
+      <c r="BA1" s="22"/>
     </row>
     <row r="2" spans="1:59" ht="11.25" customHeight="1">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
-      <c r="AG2" s="27"/>
-      <c r="AH2" s="21">
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="24">
         <v>41611</v>
       </c>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="21"/>
-      <c r="AL2" s="21"/>
-      <c r="AM2" s="19" t="s">
+      <c r="AI2" s="24"/>
+      <c r="AJ2" s="24"/>
+      <c r="AK2" s="24"/>
+      <c r="AL2" s="24"/>
+      <c r="AM2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="AN2" s="19"/>
-      <c r="AO2" s="19"/>
-      <c r="AP2" s="19"/>
-      <c r="AQ2" s="19"/>
-      <c r="AR2" s="21"/>
-      <c r="AS2" s="21"/>
-      <c r="AT2" s="21"/>
-      <c r="AU2" s="21"/>
-      <c r="AV2" s="21"/>
-      <c r="AW2" s="19"/>
-      <c r="AX2" s="19"/>
-      <c r="AY2" s="19"/>
-      <c r="AZ2" s="19"/>
-      <c r="BA2" s="19"/>
+      <c r="AN2" s="22"/>
+      <c r="AO2" s="22"/>
+      <c r="AP2" s="22"/>
+      <c r="AQ2" s="22"/>
+      <c r="AR2" s="24"/>
+      <c r="AS2" s="24"/>
+      <c r="AT2" s="24"/>
+      <c r="AU2" s="24"/>
+      <c r="AV2" s="24"/>
+      <c r="AW2" s="22"/>
+      <c r="AX2" s="22"/>
+      <c r="AY2" s="22"/>
+      <c r="AZ2" s="22"/>
+      <c r="BA2" s="22"/>
     </row>
     <row r="3" spans="1:59" ht="11.25" customHeight="1">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="26"/>
-      <c r="AE3" s="26"/>
-      <c r="AF3" s="26"/>
-      <c r="AG3" s="27"/>
-      <c r="AH3" s="21"/>
-      <c r="AI3" s="21"/>
-      <c r="AJ3" s="21"/>
-      <c r="AK3" s="21"/>
-      <c r="AL3" s="21"/>
-      <c r="AM3" s="19"/>
-      <c r="AN3" s="19"/>
-      <c r="AO3" s="19"/>
-      <c r="AP3" s="19"/>
-      <c r="AQ3" s="19"/>
-      <c r="AR3" s="21"/>
-      <c r="AS3" s="21"/>
-      <c r="AT3" s="21"/>
-      <c r="AU3" s="21"/>
-      <c r="AV3" s="21"/>
-      <c r="AW3" s="19"/>
-      <c r="AX3" s="19"/>
-      <c r="AY3" s="19"/>
-      <c r="AZ3" s="19"/>
-      <c r="BA3" s="19"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="29"/>
+      <c r="AG3" s="30"/>
+      <c r="AH3" s="24"/>
+      <c r="AI3" s="24"/>
+      <c r="AJ3" s="24"/>
+      <c r="AK3" s="24"/>
+      <c r="AL3" s="24"/>
+      <c r="AM3" s="22"/>
+      <c r="AN3" s="22"/>
+      <c r="AO3" s="22"/>
+      <c r="AP3" s="22"/>
+      <c r="AQ3" s="22"/>
+      <c r="AR3" s="24"/>
+      <c r="AS3" s="24"/>
+      <c r="AT3" s="24"/>
+      <c r="AU3" s="24"/>
+      <c r="AV3" s="24"/>
+      <c r="AW3" s="22"/>
+      <c r="AX3" s="22"/>
+      <c r="AY3" s="22"/>
+      <c r="AZ3" s="22"/>
+      <c r="BA3" s="22"/>
     </row>
     <row r="4" spans="1:59">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="29"/>
-      <c r="V4" s="29"/>
-      <c r="W4" s="29"/>
-      <c r="X4" s="29"/>
-      <c r="Y4" s="29"/>
-      <c r="Z4" s="29"/>
-      <c r="AA4" s="29"/>
-      <c r="AB4" s="29"/>
-      <c r="AC4" s="29"/>
-      <c r="AD4" s="29"/>
-      <c r="AE4" s="29"/>
-      <c r="AF4" s="29"/>
-      <c r="AG4" s="30"/>
-      <c r="AH4" s="21"/>
-      <c r="AI4" s="21"/>
-      <c r="AJ4" s="21"/>
-      <c r="AK4" s="21"/>
-      <c r="AL4" s="21"/>
-      <c r="AM4" s="19"/>
-      <c r="AN4" s="19"/>
-      <c r="AO4" s="19"/>
-      <c r="AP4" s="19"/>
-      <c r="AQ4" s="19"/>
-      <c r="AR4" s="21"/>
-      <c r="AS4" s="21"/>
-      <c r="AT4" s="21"/>
-      <c r="AU4" s="21"/>
-      <c r="AV4" s="21"/>
-      <c r="AW4" s="19"/>
-      <c r="AX4" s="19"/>
-      <c r="AY4" s="19"/>
-      <c r="AZ4" s="19"/>
-      <c r="BA4" s="19"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="32"/>
+      <c r="AF4" s="32"/>
+      <c r="AG4" s="33"/>
+      <c r="AH4" s="24"/>
+      <c r="AI4" s="24"/>
+      <c r="AJ4" s="24"/>
+      <c r="AK4" s="24"/>
+      <c r="AL4" s="24"/>
+      <c r="AM4" s="22"/>
+      <c r="AN4" s="22"/>
+      <c r="AO4" s="22"/>
+      <c r="AP4" s="22"/>
+      <c r="AQ4" s="22"/>
+      <c r="AR4" s="24"/>
+      <c r="AS4" s="24"/>
+      <c r="AT4" s="24"/>
+      <c r="AU4" s="24"/>
+      <c r="AV4" s="24"/>
+      <c r="AW4" s="22"/>
+      <c r="AX4" s="22"/>
+      <c r="AY4" s="22"/>
+      <c r="AZ4" s="22"/>
+      <c r="BA4" s="22"/>
     </row>
     <row r="5" spans="1:59">
       <c r="A5" s="2"/>
@@ -2031,68 +2063,68 @@
       <c r="A6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16" t="s">
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16" t="s">
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="16"/>
-      <c r="AB6" s="16"/>
-      <c r="AC6" s="16"/>
-      <c r="AD6" s="16"/>
-      <c r="AE6" s="16"/>
-      <c r="AF6" s="16"/>
-      <c r="AG6" s="16"/>
-      <c r="AH6" s="16"/>
-      <c r="AI6" s="16"/>
-      <c r="AJ6" s="16"/>
-      <c r="AK6" s="16" t="s">
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="34"/>
+      <c r="AA6" s="34"/>
+      <c r="AB6" s="34"/>
+      <c r="AC6" s="34"/>
+      <c r="AD6" s="34"/>
+      <c r="AE6" s="34"/>
+      <c r="AF6" s="34"/>
+      <c r="AG6" s="34"/>
+      <c r="AH6" s="34"/>
+      <c r="AI6" s="34"/>
+      <c r="AJ6" s="34"/>
+      <c r="AK6" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="AL6" s="16"/>
-      <c r="AM6" s="16"/>
-      <c r="AN6" s="16"/>
-      <c r="AO6" s="16"/>
-      <c r="AP6" s="16"/>
-      <c r="AQ6" s="16"/>
-      <c r="AR6" s="16"/>
-      <c r="AS6" s="16"/>
-      <c r="AT6" s="16"/>
-      <c r="AU6" s="16"/>
-      <c r="AV6" s="16"/>
-      <c r="AW6" s="16" t="s">
+      <c r="AL6" s="34"/>
+      <c r="AM6" s="34"/>
+      <c r="AN6" s="34"/>
+      <c r="AO6" s="34"/>
+      <c r="AP6" s="34"/>
+      <c r="AQ6" s="34"/>
+      <c r="AR6" s="34"/>
+      <c r="AS6" s="34"/>
+      <c r="AT6" s="34"/>
+      <c r="AU6" s="34"/>
+      <c r="AV6" s="34"/>
+      <c r="AW6" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="AX6" s="16"/>
-      <c r="AY6" s="16"/>
-      <c r="AZ6" s="16"/>
-      <c r="BA6" s="16"/>
+      <c r="AX6" s="34"/>
+      <c r="AY6" s="34"/>
+      <c r="AZ6" s="34"/>
+      <c r="BA6" s="34"/>
       <c r="BB6" s="2"/>
       <c r="BC6" s="2"/>
       <c r="BD6" s="2"/>
@@ -2104,66 +2136,66 @@
       <c r="A7" s="7">
         <v>1</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17" t="s">
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17" t="s">
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="17"/>
-      <c r="AB7" s="17"/>
-      <c r="AC7" s="17"/>
-      <c r="AD7" s="17"/>
-      <c r="AE7" s="17"/>
-      <c r="AF7" s="17"/>
-      <c r="AG7" s="17"/>
-      <c r="AH7" s="17"/>
-      <c r="AI7" s="17"/>
-      <c r="AJ7" s="17"/>
-      <c r="AK7" s="17" t="s">
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="18"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="18"/>
+      <c r="AJ7" s="18"/>
+      <c r="AK7" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="AL7" s="17"/>
-      <c r="AM7" s="17"/>
-      <c r="AN7" s="17"/>
-      <c r="AO7" s="17"/>
-      <c r="AP7" s="17"/>
-      <c r="AQ7" s="17"/>
-      <c r="AR7" s="17"/>
-      <c r="AS7" s="17"/>
-      <c r="AT7" s="17"/>
-      <c r="AU7" s="17"/>
-      <c r="AV7" s="17"/>
-      <c r="AW7" s="18"/>
-      <c r="AX7" s="18"/>
-      <c r="AY7" s="18"/>
-      <c r="AZ7" s="18"/>
-      <c r="BA7" s="18"/>
+      <c r="AL7" s="18"/>
+      <c r="AM7" s="18"/>
+      <c r="AN7" s="18"/>
+      <c r="AO7" s="18"/>
+      <c r="AP7" s="18"/>
+      <c r="AQ7" s="18"/>
+      <c r="AR7" s="18"/>
+      <c r="AS7" s="18"/>
+      <c r="AT7" s="18"/>
+      <c r="AU7" s="18"/>
+      <c r="AV7" s="18"/>
+      <c r="AW7" s="35"/>
+      <c r="AX7" s="35"/>
+      <c r="AY7" s="35"/>
+      <c r="AZ7" s="35"/>
+      <c r="BA7" s="35"/>
     </row>
     <row r="8" spans="1:59" s="3" customFormat="1" ht="18.75" customHeight="1">
       <c r="A8" s="6">
@@ -2222,11 +2254,11 @@
       <c r="AT8" s="13"/>
       <c r="AU8" s="13"/>
       <c r="AV8" s="13"/>
-      <c r="AW8" s="15"/>
-      <c r="AX8" s="15"/>
-      <c r="AY8" s="15"/>
-      <c r="AZ8" s="15"/>
-      <c r="BA8" s="15"/>
+      <c r="AW8" s="36"/>
+      <c r="AX8" s="36"/>
+      <c r="AY8" s="36"/>
+      <c r="AZ8" s="36"/>
+      <c r="BA8" s="36"/>
     </row>
     <row r="9" spans="1:59" s="3" customFormat="1" ht="18.75" customHeight="1">
       <c r="A9" s="6">
@@ -2287,11 +2319,11 @@
       <c r="AT9" s="13"/>
       <c r="AU9" s="13"/>
       <c r="AV9" s="13"/>
-      <c r="AW9" s="15"/>
-      <c r="AX9" s="15"/>
-      <c r="AY9" s="15"/>
-      <c r="AZ9" s="15"/>
-      <c r="BA9" s="15"/>
+      <c r="AW9" s="36"/>
+      <c r="AX9" s="36"/>
+      <c r="AY9" s="36"/>
+      <c r="AZ9" s="36"/>
+      <c r="BA9" s="36"/>
     </row>
     <row r="10" spans="1:59" s="3" customFormat="1" ht="18.75" customHeight="1">
       <c r="A10" s="6">
@@ -2564,7 +2596,7 @@
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
-      <c r="K14" s="31" t="s">
+      <c r="K14" s="21" t="s">
         <v>40</v>
       </c>
       <c r="L14" s="13"/>
@@ -2579,7 +2611,7 @@
       <c r="U14" s="13"/>
       <c r="V14" s="13"/>
       <c r="W14" s="13"/>
-      <c r="X14" s="31" t="s">
+      <c r="X14" s="21" t="s">
         <v>97</v>
       </c>
       <c r="Y14" s="13"/>
@@ -4326,62 +4358,62 @@
       <c r="A43" s="11">
         <v>37</v>
       </c>
-      <c r="B43" s="36" t="s">
+      <c r="B43" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="36"/>
-      <c r="J43" s="36"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
-      <c r="R43" s="17"/>
-      <c r="S43" s="17"/>
-      <c r="T43" s="17"/>
-      <c r="U43" s="17"/>
-      <c r="V43" s="17"/>
-      <c r="W43" s="17"/>
-      <c r="X43" s="36" t="s">
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="18"/>
+      <c r="O43" s="18"/>
+      <c r="P43" s="18"/>
+      <c r="Q43" s="18"/>
+      <c r="R43" s="18"/>
+      <c r="S43" s="18"/>
+      <c r="T43" s="18"/>
+      <c r="U43" s="18"/>
+      <c r="V43" s="18"/>
+      <c r="W43" s="18"/>
+      <c r="X43" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="Y43" s="36"/>
-      <c r="Z43" s="36"/>
-      <c r="AA43" s="36"/>
-      <c r="AB43" s="36"/>
-      <c r="AC43" s="36"/>
-      <c r="AD43" s="36"/>
-      <c r="AE43" s="36"/>
-      <c r="AF43" s="36"/>
-      <c r="AG43" s="36"/>
-      <c r="AH43" s="36"/>
-      <c r="AI43" s="36"/>
-      <c r="AJ43" s="36"/>
-      <c r="AK43" s="17"/>
-      <c r="AL43" s="17"/>
-      <c r="AM43" s="17"/>
-      <c r="AN43" s="17"/>
-      <c r="AO43" s="17"/>
-      <c r="AP43" s="17"/>
-      <c r="AQ43" s="17"/>
-      <c r="AR43" s="17"/>
-      <c r="AS43" s="17"/>
-      <c r="AT43" s="17"/>
-      <c r="AU43" s="17"/>
-      <c r="AV43" s="17"/>
-      <c r="AW43" s="17"/>
-      <c r="AX43" s="17"/>
-      <c r="AY43" s="17"/>
-      <c r="AZ43" s="17"/>
-      <c r="BA43" s="17"/>
+      <c r="Y43" s="17"/>
+      <c r="Z43" s="17"/>
+      <c r="AA43" s="17"/>
+      <c r="AB43" s="17"/>
+      <c r="AC43" s="17"/>
+      <c r="AD43" s="17"/>
+      <c r="AE43" s="17"/>
+      <c r="AF43" s="17"/>
+      <c r="AG43" s="17"/>
+      <c r="AH43" s="17"/>
+      <c r="AI43" s="17"/>
+      <c r="AJ43" s="17"/>
+      <c r="AK43" s="18"/>
+      <c r="AL43" s="18"/>
+      <c r="AM43" s="18"/>
+      <c r="AN43" s="18"/>
+      <c r="AO43" s="18"/>
+      <c r="AP43" s="18"/>
+      <c r="AQ43" s="18"/>
+      <c r="AR43" s="18"/>
+      <c r="AS43" s="18"/>
+      <c r="AT43" s="18"/>
+      <c r="AU43" s="18"/>
+      <c r="AV43" s="18"/>
+      <c r="AW43" s="18"/>
+      <c r="AX43" s="18"/>
+      <c r="AY43" s="18"/>
+      <c r="AZ43" s="18"/>
+      <c r="BA43" s="18"/>
     </row>
     <row r="44" spans="1:53" s="12" customFormat="1" ht="30" customHeight="1">
       <c r="A44" s="10">
@@ -4446,9 +4478,13 @@
       <c r="AZ44" s="13"/>
       <c r="BA44" s="13"/>
     </row>
-    <row r="45" spans="1:53" s="12" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A45" s="10"/>
-      <c r="B45" s="14"/>
+    <row r="45" spans="1:53" s="12" customFormat="1" ht="44.25" customHeight="1">
+      <c r="A45" s="10">
+        <v>39</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>105</v>
+      </c>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
@@ -4470,7 +4506,9 @@
       <c r="U45" s="13"/>
       <c r="V45" s="13"/>
       <c r="W45" s="13"/>
-      <c r="X45" s="14"/>
+      <c r="X45" s="14" t="s">
+        <v>106</v>
+      </c>
       <c r="Y45" s="14"/>
       <c r="Z45" s="14"/>
       <c r="AA45" s="14"/>
@@ -4613,1050 +4651,1197 @@
     </row>
     <row r="48" spans="1:53" s="12" customFormat="1" ht="18.75" customHeight="1">
       <c r="A48" s="9"/>
-      <c r="B48" s="34"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="35"/>
-      <c r="L48" s="35"/>
-      <c r="M48" s="35"/>
-      <c r="N48" s="35"/>
-      <c r="O48" s="35"/>
-      <c r="P48" s="35"/>
-      <c r="Q48" s="35"/>
-      <c r="R48" s="35"/>
-      <c r="S48" s="35"/>
-      <c r="T48" s="35"/>
-      <c r="U48" s="35"/>
-      <c r="V48" s="35"/>
-      <c r="W48" s="35"/>
-      <c r="X48" s="34"/>
-      <c r="Y48" s="34"/>
-      <c r="Z48" s="34"/>
-      <c r="AA48" s="34"/>
-      <c r="AB48" s="34"/>
-      <c r="AC48" s="34"/>
-      <c r="AD48" s="34"/>
-      <c r="AE48" s="34"/>
-      <c r="AF48" s="34"/>
-      <c r="AG48" s="34"/>
-      <c r="AH48" s="34"/>
-      <c r="AI48" s="34"/>
-      <c r="AJ48" s="34"/>
-      <c r="AK48" s="35"/>
-      <c r="AL48" s="35"/>
-      <c r="AM48" s="35"/>
-      <c r="AN48" s="35"/>
-      <c r="AO48" s="35"/>
-      <c r="AP48" s="35"/>
-      <c r="AQ48" s="35"/>
-      <c r="AR48" s="35"/>
-      <c r="AS48" s="35"/>
-      <c r="AT48" s="35"/>
-      <c r="AU48" s="35"/>
-      <c r="AV48" s="35"/>
-      <c r="AW48" s="35"/>
-      <c r="AX48" s="35"/>
-      <c r="AY48" s="35"/>
-      <c r="AZ48" s="35"/>
-      <c r="BA48" s="35"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="20"/>
+      <c r="N48" s="20"/>
+      <c r="O48" s="20"/>
+      <c r="P48" s="20"/>
+      <c r="Q48" s="20"/>
+      <c r="R48" s="20"/>
+      <c r="S48" s="20"/>
+      <c r="T48" s="20"/>
+      <c r="U48" s="20"/>
+      <c r="V48" s="20"/>
+      <c r="W48" s="20"/>
+      <c r="X48" s="19"/>
+      <c r="Y48" s="19"/>
+      <c r="Z48" s="19"/>
+      <c r="AA48" s="19"/>
+      <c r="AB48" s="19"/>
+      <c r="AC48" s="19"/>
+      <c r="AD48" s="19"/>
+      <c r="AE48" s="19"/>
+      <c r="AF48" s="19"/>
+      <c r="AG48" s="19"/>
+      <c r="AH48" s="19"/>
+      <c r="AI48" s="19"/>
+      <c r="AJ48" s="19"/>
+      <c r="AK48" s="20"/>
+      <c r="AL48" s="20"/>
+      <c r="AM48" s="20"/>
+      <c r="AN48" s="20"/>
+      <c r="AO48" s="20"/>
+      <c r="AP48" s="20"/>
+      <c r="AQ48" s="20"/>
+      <c r="AR48" s="20"/>
+      <c r="AS48" s="20"/>
+      <c r="AT48" s="20"/>
+      <c r="AU48" s="20"/>
+      <c r="AV48" s="20"/>
+      <c r="AW48" s="20"/>
+      <c r="AX48" s="20"/>
+      <c r="AY48" s="20"/>
+      <c r="AZ48" s="20"/>
+      <c r="BA48" s="20"/>
     </row>
     <row r="49" spans="2:53" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B49" s="33"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="33"/>
-      <c r="H49" s="33"/>
-      <c r="I49" s="33"/>
-      <c r="J49" s="33"/>
-      <c r="K49" s="32"/>
-      <c r="L49" s="32"/>
-      <c r="M49" s="32"/>
-      <c r="N49" s="32"/>
-      <c r="O49" s="32"/>
-      <c r="P49" s="32"/>
-      <c r="Q49" s="32"/>
-      <c r="R49" s="32"/>
-      <c r="S49" s="32"/>
-      <c r="T49" s="32"/>
-      <c r="U49" s="32"/>
-      <c r="V49" s="32"/>
-      <c r="W49" s="32"/>
-      <c r="X49" s="33"/>
-      <c r="Y49" s="33"/>
-      <c r="Z49" s="33"/>
-      <c r="AA49" s="33"/>
-      <c r="AB49" s="33"/>
-      <c r="AC49" s="33"/>
-      <c r="AD49" s="33"/>
-      <c r="AE49" s="33"/>
-      <c r="AF49" s="33"/>
-      <c r="AG49" s="33"/>
-      <c r="AH49" s="33"/>
-      <c r="AI49" s="33"/>
-      <c r="AJ49" s="33"/>
-      <c r="AK49" s="32"/>
-      <c r="AL49" s="32"/>
-      <c r="AM49" s="32"/>
-      <c r="AN49" s="32"/>
-      <c r="AO49" s="32"/>
-      <c r="AP49" s="32"/>
-      <c r="AQ49" s="32"/>
-      <c r="AR49" s="32"/>
-      <c r="AS49" s="32"/>
-      <c r="AT49" s="32"/>
-      <c r="AU49" s="32"/>
-      <c r="AV49" s="32"/>
-      <c r="AW49" s="32"/>
-      <c r="AX49" s="32"/>
-      <c r="AY49" s="32"/>
-      <c r="AZ49" s="32"/>
-      <c r="BA49" s="32"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="15"/>
+      <c r="P49" s="15"/>
+      <c r="Q49" s="15"/>
+      <c r="R49" s="15"/>
+      <c r="S49" s="15"/>
+      <c r="T49" s="15"/>
+      <c r="U49" s="15"/>
+      <c r="V49" s="15"/>
+      <c r="W49" s="15"/>
+      <c r="X49" s="16"/>
+      <c r="Y49" s="16"/>
+      <c r="Z49" s="16"/>
+      <c r="AA49" s="16"/>
+      <c r="AB49" s="16"/>
+      <c r="AC49" s="16"/>
+      <c r="AD49" s="16"/>
+      <c r="AE49" s="16"/>
+      <c r="AF49" s="16"/>
+      <c r="AG49" s="16"/>
+      <c r="AH49" s="16"/>
+      <c r="AI49" s="16"/>
+      <c r="AJ49" s="16"/>
+      <c r="AK49" s="15"/>
+      <c r="AL49" s="15"/>
+      <c r="AM49" s="15"/>
+      <c r="AN49" s="15"/>
+      <c r="AO49" s="15"/>
+      <c r="AP49" s="15"/>
+      <c r="AQ49" s="15"/>
+      <c r="AR49" s="15"/>
+      <c r="AS49" s="15"/>
+      <c r="AT49" s="15"/>
+      <c r="AU49" s="15"/>
+      <c r="AV49" s="15"/>
+      <c r="AW49" s="15"/>
+      <c r="AX49" s="15"/>
+      <c r="AY49" s="15"/>
+      <c r="AZ49" s="15"/>
+      <c r="BA49" s="15"/>
     </row>
     <row r="50" spans="2:53" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B50" s="33"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="33"/>
-      <c r="H50" s="33"/>
-      <c r="I50" s="33"/>
-      <c r="J50" s="33"/>
-      <c r="K50" s="32"/>
-      <c r="L50" s="32"/>
-      <c r="M50" s="32"/>
-      <c r="N50" s="32"/>
-      <c r="O50" s="32"/>
-      <c r="P50" s="32"/>
-      <c r="Q50" s="32"/>
-      <c r="R50" s="32"/>
-      <c r="S50" s="32"/>
-      <c r="T50" s="32"/>
-      <c r="U50" s="32"/>
-      <c r="V50" s="32"/>
-      <c r="W50" s="32"/>
-      <c r="X50" s="33"/>
-      <c r="Y50" s="33"/>
-      <c r="Z50" s="33"/>
-      <c r="AA50" s="33"/>
-      <c r="AB50" s="33"/>
-      <c r="AC50" s="33"/>
-      <c r="AD50" s="33"/>
-      <c r="AE50" s="33"/>
-      <c r="AF50" s="33"/>
-      <c r="AG50" s="33"/>
-      <c r="AH50" s="33"/>
-      <c r="AI50" s="33"/>
-      <c r="AJ50" s="33"/>
-      <c r="AK50" s="32"/>
-      <c r="AL50" s="32"/>
-      <c r="AM50" s="32"/>
-      <c r="AN50" s="32"/>
-      <c r="AO50" s="32"/>
-      <c r="AP50" s="32"/>
-      <c r="AQ50" s="32"/>
-      <c r="AR50" s="32"/>
-      <c r="AS50" s="32"/>
-      <c r="AT50" s="32"/>
-      <c r="AU50" s="32"/>
-      <c r="AV50" s="32"/>
-      <c r="AW50" s="32"/>
-      <c r="AX50" s="32"/>
-      <c r="AY50" s="32"/>
-      <c r="AZ50" s="32"/>
-      <c r="BA50" s="32"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="15"/>
+      <c r="O50" s="15"/>
+      <c r="P50" s="15"/>
+      <c r="Q50" s="15"/>
+      <c r="R50" s="15"/>
+      <c r="S50" s="15"/>
+      <c r="T50" s="15"/>
+      <c r="U50" s="15"/>
+      <c r="V50" s="15"/>
+      <c r="W50" s="15"/>
+      <c r="X50" s="16"/>
+      <c r="Y50" s="16"/>
+      <c r="Z50" s="16"/>
+      <c r="AA50" s="16"/>
+      <c r="AB50" s="16"/>
+      <c r="AC50" s="16"/>
+      <c r="AD50" s="16"/>
+      <c r="AE50" s="16"/>
+      <c r="AF50" s="16"/>
+      <c r="AG50" s="16"/>
+      <c r="AH50" s="16"/>
+      <c r="AI50" s="16"/>
+      <c r="AJ50" s="16"/>
+      <c r="AK50" s="15"/>
+      <c r="AL50" s="15"/>
+      <c r="AM50" s="15"/>
+      <c r="AN50" s="15"/>
+      <c r="AO50" s="15"/>
+      <c r="AP50" s="15"/>
+      <c r="AQ50" s="15"/>
+      <c r="AR50" s="15"/>
+      <c r="AS50" s="15"/>
+      <c r="AT50" s="15"/>
+      <c r="AU50" s="15"/>
+      <c r="AV50" s="15"/>
+      <c r="AW50" s="15"/>
+      <c r="AX50" s="15"/>
+      <c r="AY50" s="15"/>
+      <c r="AZ50" s="15"/>
+      <c r="BA50" s="15"/>
     </row>
     <row r="51" spans="2:53" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B51" s="33"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="33"/>
-      <c r="J51" s="33"/>
-      <c r="K51" s="32"/>
-      <c r="L51" s="32"/>
-      <c r="M51" s="32"/>
-      <c r="N51" s="32"/>
-      <c r="O51" s="32"/>
-      <c r="P51" s="32"/>
-      <c r="Q51" s="32"/>
-      <c r="R51" s="32"/>
-      <c r="S51" s="32"/>
-      <c r="T51" s="32"/>
-      <c r="U51" s="32"/>
-      <c r="V51" s="32"/>
-      <c r="W51" s="32"/>
-      <c r="X51" s="33"/>
-      <c r="Y51" s="33"/>
-      <c r="Z51" s="33"/>
-      <c r="AA51" s="33"/>
-      <c r="AB51" s="33"/>
-      <c r="AC51" s="33"/>
-      <c r="AD51" s="33"/>
-      <c r="AE51" s="33"/>
-      <c r="AF51" s="33"/>
-      <c r="AG51" s="33"/>
-      <c r="AH51" s="33"/>
-      <c r="AI51" s="33"/>
-      <c r="AJ51" s="33"/>
-      <c r="AK51" s="32"/>
-      <c r="AL51" s="32"/>
-      <c r="AM51" s="32"/>
-      <c r="AN51" s="32"/>
-      <c r="AO51" s="32"/>
-      <c r="AP51" s="32"/>
-      <c r="AQ51" s="32"/>
-      <c r="AR51" s="32"/>
-      <c r="AS51" s="32"/>
-      <c r="AT51" s="32"/>
-      <c r="AU51" s="32"/>
-      <c r="AV51" s="32"/>
-      <c r="AW51" s="32"/>
-      <c r="AX51" s="32"/>
-      <c r="AY51" s="32"/>
-      <c r="AZ51" s="32"/>
-      <c r="BA51" s="32"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="15"/>
+      <c r="O51" s="15"/>
+      <c r="P51" s="15"/>
+      <c r="Q51" s="15"/>
+      <c r="R51" s="15"/>
+      <c r="S51" s="15"/>
+      <c r="T51" s="15"/>
+      <c r="U51" s="15"/>
+      <c r="V51" s="15"/>
+      <c r="W51" s="15"/>
+      <c r="X51" s="16"/>
+      <c r="Y51" s="16"/>
+      <c r="Z51" s="16"/>
+      <c r="AA51" s="16"/>
+      <c r="AB51" s="16"/>
+      <c r="AC51" s="16"/>
+      <c r="AD51" s="16"/>
+      <c r="AE51" s="16"/>
+      <c r="AF51" s="16"/>
+      <c r="AG51" s="16"/>
+      <c r="AH51" s="16"/>
+      <c r="AI51" s="16"/>
+      <c r="AJ51" s="16"/>
+      <c r="AK51" s="15"/>
+      <c r="AL51" s="15"/>
+      <c r="AM51" s="15"/>
+      <c r="AN51" s="15"/>
+      <c r="AO51" s="15"/>
+      <c r="AP51" s="15"/>
+      <c r="AQ51" s="15"/>
+      <c r="AR51" s="15"/>
+      <c r="AS51" s="15"/>
+      <c r="AT51" s="15"/>
+      <c r="AU51" s="15"/>
+      <c r="AV51" s="15"/>
+      <c r="AW51" s="15"/>
+      <c r="AX51" s="15"/>
+      <c r="AY51" s="15"/>
+      <c r="AZ51" s="15"/>
+      <c r="BA51" s="15"/>
     </row>
     <row r="52" spans="2:53" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B52" s="33"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="33"/>
-      <c r="J52" s="33"/>
-      <c r="K52" s="32"/>
-      <c r="L52" s="32"/>
-      <c r="M52" s="32"/>
-      <c r="N52" s="32"/>
-      <c r="O52" s="32"/>
-      <c r="P52" s="32"/>
-      <c r="Q52" s="32"/>
-      <c r="R52" s="32"/>
-      <c r="S52" s="32"/>
-      <c r="T52" s="32"/>
-      <c r="U52" s="32"/>
-      <c r="V52" s="32"/>
-      <c r="W52" s="32"/>
-      <c r="X52" s="33"/>
-      <c r="Y52" s="33"/>
-      <c r="Z52" s="33"/>
-      <c r="AA52" s="33"/>
-      <c r="AB52" s="33"/>
-      <c r="AC52" s="33"/>
-      <c r="AD52" s="33"/>
-      <c r="AE52" s="33"/>
-      <c r="AF52" s="33"/>
-      <c r="AG52" s="33"/>
-      <c r="AH52" s="33"/>
-      <c r="AI52" s="33"/>
-      <c r="AJ52" s="33"/>
-      <c r="AK52" s="32"/>
-      <c r="AL52" s="32"/>
-      <c r="AM52" s="32"/>
-      <c r="AN52" s="32"/>
-      <c r="AO52" s="32"/>
-      <c r="AP52" s="32"/>
-      <c r="AQ52" s="32"/>
-      <c r="AR52" s="32"/>
-      <c r="AS52" s="32"/>
-      <c r="AT52" s="32"/>
-      <c r="AU52" s="32"/>
-      <c r="AV52" s="32"/>
-      <c r="AW52" s="32"/>
-      <c r="AX52" s="32"/>
-      <c r="AY52" s="32"/>
-      <c r="AZ52" s="32"/>
-      <c r="BA52" s="32"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="15"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="15"/>
+      <c r="O52" s="15"/>
+      <c r="P52" s="15"/>
+      <c r="Q52" s="15"/>
+      <c r="R52" s="15"/>
+      <c r="S52" s="15"/>
+      <c r="T52" s="15"/>
+      <c r="U52" s="15"/>
+      <c r="V52" s="15"/>
+      <c r="W52" s="15"/>
+      <c r="X52" s="16"/>
+      <c r="Y52" s="16"/>
+      <c r="Z52" s="16"/>
+      <c r="AA52" s="16"/>
+      <c r="AB52" s="16"/>
+      <c r="AC52" s="16"/>
+      <c r="AD52" s="16"/>
+      <c r="AE52" s="16"/>
+      <c r="AF52" s="16"/>
+      <c r="AG52" s="16"/>
+      <c r="AH52" s="16"/>
+      <c r="AI52" s="16"/>
+      <c r="AJ52" s="16"/>
+      <c r="AK52" s="15"/>
+      <c r="AL52" s="15"/>
+      <c r="AM52" s="15"/>
+      <c r="AN52" s="15"/>
+      <c r="AO52" s="15"/>
+      <c r="AP52" s="15"/>
+      <c r="AQ52" s="15"/>
+      <c r="AR52" s="15"/>
+      <c r="AS52" s="15"/>
+      <c r="AT52" s="15"/>
+      <c r="AU52" s="15"/>
+      <c r="AV52" s="15"/>
+      <c r="AW52" s="15"/>
+      <c r="AX52" s="15"/>
+      <c r="AY52" s="15"/>
+      <c r="AZ52" s="15"/>
+      <c r="BA52" s="15"/>
     </row>
     <row r="53" spans="2:53" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B53" s="33"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="33"/>
-      <c r="I53" s="33"/>
-      <c r="J53" s="33"/>
-      <c r="K53" s="32"/>
-      <c r="L53" s="32"/>
-      <c r="M53" s="32"/>
-      <c r="N53" s="32"/>
-      <c r="O53" s="32"/>
-      <c r="P53" s="32"/>
-      <c r="Q53" s="32"/>
-      <c r="R53" s="32"/>
-      <c r="S53" s="32"/>
-      <c r="T53" s="32"/>
-      <c r="U53" s="32"/>
-      <c r="V53" s="32"/>
-      <c r="W53" s="32"/>
-      <c r="X53" s="33"/>
-      <c r="Y53" s="33"/>
-      <c r="Z53" s="33"/>
-      <c r="AA53" s="33"/>
-      <c r="AB53" s="33"/>
-      <c r="AC53" s="33"/>
-      <c r="AD53" s="33"/>
-      <c r="AE53" s="33"/>
-      <c r="AF53" s="33"/>
-      <c r="AG53" s="33"/>
-      <c r="AH53" s="33"/>
-      <c r="AI53" s="33"/>
-      <c r="AJ53" s="33"/>
-      <c r="AK53" s="32"/>
-      <c r="AL53" s="32"/>
-      <c r="AM53" s="32"/>
-      <c r="AN53" s="32"/>
-      <c r="AO53" s="32"/>
-      <c r="AP53" s="32"/>
-      <c r="AQ53" s="32"/>
-      <c r="AR53" s="32"/>
-      <c r="AS53" s="32"/>
-      <c r="AT53" s="32"/>
-      <c r="AU53" s="32"/>
-      <c r="AV53" s="32"/>
-      <c r="AW53" s="32"/>
-      <c r="AX53" s="32"/>
-      <c r="AY53" s="32"/>
-      <c r="AZ53" s="32"/>
-      <c r="BA53" s="32"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="15"/>
+      <c r="N53" s="15"/>
+      <c r="O53" s="15"/>
+      <c r="P53" s="15"/>
+      <c r="Q53" s="15"/>
+      <c r="R53" s="15"/>
+      <c r="S53" s="15"/>
+      <c r="T53" s="15"/>
+      <c r="U53" s="15"/>
+      <c r="V53" s="15"/>
+      <c r="W53" s="15"/>
+      <c r="X53" s="16"/>
+      <c r="Y53" s="16"/>
+      <c r="Z53" s="16"/>
+      <c r="AA53" s="16"/>
+      <c r="AB53" s="16"/>
+      <c r="AC53" s="16"/>
+      <c r="AD53" s="16"/>
+      <c r="AE53" s="16"/>
+      <c r="AF53" s="16"/>
+      <c r="AG53" s="16"/>
+      <c r="AH53" s="16"/>
+      <c r="AI53" s="16"/>
+      <c r="AJ53" s="16"/>
+      <c r="AK53" s="15"/>
+      <c r="AL53" s="15"/>
+      <c r="AM53" s="15"/>
+      <c r="AN53" s="15"/>
+      <c r="AO53" s="15"/>
+      <c r="AP53" s="15"/>
+      <c r="AQ53" s="15"/>
+      <c r="AR53" s="15"/>
+      <c r="AS53" s="15"/>
+      <c r="AT53" s="15"/>
+      <c r="AU53" s="15"/>
+      <c r="AV53" s="15"/>
+      <c r="AW53" s="15"/>
+      <c r="AX53" s="15"/>
+      <c r="AY53" s="15"/>
+      <c r="AZ53" s="15"/>
+      <c r="BA53" s="15"/>
     </row>
     <row r="54" spans="2:53" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B54" s="32"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="32"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="32"/>
-      <c r="L54" s="32"/>
-      <c r="M54" s="32"/>
-      <c r="N54" s="32"/>
-      <c r="O54" s="32"/>
-      <c r="P54" s="32"/>
-      <c r="Q54" s="32"/>
-      <c r="R54" s="32"/>
-      <c r="S54" s="32"/>
-      <c r="T54" s="32"/>
-      <c r="U54" s="32"/>
-      <c r="V54" s="32"/>
-      <c r="W54" s="32"/>
-      <c r="X54" s="33"/>
-      <c r="Y54" s="33"/>
-      <c r="Z54" s="33"/>
-      <c r="AA54" s="33"/>
-      <c r="AB54" s="33"/>
-      <c r="AC54" s="33"/>
-      <c r="AD54" s="33"/>
-      <c r="AE54" s="33"/>
-      <c r="AF54" s="33"/>
-      <c r="AG54" s="33"/>
-      <c r="AH54" s="33"/>
-      <c r="AI54" s="33"/>
-      <c r="AJ54" s="33"/>
-      <c r="AK54" s="32"/>
-      <c r="AL54" s="32"/>
-      <c r="AM54" s="32"/>
-      <c r="AN54" s="32"/>
-      <c r="AO54" s="32"/>
-      <c r="AP54" s="32"/>
-      <c r="AQ54" s="32"/>
-      <c r="AR54" s="32"/>
-      <c r="AS54" s="32"/>
-      <c r="AT54" s="32"/>
-      <c r="AU54" s="32"/>
-      <c r="AV54" s="32"/>
-      <c r="AW54" s="32"/>
-      <c r="AX54" s="32"/>
-      <c r="AY54" s="32"/>
-      <c r="AZ54" s="32"/>
-      <c r="BA54" s="32"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="15"/>
+      <c r="M54" s="15"/>
+      <c r="N54" s="15"/>
+      <c r="O54" s="15"/>
+      <c r="P54" s="15"/>
+      <c r="Q54" s="15"/>
+      <c r="R54" s="15"/>
+      <c r="S54" s="15"/>
+      <c r="T54" s="15"/>
+      <c r="U54" s="15"/>
+      <c r="V54" s="15"/>
+      <c r="W54" s="15"/>
+      <c r="X54" s="16"/>
+      <c r="Y54" s="16"/>
+      <c r="Z54" s="16"/>
+      <c r="AA54" s="16"/>
+      <c r="AB54" s="16"/>
+      <c r="AC54" s="16"/>
+      <c r="AD54" s="16"/>
+      <c r="AE54" s="16"/>
+      <c r="AF54" s="16"/>
+      <c r="AG54" s="16"/>
+      <c r="AH54" s="16"/>
+      <c r="AI54" s="16"/>
+      <c r="AJ54" s="16"/>
+      <c r="AK54" s="15"/>
+      <c r="AL54" s="15"/>
+      <c r="AM54" s="15"/>
+      <c r="AN54" s="15"/>
+      <c r="AO54" s="15"/>
+      <c r="AP54" s="15"/>
+      <c r="AQ54" s="15"/>
+      <c r="AR54" s="15"/>
+      <c r="AS54" s="15"/>
+      <c r="AT54" s="15"/>
+      <c r="AU54" s="15"/>
+      <c r="AV54" s="15"/>
+      <c r="AW54" s="15"/>
+      <c r="AX54" s="15"/>
+      <c r="AY54" s="15"/>
+      <c r="AZ54" s="15"/>
+      <c r="BA54" s="15"/>
     </row>
     <row r="55" spans="2:53" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B55" s="32"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="32"/>
-      <c r="J55" s="32"/>
-      <c r="K55" s="32"/>
-      <c r="L55" s="32"/>
-      <c r="M55" s="32"/>
-      <c r="N55" s="32"/>
-      <c r="O55" s="32"/>
-      <c r="P55" s="32"/>
-      <c r="Q55" s="32"/>
-      <c r="R55" s="32"/>
-      <c r="S55" s="32"/>
-      <c r="T55" s="32"/>
-      <c r="U55" s="32"/>
-      <c r="V55" s="32"/>
-      <c r="W55" s="32"/>
-      <c r="X55" s="33"/>
-      <c r="Y55" s="33"/>
-      <c r="Z55" s="33"/>
-      <c r="AA55" s="33"/>
-      <c r="AB55" s="33"/>
-      <c r="AC55" s="33"/>
-      <c r="AD55" s="33"/>
-      <c r="AE55" s="33"/>
-      <c r="AF55" s="33"/>
-      <c r="AG55" s="33"/>
-      <c r="AH55" s="33"/>
-      <c r="AI55" s="33"/>
-      <c r="AJ55" s="33"/>
-      <c r="AK55" s="32"/>
-      <c r="AL55" s="32"/>
-      <c r="AM55" s="32"/>
-      <c r="AN55" s="32"/>
-      <c r="AO55" s="32"/>
-      <c r="AP55" s="32"/>
-      <c r="AQ55" s="32"/>
-      <c r="AR55" s="32"/>
-      <c r="AS55" s="32"/>
-      <c r="AT55" s="32"/>
-      <c r="AU55" s="32"/>
-      <c r="AV55" s="32"/>
-      <c r="AW55" s="32"/>
-      <c r="AX55" s="32"/>
-      <c r="AY55" s="32"/>
-      <c r="AZ55" s="32"/>
-      <c r="BA55" s="32"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="15"/>
+      <c r="L55" s="15"/>
+      <c r="M55" s="15"/>
+      <c r="N55" s="15"/>
+      <c r="O55" s="15"/>
+      <c r="P55" s="15"/>
+      <c r="Q55" s="15"/>
+      <c r="R55" s="15"/>
+      <c r="S55" s="15"/>
+      <c r="T55" s="15"/>
+      <c r="U55" s="15"/>
+      <c r="V55" s="15"/>
+      <c r="W55" s="15"/>
+      <c r="X55" s="16"/>
+      <c r="Y55" s="16"/>
+      <c r="Z55" s="16"/>
+      <c r="AA55" s="16"/>
+      <c r="AB55" s="16"/>
+      <c r="AC55" s="16"/>
+      <c r="AD55" s="16"/>
+      <c r="AE55" s="16"/>
+      <c r="AF55" s="16"/>
+      <c r="AG55" s="16"/>
+      <c r="AH55" s="16"/>
+      <c r="AI55" s="16"/>
+      <c r="AJ55" s="16"/>
+      <c r="AK55" s="15"/>
+      <c r="AL55" s="15"/>
+      <c r="AM55" s="15"/>
+      <c r="AN55" s="15"/>
+      <c r="AO55" s="15"/>
+      <c r="AP55" s="15"/>
+      <c r="AQ55" s="15"/>
+      <c r="AR55" s="15"/>
+      <c r="AS55" s="15"/>
+      <c r="AT55" s="15"/>
+      <c r="AU55" s="15"/>
+      <c r="AV55" s="15"/>
+      <c r="AW55" s="15"/>
+      <c r="AX55" s="15"/>
+      <c r="AY55" s="15"/>
+      <c r="AZ55" s="15"/>
+      <c r="BA55" s="15"/>
     </row>
     <row r="56" spans="2:53" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B56" s="32"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="32"/>
-      <c r="F56" s="32"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="32"/>
-      <c r="J56" s="32"/>
-      <c r="K56" s="32"/>
-      <c r="L56" s="32"/>
-      <c r="M56" s="32"/>
-      <c r="N56" s="32"/>
-      <c r="O56" s="32"/>
-      <c r="P56" s="32"/>
-      <c r="Q56" s="32"/>
-      <c r="R56" s="32"/>
-      <c r="S56" s="32"/>
-      <c r="T56" s="32"/>
-      <c r="U56" s="32"/>
-      <c r="V56" s="32"/>
-      <c r="W56" s="32"/>
-      <c r="X56" s="33"/>
-      <c r="Y56" s="33"/>
-      <c r="Z56" s="33"/>
-      <c r="AA56" s="33"/>
-      <c r="AB56" s="33"/>
-      <c r="AC56" s="33"/>
-      <c r="AD56" s="33"/>
-      <c r="AE56" s="33"/>
-      <c r="AF56" s="33"/>
-      <c r="AG56" s="33"/>
-      <c r="AH56" s="33"/>
-      <c r="AI56" s="33"/>
-      <c r="AJ56" s="33"/>
-      <c r="AK56" s="32"/>
-      <c r="AL56" s="32"/>
-      <c r="AM56" s="32"/>
-      <c r="AN56" s="32"/>
-      <c r="AO56" s="32"/>
-      <c r="AP56" s="32"/>
-      <c r="AQ56" s="32"/>
-      <c r="AR56" s="32"/>
-      <c r="AS56" s="32"/>
-      <c r="AT56" s="32"/>
-      <c r="AU56" s="32"/>
-      <c r="AV56" s="32"/>
-      <c r="AW56" s="32"/>
-      <c r="AX56" s="32"/>
-      <c r="AY56" s="32"/>
-      <c r="AZ56" s="32"/>
-      <c r="BA56" s="32"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="15"/>
+      <c r="M56" s="15"/>
+      <c r="N56" s="15"/>
+      <c r="O56" s="15"/>
+      <c r="P56" s="15"/>
+      <c r="Q56" s="15"/>
+      <c r="R56" s="15"/>
+      <c r="S56" s="15"/>
+      <c r="T56" s="15"/>
+      <c r="U56" s="15"/>
+      <c r="V56" s="15"/>
+      <c r="W56" s="15"/>
+      <c r="X56" s="16"/>
+      <c r="Y56" s="16"/>
+      <c r="Z56" s="16"/>
+      <c r="AA56" s="16"/>
+      <c r="AB56" s="16"/>
+      <c r="AC56" s="16"/>
+      <c r="AD56" s="16"/>
+      <c r="AE56" s="16"/>
+      <c r="AF56" s="16"/>
+      <c r="AG56" s="16"/>
+      <c r="AH56" s="16"/>
+      <c r="AI56" s="16"/>
+      <c r="AJ56" s="16"/>
+      <c r="AK56" s="15"/>
+      <c r="AL56" s="15"/>
+      <c r="AM56" s="15"/>
+      <c r="AN56" s="15"/>
+      <c r="AO56" s="15"/>
+      <c r="AP56" s="15"/>
+      <c r="AQ56" s="15"/>
+      <c r="AR56" s="15"/>
+      <c r="AS56" s="15"/>
+      <c r="AT56" s="15"/>
+      <c r="AU56" s="15"/>
+      <c r="AV56" s="15"/>
+      <c r="AW56" s="15"/>
+      <c r="AX56" s="15"/>
+      <c r="AY56" s="15"/>
+      <c r="AZ56" s="15"/>
+      <c r="BA56" s="15"/>
     </row>
     <row r="57" spans="2:53" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B57" s="32"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="32"/>
-      <c r="F57" s="32"/>
-      <c r="G57" s="32"/>
-      <c r="H57" s="32"/>
-      <c r="I57" s="32"/>
-      <c r="J57" s="32"/>
-      <c r="K57" s="32"/>
-      <c r="L57" s="32"/>
-      <c r="M57" s="32"/>
-      <c r="N57" s="32"/>
-      <c r="O57" s="32"/>
-      <c r="P57" s="32"/>
-      <c r="Q57" s="32"/>
-      <c r="R57" s="32"/>
-      <c r="S57" s="32"/>
-      <c r="T57" s="32"/>
-      <c r="U57" s="32"/>
-      <c r="V57" s="32"/>
-      <c r="W57" s="32"/>
-      <c r="X57" s="33"/>
-      <c r="Y57" s="33"/>
-      <c r="Z57" s="33"/>
-      <c r="AA57" s="33"/>
-      <c r="AB57" s="33"/>
-      <c r="AC57" s="33"/>
-      <c r="AD57" s="33"/>
-      <c r="AE57" s="33"/>
-      <c r="AF57" s="33"/>
-      <c r="AG57" s="33"/>
-      <c r="AH57" s="33"/>
-      <c r="AI57" s="33"/>
-      <c r="AJ57" s="33"/>
-      <c r="AK57" s="32"/>
-      <c r="AL57" s="32"/>
-      <c r="AM57" s="32"/>
-      <c r="AN57" s="32"/>
-      <c r="AO57" s="32"/>
-      <c r="AP57" s="32"/>
-      <c r="AQ57" s="32"/>
-      <c r="AR57" s="32"/>
-      <c r="AS57" s="32"/>
-      <c r="AT57" s="32"/>
-      <c r="AU57" s="32"/>
-      <c r="AV57" s="32"/>
-      <c r="AW57" s="32"/>
-      <c r="AX57" s="32"/>
-      <c r="AY57" s="32"/>
-      <c r="AZ57" s="32"/>
-      <c r="BA57" s="32"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="15"/>
+      <c r="M57" s="15"/>
+      <c r="N57" s="15"/>
+      <c r="O57" s="15"/>
+      <c r="P57" s="15"/>
+      <c r="Q57" s="15"/>
+      <c r="R57" s="15"/>
+      <c r="S57" s="15"/>
+      <c r="T57" s="15"/>
+      <c r="U57" s="15"/>
+      <c r="V57" s="15"/>
+      <c r="W57" s="15"/>
+      <c r="X57" s="16"/>
+      <c r="Y57" s="16"/>
+      <c r="Z57" s="16"/>
+      <c r="AA57" s="16"/>
+      <c r="AB57" s="16"/>
+      <c r="AC57" s="16"/>
+      <c r="AD57" s="16"/>
+      <c r="AE57" s="16"/>
+      <c r="AF57" s="16"/>
+      <c r="AG57" s="16"/>
+      <c r="AH57" s="16"/>
+      <c r="AI57" s="16"/>
+      <c r="AJ57" s="16"/>
+      <c r="AK57" s="15"/>
+      <c r="AL57" s="15"/>
+      <c r="AM57" s="15"/>
+      <c r="AN57" s="15"/>
+      <c r="AO57" s="15"/>
+      <c r="AP57" s="15"/>
+      <c r="AQ57" s="15"/>
+      <c r="AR57" s="15"/>
+      <c r="AS57" s="15"/>
+      <c r="AT57" s="15"/>
+      <c r="AU57" s="15"/>
+      <c r="AV57" s="15"/>
+      <c r="AW57" s="15"/>
+      <c r="AX57" s="15"/>
+      <c r="AY57" s="15"/>
+      <c r="AZ57" s="15"/>
+      <c r="BA57" s="15"/>
     </row>
     <row r="58" spans="2:53" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B58" s="32"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="32"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="32"/>
-      <c r="I58" s="32"/>
-      <c r="J58" s="32"/>
-      <c r="K58" s="32"/>
-      <c r="L58" s="32"/>
-      <c r="M58" s="32"/>
-      <c r="N58" s="32"/>
-      <c r="O58" s="32"/>
-      <c r="P58" s="32"/>
-      <c r="Q58" s="32"/>
-      <c r="R58" s="32"/>
-      <c r="S58" s="32"/>
-      <c r="T58" s="32"/>
-      <c r="U58" s="32"/>
-      <c r="V58" s="32"/>
-      <c r="W58" s="32"/>
-      <c r="X58" s="33"/>
-      <c r="Y58" s="33"/>
-      <c r="Z58" s="33"/>
-      <c r="AA58" s="33"/>
-      <c r="AB58" s="33"/>
-      <c r="AC58" s="33"/>
-      <c r="AD58" s="33"/>
-      <c r="AE58" s="33"/>
-      <c r="AF58" s="33"/>
-      <c r="AG58" s="33"/>
-      <c r="AH58" s="33"/>
-      <c r="AI58" s="33"/>
-      <c r="AJ58" s="33"/>
-      <c r="AK58" s="32"/>
-      <c r="AL58" s="32"/>
-      <c r="AM58" s="32"/>
-      <c r="AN58" s="32"/>
-      <c r="AO58" s="32"/>
-      <c r="AP58" s="32"/>
-      <c r="AQ58" s="32"/>
-      <c r="AR58" s="32"/>
-      <c r="AS58" s="32"/>
-      <c r="AT58" s="32"/>
-      <c r="AU58" s="32"/>
-      <c r="AV58" s="32"/>
-      <c r="AW58" s="32"/>
-      <c r="AX58" s="32"/>
-      <c r="AY58" s="32"/>
-      <c r="AZ58" s="32"/>
-      <c r="BA58" s="32"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="15"/>
+      <c r="M58" s="15"/>
+      <c r="N58" s="15"/>
+      <c r="O58" s="15"/>
+      <c r="P58" s="15"/>
+      <c r="Q58" s="15"/>
+      <c r="R58" s="15"/>
+      <c r="S58" s="15"/>
+      <c r="T58" s="15"/>
+      <c r="U58" s="15"/>
+      <c r="V58" s="15"/>
+      <c r="W58" s="15"/>
+      <c r="X58" s="16"/>
+      <c r="Y58" s="16"/>
+      <c r="Z58" s="16"/>
+      <c r="AA58" s="16"/>
+      <c r="AB58" s="16"/>
+      <c r="AC58" s="16"/>
+      <c r="AD58" s="16"/>
+      <c r="AE58" s="16"/>
+      <c r="AF58" s="16"/>
+      <c r="AG58" s="16"/>
+      <c r="AH58" s="16"/>
+      <c r="AI58" s="16"/>
+      <c r="AJ58" s="16"/>
+      <c r="AK58" s="15"/>
+      <c r="AL58" s="15"/>
+      <c r="AM58" s="15"/>
+      <c r="AN58" s="15"/>
+      <c r="AO58" s="15"/>
+      <c r="AP58" s="15"/>
+      <c r="AQ58" s="15"/>
+      <c r="AR58" s="15"/>
+      <c r="AS58" s="15"/>
+      <c r="AT58" s="15"/>
+      <c r="AU58" s="15"/>
+      <c r="AV58" s="15"/>
+      <c r="AW58" s="15"/>
+      <c r="AX58" s="15"/>
+      <c r="AY58" s="15"/>
+      <c r="AZ58" s="15"/>
+      <c r="BA58" s="15"/>
     </row>
     <row r="59" spans="2:53" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B59" s="32"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="32"/>
-      <c r="F59" s="32"/>
-      <c r="G59" s="32"/>
-      <c r="H59" s="32"/>
-      <c r="I59" s="32"/>
-      <c r="J59" s="32"/>
-      <c r="K59" s="32"/>
-      <c r="L59" s="32"/>
-      <c r="M59" s="32"/>
-      <c r="N59" s="32"/>
-      <c r="O59" s="32"/>
-      <c r="P59" s="32"/>
-      <c r="Q59" s="32"/>
-      <c r="R59" s="32"/>
-      <c r="S59" s="32"/>
-      <c r="T59" s="32"/>
-      <c r="U59" s="32"/>
-      <c r="V59" s="32"/>
-      <c r="W59" s="32"/>
-      <c r="X59" s="33"/>
-      <c r="Y59" s="33"/>
-      <c r="Z59" s="33"/>
-      <c r="AA59" s="33"/>
-      <c r="AB59" s="33"/>
-      <c r="AC59" s="33"/>
-      <c r="AD59" s="33"/>
-      <c r="AE59" s="33"/>
-      <c r="AF59" s="33"/>
-      <c r="AG59" s="33"/>
-      <c r="AH59" s="33"/>
-      <c r="AI59" s="33"/>
-      <c r="AJ59" s="33"/>
-      <c r="AK59" s="32"/>
-      <c r="AL59" s="32"/>
-      <c r="AM59" s="32"/>
-      <c r="AN59" s="32"/>
-      <c r="AO59" s="32"/>
-      <c r="AP59" s="32"/>
-      <c r="AQ59" s="32"/>
-      <c r="AR59" s="32"/>
-      <c r="AS59" s="32"/>
-      <c r="AT59" s="32"/>
-      <c r="AU59" s="32"/>
-      <c r="AV59" s="32"/>
-      <c r="AW59" s="32"/>
-      <c r="AX59" s="32"/>
-      <c r="AY59" s="32"/>
-      <c r="AZ59" s="32"/>
-      <c r="BA59" s="32"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="15"/>
+      <c r="N59" s="15"/>
+      <c r="O59" s="15"/>
+      <c r="P59" s="15"/>
+      <c r="Q59" s="15"/>
+      <c r="R59" s="15"/>
+      <c r="S59" s="15"/>
+      <c r="T59" s="15"/>
+      <c r="U59" s="15"/>
+      <c r="V59" s="15"/>
+      <c r="W59" s="15"/>
+      <c r="X59" s="16"/>
+      <c r="Y59" s="16"/>
+      <c r="Z59" s="16"/>
+      <c r="AA59" s="16"/>
+      <c r="AB59" s="16"/>
+      <c r="AC59" s="16"/>
+      <c r="AD59" s="16"/>
+      <c r="AE59" s="16"/>
+      <c r="AF59" s="16"/>
+      <c r="AG59" s="16"/>
+      <c r="AH59" s="16"/>
+      <c r="AI59" s="16"/>
+      <c r="AJ59" s="16"/>
+      <c r="AK59" s="15"/>
+      <c r="AL59" s="15"/>
+      <c r="AM59" s="15"/>
+      <c r="AN59" s="15"/>
+      <c r="AO59" s="15"/>
+      <c r="AP59" s="15"/>
+      <c r="AQ59" s="15"/>
+      <c r="AR59" s="15"/>
+      <c r="AS59" s="15"/>
+      <c r="AT59" s="15"/>
+      <c r="AU59" s="15"/>
+      <c r="AV59" s="15"/>
+      <c r="AW59" s="15"/>
+      <c r="AX59" s="15"/>
+      <c r="AY59" s="15"/>
+      <c r="AZ59" s="15"/>
+      <c r="BA59" s="15"/>
     </row>
     <row r="60" spans="2:53" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B60" s="32"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="32"/>
-      <c r="E60" s="32"/>
-      <c r="F60" s="32"/>
-      <c r="G60" s="32"/>
-      <c r="H60" s="32"/>
-      <c r="I60" s="32"/>
-      <c r="J60" s="32"/>
-      <c r="K60" s="32"/>
-      <c r="L60" s="32"/>
-      <c r="M60" s="32"/>
-      <c r="N60" s="32"/>
-      <c r="O60" s="32"/>
-      <c r="P60" s="32"/>
-      <c r="Q60" s="32"/>
-      <c r="R60" s="32"/>
-      <c r="S60" s="32"/>
-      <c r="T60" s="32"/>
-      <c r="U60" s="32"/>
-      <c r="V60" s="32"/>
-      <c r="W60" s="32"/>
-      <c r="X60" s="33"/>
-      <c r="Y60" s="33"/>
-      <c r="Z60" s="33"/>
-      <c r="AA60" s="33"/>
-      <c r="AB60" s="33"/>
-      <c r="AC60" s="33"/>
-      <c r="AD60" s="33"/>
-      <c r="AE60" s="33"/>
-      <c r="AF60" s="33"/>
-      <c r="AG60" s="33"/>
-      <c r="AH60" s="33"/>
-      <c r="AI60" s="33"/>
-      <c r="AJ60" s="33"/>
-      <c r="AK60" s="32"/>
-      <c r="AL60" s="32"/>
-      <c r="AM60" s="32"/>
-      <c r="AN60" s="32"/>
-      <c r="AO60" s="32"/>
-      <c r="AP60" s="32"/>
-      <c r="AQ60" s="32"/>
-      <c r="AR60" s="32"/>
-      <c r="AS60" s="32"/>
-      <c r="AT60" s="32"/>
-      <c r="AU60" s="32"/>
-      <c r="AV60" s="32"/>
-      <c r="AW60" s="32"/>
-      <c r="AX60" s="32"/>
-      <c r="AY60" s="32"/>
-      <c r="AZ60" s="32"/>
-      <c r="BA60" s="32"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="15"/>
+      <c r="L60" s="15"/>
+      <c r="M60" s="15"/>
+      <c r="N60" s="15"/>
+      <c r="O60" s="15"/>
+      <c r="P60" s="15"/>
+      <c r="Q60" s="15"/>
+      <c r="R60" s="15"/>
+      <c r="S60" s="15"/>
+      <c r="T60" s="15"/>
+      <c r="U60" s="15"/>
+      <c r="V60" s="15"/>
+      <c r="W60" s="15"/>
+      <c r="X60" s="16"/>
+      <c r="Y60" s="16"/>
+      <c r="Z60" s="16"/>
+      <c r="AA60" s="16"/>
+      <c r="AB60" s="16"/>
+      <c r="AC60" s="16"/>
+      <c r="AD60" s="16"/>
+      <c r="AE60" s="16"/>
+      <c r="AF60" s="16"/>
+      <c r="AG60" s="16"/>
+      <c r="AH60" s="16"/>
+      <c r="AI60" s="16"/>
+      <c r="AJ60" s="16"/>
+      <c r="AK60" s="15"/>
+      <c r="AL60" s="15"/>
+      <c r="AM60" s="15"/>
+      <c r="AN60" s="15"/>
+      <c r="AO60" s="15"/>
+      <c r="AP60" s="15"/>
+      <c r="AQ60" s="15"/>
+      <c r="AR60" s="15"/>
+      <c r="AS60" s="15"/>
+      <c r="AT60" s="15"/>
+      <c r="AU60" s="15"/>
+      <c r="AV60" s="15"/>
+      <c r="AW60" s="15"/>
+      <c r="AX60" s="15"/>
+      <c r="AY60" s="15"/>
+      <c r="AZ60" s="15"/>
+      <c r="BA60" s="15"/>
     </row>
     <row r="61" spans="2:53" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B61" s="32"/>
-      <c r="C61" s="32"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="32"/>
-      <c r="F61" s="32"/>
-      <c r="G61" s="32"/>
-      <c r="H61" s="32"/>
-      <c r="I61" s="32"/>
-      <c r="J61" s="32"/>
-      <c r="K61" s="32"/>
-      <c r="L61" s="32"/>
-      <c r="M61" s="32"/>
-      <c r="N61" s="32"/>
-      <c r="O61" s="32"/>
-      <c r="P61" s="32"/>
-      <c r="Q61" s="32"/>
-      <c r="R61" s="32"/>
-      <c r="S61" s="32"/>
-      <c r="T61" s="32"/>
-      <c r="U61" s="32"/>
-      <c r="V61" s="32"/>
-      <c r="W61" s="32"/>
-      <c r="X61" s="33"/>
-      <c r="Y61" s="33"/>
-      <c r="Z61" s="33"/>
-      <c r="AA61" s="33"/>
-      <c r="AB61" s="33"/>
-      <c r="AC61" s="33"/>
-      <c r="AD61" s="33"/>
-      <c r="AE61" s="33"/>
-      <c r="AF61" s="33"/>
-      <c r="AG61" s="33"/>
-      <c r="AH61" s="33"/>
-      <c r="AI61" s="33"/>
-      <c r="AJ61" s="33"/>
-      <c r="AK61" s="32"/>
-      <c r="AL61" s="32"/>
-      <c r="AM61" s="32"/>
-      <c r="AN61" s="32"/>
-      <c r="AO61" s="32"/>
-      <c r="AP61" s="32"/>
-      <c r="AQ61" s="32"/>
-      <c r="AR61" s="32"/>
-      <c r="AS61" s="32"/>
-      <c r="AT61" s="32"/>
-      <c r="AU61" s="32"/>
-      <c r="AV61" s="32"/>
-      <c r="AW61" s="32"/>
-      <c r="AX61" s="32"/>
-      <c r="AY61" s="32"/>
-      <c r="AZ61" s="32"/>
-      <c r="BA61" s="32"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="15"/>
+      <c r="N61" s="15"/>
+      <c r="O61" s="15"/>
+      <c r="P61" s="15"/>
+      <c r="Q61" s="15"/>
+      <c r="R61" s="15"/>
+      <c r="S61" s="15"/>
+      <c r="T61" s="15"/>
+      <c r="U61" s="15"/>
+      <c r="V61" s="15"/>
+      <c r="W61" s="15"/>
+      <c r="X61" s="16"/>
+      <c r="Y61" s="16"/>
+      <c r="Z61" s="16"/>
+      <c r="AA61" s="16"/>
+      <c r="AB61" s="16"/>
+      <c r="AC61" s="16"/>
+      <c r="AD61" s="16"/>
+      <c r="AE61" s="16"/>
+      <c r="AF61" s="16"/>
+      <c r="AG61" s="16"/>
+      <c r="AH61" s="16"/>
+      <c r="AI61" s="16"/>
+      <c r="AJ61" s="16"/>
+      <c r="AK61" s="15"/>
+      <c r="AL61" s="15"/>
+      <c r="AM61" s="15"/>
+      <c r="AN61" s="15"/>
+      <c r="AO61" s="15"/>
+      <c r="AP61" s="15"/>
+      <c r="AQ61" s="15"/>
+      <c r="AR61" s="15"/>
+      <c r="AS61" s="15"/>
+      <c r="AT61" s="15"/>
+      <c r="AU61" s="15"/>
+      <c r="AV61" s="15"/>
+      <c r="AW61" s="15"/>
+      <c r="AX61" s="15"/>
+      <c r="AY61" s="15"/>
+      <c r="AZ61" s="15"/>
+      <c r="BA61" s="15"/>
     </row>
     <row r="62" spans="2:53" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B62" s="32"/>
-      <c r="C62" s="32"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="32"/>
-      <c r="G62" s="32"/>
-      <c r="H62" s="32"/>
-      <c r="I62" s="32"/>
-      <c r="J62" s="32"/>
-      <c r="K62" s="32"/>
-      <c r="L62" s="32"/>
-      <c r="M62" s="32"/>
-      <c r="N62" s="32"/>
-      <c r="O62" s="32"/>
-      <c r="P62" s="32"/>
-      <c r="Q62" s="32"/>
-      <c r="R62" s="32"/>
-      <c r="S62" s="32"/>
-      <c r="T62" s="32"/>
-      <c r="U62" s="32"/>
-      <c r="V62" s="32"/>
-      <c r="W62" s="32"/>
-      <c r="X62" s="33"/>
-      <c r="Y62" s="33"/>
-      <c r="Z62" s="33"/>
-      <c r="AA62" s="33"/>
-      <c r="AB62" s="33"/>
-      <c r="AC62" s="33"/>
-      <c r="AD62" s="33"/>
-      <c r="AE62" s="33"/>
-      <c r="AF62" s="33"/>
-      <c r="AG62" s="33"/>
-      <c r="AH62" s="33"/>
-      <c r="AI62" s="33"/>
-      <c r="AJ62" s="33"/>
-      <c r="AK62" s="32"/>
-      <c r="AL62" s="32"/>
-      <c r="AM62" s="32"/>
-      <c r="AN62" s="32"/>
-      <c r="AO62" s="32"/>
-      <c r="AP62" s="32"/>
-      <c r="AQ62" s="32"/>
-      <c r="AR62" s="32"/>
-      <c r="AS62" s="32"/>
-      <c r="AT62" s="32"/>
-      <c r="AU62" s="32"/>
-      <c r="AV62" s="32"/>
-      <c r="AW62" s="32"/>
-      <c r="AX62" s="32"/>
-      <c r="AY62" s="32"/>
-      <c r="AZ62" s="32"/>
-      <c r="BA62" s="32"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="15"/>
+      <c r="N62" s="15"/>
+      <c r="O62" s="15"/>
+      <c r="P62" s="15"/>
+      <c r="Q62" s="15"/>
+      <c r="R62" s="15"/>
+      <c r="S62" s="15"/>
+      <c r="T62" s="15"/>
+      <c r="U62" s="15"/>
+      <c r="V62" s="15"/>
+      <c r="W62" s="15"/>
+      <c r="X62" s="16"/>
+      <c r="Y62" s="16"/>
+      <c r="Z62" s="16"/>
+      <c r="AA62" s="16"/>
+      <c r="AB62" s="16"/>
+      <c r="AC62" s="16"/>
+      <c r="AD62" s="16"/>
+      <c r="AE62" s="16"/>
+      <c r="AF62" s="16"/>
+      <c r="AG62" s="16"/>
+      <c r="AH62" s="16"/>
+      <c r="AI62" s="16"/>
+      <c r="AJ62" s="16"/>
+      <c r="AK62" s="15"/>
+      <c r="AL62" s="15"/>
+      <c r="AM62" s="15"/>
+      <c r="AN62" s="15"/>
+      <c r="AO62" s="15"/>
+      <c r="AP62" s="15"/>
+      <c r="AQ62" s="15"/>
+      <c r="AR62" s="15"/>
+      <c r="AS62" s="15"/>
+      <c r="AT62" s="15"/>
+      <c r="AU62" s="15"/>
+      <c r="AV62" s="15"/>
+      <c r="AW62" s="15"/>
+      <c r="AX62" s="15"/>
+      <c r="AY62" s="15"/>
+      <c r="AZ62" s="15"/>
+      <c r="BA62" s="15"/>
     </row>
     <row r="63" spans="2:53" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B63" s="32"/>
-      <c r="C63" s="32"/>
-      <c r="D63" s="32"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="32"/>
-      <c r="G63" s="32"/>
-      <c r="H63" s="32"/>
-      <c r="I63" s="32"/>
-      <c r="J63" s="32"/>
-      <c r="K63" s="32"/>
-      <c r="L63" s="32"/>
-      <c r="M63" s="32"/>
-      <c r="N63" s="32"/>
-      <c r="O63" s="32"/>
-      <c r="P63" s="32"/>
-      <c r="Q63" s="32"/>
-      <c r="R63" s="32"/>
-      <c r="S63" s="32"/>
-      <c r="T63" s="32"/>
-      <c r="U63" s="32"/>
-      <c r="V63" s="32"/>
-      <c r="W63" s="32"/>
-      <c r="X63" s="33"/>
-      <c r="Y63" s="33"/>
-      <c r="Z63" s="33"/>
-      <c r="AA63" s="33"/>
-      <c r="AB63" s="33"/>
-      <c r="AC63" s="33"/>
-      <c r="AD63" s="33"/>
-      <c r="AE63" s="33"/>
-      <c r="AF63" s="33"/>
-      <c r="AG63" s="33"/>
-      <c r="AH63" s="33"/>
-      <c r="AI63" s="33"/>
-      <c r="AJ63" s="33"/>
-      <c r="AK63" s="32"/>
-      <c r="AL63" s="32"/>
-      <c r="AM63" s="32"/>
-      <c r="AN63" s="32"/>
-      <c r="AO63" s="32"/>
-      <c r="AP63" s="32"/>
-      <c r="AQ63" s="32"/>
-      <c r="AR63" s="32"/>
-      <c r="AS63" s="32"/>
-      <c r="AT63" s="32"/>
-      <c r="AU63" s="32"/>
-      <c r="AV63" s="32"/>
-      <c r="AW63" s="32"/>
-      <c r="AX63" s="32"/>
-      <c r="AY63" s="32"/>
-      <c r="AZ63" s="32"/>
-      <c r="BA63" s="32"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="15"/>
+      <c r="L63" s="15"/>
+      <c r="M63" s="15"/>
+      <c r="N63" s="15"/>
+      <c r="O63" s="15"/>
+      <c r="P63" s="15"/>
+      <c r="Q63" s="15"/>
+      <c r="R63" s="15"/>
+      <c r="S63" s="15"/>
+      <c r="T63" s="15"/>
+      <c r="U63" s="15"/>
+      <c r="V63" s="15"/>
+      <c r="W63" s="15"/>
+      <c r="X63" s="16"/>
+      <c r="Y63" s="16"/>
+      <c r="Z63" s="16"/>
+      <c r="AA63" s="16"/>
+      <c r="AB63" s="16"/>
+      <c r="AC63" s="16"/>
+      <c r="AD63" s="16"/>
+      <c r="AE63" s="16"/>
+      <c r="AF63" s="16"/>
+      <c r="AG63" s="16"/>
+      <c r="AH63" s="16"/>
+      <c r="AI63" s="16"/>
+      <c r="AJ63" s="16"/>
+      <c r="AK63" s="15"/>
+      <c r="AL63" s="15"/>
+      <c r="AM63" s="15"/>
+      <c r="AN63" s="15"/>
+      <c r="AO63" s="15"/>
+      <c r="AP63" s="15"/>
+      <c r="AQ63" s="15"/>
+      <c r="AR63" s="15"/>
+      <c r="AS63" s="15"/>
+      <c r="AT63" s="15"/>
+      <c r="AU63" s="15"/>
+      <c r="AV63" s="15"/>
+      <c r="AW63" s="15"/>
+      <c r="AX63" s="15"/>
+      <c r="AY63" s="15"/>
+      <c r="AZ63" s="15"/>
+      <c r="BA63" s="15"/>
     </row>
     <row r="64" spans="2:53" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B64" s="32"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="32"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="32"/>
-      <c r="G64" s="32"/>
-      <c r="H64" s="32"/>
-      <c r="I64" s="32"/>
-      <c r="J64" s="32"/>
-      <c r="K64" s="32"/>
-      <c r="L64" s="32"/>
-      <c r="M64" s="32"/>
-      <c r="N64" s="32"/>
-      <c r="O64" s="32"/>
-      <c r="P64" s="32"/>
-      <c r="Q64" s="32"/>
-      <c r="R64" s="32"/>
-      <c r="S64" s="32"/>
-      <c r="T64" s="32"/>
-      <c r="U64" s="32"/>
-      <c r="V64" s="32"/>
-      <c r="W64" s="32"/>
-      <c r="X64" s="33"/>
-      <c r="Y64" s="33"/>
-      <c r="Z64" s="33"/>
-      <c r="AA64" s="33"/>
-      <c r="AB64" s="33"/>
-      <c r="AC64" s="33"/>
-      <c r="AD64" s="33"/>
-      <c r="AE64" s="33"/>
-      <c r="AF64" s="33"/>
-      <c r="AG64" s="33"/>
-      <c r="AH64" s="33"/>
-      <c r="AI64" s="33"/>
-      <c r="AJ64" s="33"/>
-      <c r="AK64" s="32"/>
-      <c r="AL64" s="32"/>
-      <c r="AM64" s="32"/>
-      <c r="AN64" s="32"/>
-      <c r="AO64" s="32"/>
-      <c r="AP64" s="32"/>
-      <c r="AQ64" s="32"/>
-      <c r="AR64" s="32"/>
-      <c r="AS64" s="32"/>
-      <c r="AT64" s="32"/>
-      <c r="AU64" s="32"/>
-      <c r="AV64" s="32"/>
-      <c r="AW64" s="32"/>
-      <c r="AX64" s="32"/>
-      <c r="AY64" s="32"/>
-      <c r="AZ64" s="32"/>
-      <c r="BA64" s="32"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="15"/>
+      <c r="K64" s="15"/>
+      <c r="L64" s="15"/>
+      <c r="M64" s="15"/>
+      <c r="N64" s="15"/>
+      <c r="O64" s="15"/>
+      <c r="P64" s="15"/>
+      <c r="Q64" s="15"/>
+      <c r="R64" s="15"/>
+      <c r="S64" s="15"/>
+      <c r="T64" s="15"/>
+      <c r="U64" s="15"/>
+      <c r="V64" s="15"/>
+      <c r="W64" s="15"/>
+      <c r="X64" s="16"/>
+      <c r="Y64" s="16"/>
+      <c r="Z64" s="16"/>
+      <c r="AA64" s="16"/>
+      <c r="AB64" s="16"/>
+      <c r="AC64" s="16"/>
+      <c r="AD64" s="16"/>
+      <c r="AE64" s="16"/>
+      <c r="AF64" s="16"/>
+      <c r="AG64" s="16"/>
+      <c r="AH64" s="16"/>
+      <c r="AI64" s="16"/>
+      <c r="AJ64" s="16"/>
+      <c r="AK64" s="15"/>
+      <c r="AL64" s="15"/>
+      <c r="AM64" s="15"/>
+      <c r="AN64" s="15"/>
+      <c r="AO64" s="15"/>
+      <c r="AP64" s="15"/>
+      <c r="AQ64" s="15"/>
+      <c r="AR64" s="15"/>
+      <c r="AS64" s="15"/>
+      <c r="AT64" s="15"/>
+      <c r="AU64" s="15"/>
+      <c r="AV64" s="15"/>
+      <c r="AW64" s="15"/>
+      <c r="AX64" s="15"/>
+      <c r="AY64" s="15"/>
+      <c r="AZ64" s="15"/>
+      <c r="BA64" s="15"/>
     </row>
     <row r="65" spans="2:53" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B65" s="32"/>
-      <c r="C65" s="32"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="32"/>
-      <c r="G65" s="32"/>
-      <c r="H65" s="32"/>
-      <c r="I65" s="32"/>
-      <c r="J65" s="32"/>
-      <c r="K65" s="32"/>
-      <c r="L65" s="32"/>
-      <c r="M65" s="32"/>
-      <c r="N65" s="32"/>
-      <c r="O65" s="32"/>
-      <c r="P65" s="32"/>
-      <c r="Q65" s="32"/>
-      <c r="R65" s="32"/>
-      <c r="S65" s="32"/>
-      <c r="T65" s="32"/>
-      <c r="U65" s="32"/>
-      <c r="V65" s="32"/>
-      <c r="W65" s="32"/>
-      <c r="X65" s="33"/>
-      <c r="Y65" s="33"/>
-      <c r="Z65" s="33"/>
-      <c r="AA65" s="33"/>
-      <c r="AB65" s="33"/>
-      <c r="AC65" s="33"/>
-      <c r="AD65" s="33"/>
-      <c r="AE65" s="33"/>
-      <c r="AF65" s="33"/>
-      <c r="AG65" s="33"/>
-      <c r="AH65" s="33"/>
-      <c r="AI65" s="33"/>
-      <c r="AJ65" s="33"/>
-      <c r="AK65" s="32"/>
-      <c r="AL65" s="32"/>
-      <c r="AM65" s="32"/>
-      <c r="AN65" s="32"/>
-      <c r="AO65" s="32"/>
-      <c r="AP65" s="32"/>
-      <c r="AQ65" s="32"/>
-      <c r="AR65" s="32"/>
-      <c r="AS65" s="32"/>
-      <c r="AT65" s="32"/>
-      <c r="AU65" s="32"/>
-      <c r="AV65" s="32"/>
-      <c r="AW65" s="32"/>
-      <c r="AX65" s="32"/>
-      <c r="AY65" s="32"/>
-      <c r="AZ65" s="32"/>
-      <c r="BA65" s="32"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="15"/>
+      <c r="K65" s="15"/>
+      <c r="L65" s="15"/>
+      <c r="M65" s="15"/>
+      <c r="N65" s="15"/>
+      <c r="O65" s="15"/>
+      <c r="P65" s="15"/>
+      <c r="Q65" s="15"/>
+      <c r="R65" s="15"/>
+      <c r="S65" s="15"/>
+      <c r="T65" s="15"/>
+      <c r="U65" s="15"/>
+      <c r="V65" s="15"/>
+      <c r="W65" s="15"/>
+      <c r="X65" s="16"/>
+      <c r="Y65" s="16"/>
+      <c r="Z65" s="16"/>
+      <c r="AA65" s="16"/>
+      <c r="AB65" s="16"/>
+      <c r="AC65" s="16"/>
+      <c r="AD65" s="16"/>
+      <c r="AE65" s="16"/>
+      <c r="AF65" s="16"/>
+      <c r="AG65" s="16"/>
+      <c r="AH65" s="16"/>
+      <c r="AI65" s="16"/>
+      <c r="AJ65" s="16"/>
+      <c r="AK65" s="15"/>
+      <c r="AL65" s="15"/>
+      <c r="AM65" s="15"/>
+      <c r="AN65" s="15"/>
+      <c r="AO65" s="15"/>
+      <c r="AP65" s="15"/>
+      <c r="AQ65" s="15"/>
+      <c r="AR65" s="15"/>
+      <c r="AS65" s="15"/>
+      <c r="AT65" s="15"/>
+      <c r="AU65" s="15"/>
+      <c r="AV65" s="15"/>
+      <c r="AW65" s="15"/>
+      <c r="AX65" s="15"/>
+      <c r="AY65" s="15"/>
+      <c r="AZ65" s="15"/>
+      <c r="BA65" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="313">
-    <mergeCell ref="AW47:BA47"/>
-    <mergeCell ref="B44:J44"/>
-    <mergeCell ref="K44:W44"/>
-    <mergeCell ref="X44:AJ44"/>
-    <mergeCell ref="AK44:AV44"/>
-    <mergeCell ref="AW44:BA44"/>
-    <mergeCell ref="B45:J45"/>
-    <mergeCell ref="K45:W45"/>
-    <mergeCell ref="X45:AJ45"/>
-    <mergeCell ref="AK45:AV45"/>
-    <mergeCell ref="AW45:BA45"/>
-    <mergeCell ref="B61:J61"/>
-    <mergeCell ref="K61:W61"/>
-    <mergeCell ref="X61:AJ61"/>
-    <mergeCell ref="AK61:AV61"/>
-    <mergeCell ref="AW61:BA61"/>
-    <mergeCell ref="B60:J60"/>
-    <mergeCell ref="K60:W60"/>
-    <mergeCell ref="X60:AJ60"/>
-    <mergeCell ref="AK60:AV60"/>
-    <mergeCell ref="AW60:BA60"/>
-    <mergeCell ref="B59:J59"/>
-    <mergeCell ref="K59:W59"/>
-    <mergeCell ref="X59:AJ59"/>
-    <mergeCell ref="AK59:AV59"/>
-    <mergeCell ref="AW59:BA59"/>
-    <mergeCell ref="B58:J58"/>
-    <mergeCell ref="K58:W58"/>
-    <mergeCell ref="X58:AJ58"/>
-    <mergeCell ref="AK58:AV58"/>
-    <mergeCell ref="AW58:BA58"/>
-    <mergeCell ref="B57:J57"/>
-    <mergeCell ref="K57:W57"/>
-    <mergeCell ref="X57:AJ57"/>
-    <mergeCell ref="AK57:AV57"/>
-    <mergeCell ref="AW57:BA57"/>
-    <mergeCell ref="B56:J56"/>
-    <mergeCell ref="K56:W56"/>
-    <mergeCell ref="X56:AJ56"/>
-    <mergeCell ref="AK56:AV56"/>
-    <mergeCell ref="AW56:BA56"/>
-    <mergeCell ref="B55:J55"/>
-    <mergeCell ref="K55:W55"/>
-    <mergeCell ref="X55:AJ55"/>
-    <mergeCell ref="AK55:AV55"/>
-    <mergeCell ref="AW55:BA55"/>
-    <mergeCell ref="B54:J54"/>
-    <mergeCell ref="K54:W54"/>
-    <mergeCell ref="X54:AJ54"/>
-    <mergeCell ref="AK54:AV54"/>
-    <mergeCell ref="AW54:BA54"/>
-    <mergeCell ref="B53:J53"/>
-    <mergeCell ref="K53:W53"/>
-    <mergeCell ref="X53:AJ53"/>
-    <mergeCell ref="AK53:AV53"/>
-    <mergeCell ref="AW53:BA53"/>
-    <mergeCell ref="B52:J52"/>
-    <mergeCell ref="K52:W52"/>
-    <mergeCell ref="X52:AJ52"/>
-    <mergeCell ref="AK52:AV52"/>
-    <mergeCell ref="AW52:BA52"/>
-    <mergeCell ref="B51:J51"/>
-    <mergeCell ref="K51:W51"/>
-    <mergeCell ref="X51:AJ51"/>
-    <mergeCell ref="AK51:AV51"/>
-    <mergeCell ref="AW51:BA51"/>
-    <mergeCell ref="B50:J50"/>
-    <mergeCell ref="K50:W50"/>
-    <mergeCell ref="X50:AJ50"/>
-    <mergeCell ref="AK50:AV50"/>
-    <mergeCell ref="AW50:BA50"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="K12:W12"/>
+    <mergeCell ref="X12:AJ12"/>
+    <mergeCell ref="AK12:AV12"/>
+    <mergeCell ref="AW12:BA12"/>
+    <mergeCell ref="AW9:BA9"/>
+    <mergeCell ref="AK9:AV9"/>
+    <mergeCell ref="AW10:BA10"/>
+    <mergeCell ref="AW11:BA11"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="K10:W10"/>
+    <mergeCell ref="X10:AJ10"/>
+    <mergeCell ref="AK10:AV10"/>
+    <mergeCell ref="X11:AJ11"/>
+    <mergeCell ref="K11:W11"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="AK11:AV11"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="X9:AJ9"/>
+    <mergeCell ref="K9:W9"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="K6:W6"/>
+    <mergeCell ref="X6:AJ6"/>
+    <mergeCell ref="AK7:AV7"/>
+    <mergeCell ref="AK8:AV8"/>
+    <mergeCell ref="AK6:AV6"/>
+    <mergeCell ref="AW6:BA6"/>
+    <mergeCell ref="AW7:BA7"/>
+    <mergeCell ref="AW8:BA8"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="K8:W8"/>
+    <mergeCell ref="X8:AJ8"/>
+    <mergeCell ref="K7:W7"/>
+    <mergeCell ref="X7:AJ7"/>
+    <mergeCell ref="AW1:BA1"/>
+    <mergeCell ref="A2:I4"/>
+    <mergeCell ref="J2:O4"/>
+    <mergeCell ref="AH2:AL4"/>
+    <mergeCell ref="AM2:AQ4"/>
+    <mergeCell ref="AR2:AV4"/>
+    <mergeCell ref="AW2:BA4"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="P1:AG4"/>
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="AM1:AQ1"/>
+    <mergeCell ref="AR1:AV1"/>
+    <mergeCell ref="AK23:AV23"/>
+    <mergeCell ref="AW23:BA23"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="K22:W22"/>
+    <mergeCell ref="X22:AJ22"/>
+    <mergeCell ref="AK22:AV22"/>
+    <mergeCell ref="AW22:BA22"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="K13:W13"/>
+    <mergeCell ref="X13:AJ13"/>
+    <mergeCell ref="AK13:AV13"/>
+    <mergeCell ref="AW13:BA13"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="K14:W14"/>
+    <mergeCell ref="X14:AJ14"/>
+    <mergeCell ref="AK14:AV14"/>
+    <mergeCell ref="AW14:BA14"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="K16:W16"/>
+    <mergeCell ref="X16:AJ16"/>
+    <mergeCell ref="AK16:AV16"/>
+    <mergeCell ref="AW16:BA16"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="K15:W15"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="K29:W29"/>
+    <mergeCell ref="X29:AJ29"/>
+    <mergeCell ref="AK29:AV29"/>
+    <mergeCell ref="AW29:BA29"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="K28:W28"/>
+    <mergeCell ref="X28:AJ28"/>
+    <mergeCell ref="AK28:AV28"/>
+    <mergeCell ref="AW28:BA28"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="K27:W27"/>
+    <mergeCell ref="X27:AJ27"/>
+    <mergeCell ref="AK27:AV27"/>
+    <mergeCell ref="AW27:BA27"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="K26:W26"/>
+    <mergeCell ref="X26:AJ26"/>
+    <mergeCell ref="AK26:AV26"/>
+    <mergeCell ref="X15:AJ15"/>
+    <mergeCell ref="AK15:AV15"/>
+    <mergeCell ref="AW15:BA15"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="K18:W18"/>
+    <mergeCell ref="X18:AJ18"/>
+    <mergeCell ref="AK18:AV18"/>
+    <mergeCell ref="AW18:BA18"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="K17:W17"/>
+    <mergeCell ref="X17:AJ17"/>
+    <mergeCell ref="AK17:AV17"/>
+    <mergeCell ref="AW17:BA17"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="K20:W20"/>
+    <mergeCell ref="X20:AJ20"/>
+    <mergeCell ref="AK20:AV20"/>
+    <mergeCell ref="AW20:BA20"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="K19:W19"/>
+    <mergeCell ref="X19:AJ19"/>
+    <mergeCell ref="AK19:AV19"/>
+    <mergeCell ref="AW19:BA19"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="K30:W30"/>
+    <mergeCell ref="X30:AJ30"/>
+    <mergeCell ref="AK30:AV30"/>
+    <mergeCell ref="AW30:BA30"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="K21:W21"/>
+    <mergeCell ref="X21:AJ21"/>
+    <mergeCell ref="AK21:AV21"/>
+    <mergeCell ref="AW21:BA21"/>
+    <mergeCell ref="AW26:BA26"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="K25:W25"/>
+    <mergeCell ref="X25:AJ25"/>
+    <mergeCell ref="AK25:AV25"/>
+    <mergeCell ref="AW25:BA25"/>
+    <mergeCell ref="B24:J24"/>
+    <mergeCell ref="K24:W24"/>
+    <mergeCell ref="X24:AJ24"/>
+    <mergeCell ref="AK24:AV24"/>
+    <mergeCell ref="AW24:BA24"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="K23:W23"/>
+    <mergeCell ref="X23:AJ23"/>
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="K32:W32"/>
+    <mergeCell ref="X32:AJ32"/>
+    <mergeCell ref="AK32:AV32"/>
+    <mergeCell ref="AW32:BA32"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="K31:W31"/>
+    <mergeCell ref="X31:AJ31"/>
+    <mergeCell ref="AK31:AV31"/>
+    <mergeCell ref="AW31:BA31"/>
+    <mergeCell ref="B34:J34"/>
+    <mergeCell ref="K34:W34"/>
+    <mergeCell ref="X34:AJ34"/>
+    <mergeCell ref="AK34:AV34"/>
+    <mergeCell ref="AW34:BA34"/>
+    <mergeCell ref="B33:J33"/>
+    <mergeCell ref="K33:W33"/>
+    <mergeCell ref="X33:AJ33"/>
+    <mergeCell ref="AK33:AV33"/>
+    <mergeCell ref="AW33:BA33"/>
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="K36:W36"/>
+    <mergeCell ref="X36:AJ36"/>
+    <mergeCell ref="AK36:AV36"/>
+    <mergeCell ref="AW36:BA36"/>
+    <mergeCell ref="B35:J35"/>
+    <mergeCell ref="K35:W35"/>
+    <mergeCell ref="X35:AJ35"/>
+    <mergeCell ref="AK35:AV35"/>
+    <mergeCell ref="AW35:BA35"/>
+    <mergeCell ref="B38:J38"/>
+    <mergeCell ref="K38:W38"/>
+    <mergeCell ref="X38:AJ38"/>
+    <mergeCell ref="AK38:AV38"/>
+    <mergeCell ref="AW38:BA38"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="K37:W37"/>
+    <mergeCell ref="X37:AJ37"/>
+    <mergeCell ref="AK37:AV37"/>
+    <mergeCell ref="AW37:BA37"/>
+    <mergeCell ref="B40:J40"/>
+    <mergeCell ref="K40:W40"/>
+    <mergeCell ref="X40:AJ40"/>
+    <mergeCell ref="AK40:AV40"/>
+    <mergeCell ref="AW40:BA40"/>
+    <mergeCell ref="B39:J39"/>
+    <mergeCell ref="K39:W39"/>
+    <mergeCell ref="X39:AJ39"/>
+    <mergeCell ref="AK39:AV39"/>
+    <mergeCell ref="AW39:BA39"/>
+    <mergeCell ref="B63:J63"/>
+    <mergeCell ref="K63:W63"/>
+    <mergeCell ref="X63:AJ63"/>
+    <mergeCell ref="AK63:AV63"/>
+    <mergeCell ref="AW63:BA63"/>
+    <mergeCell ref="B62:J62"/>
+    <mergeCell ref="K62:W62"/>
+    <mergeCell ref="X62:AJ62"/>
+    <mergeCell ref="AK62:AV62"/>
+    <mergeCell ref="AW62:BA62"/>
+    <mergeCell ref="B65:J65"/>
+    <mergeCell ref="K65:W65"/>
+    <mergeCell ref="X65:AJ65"/>
+    <mergeCell ref="AK65:AV65"/>
+    <mergeCell ref="AW65:BA65"/>
+    <mergeCell ref="B64:J64"/>
+    <mergeCell ref="K64:W64"/>
+    <mergeCell ref="X64:AJ64"/>
+    <mergeCell ref="AK64:AV64"/>
+    <mergeCell ref="AW64:BA64"/>
+    <mergeCell ref="B42:J42"/>
+    <mergeCell ref="K42:W42"/>
+    <mergeCell ref="X42:AJ42"/>
+    <mergeCell ref="AK42:AV42"/>
+    <mergeCell ref="AW42:BA42"/>
+    <mergeCell ref="B41:J41"/>
+    <mergeCell ref="K41:W41"/>
+    <mergeCell ref="X41:AJ41"/>
+    <mergeCell ref="AK41:AV41"/>
+    <mergeCell ref="AW41:BA41"/>
     <mergeCell ref="B49:J49"/>
     <mergeCell ref="K49:W49"/>
     <mergeCell ref="X49:AJ49"/>
@@ -5681,224 +5866,77 @@
     <mergeCell ref="K47:W47"/>
     <mergeCell ref="X47:AJ47"/>
     <mergeCell ref="AK47:AV47"/>
-    <mergeCell ref="B42:J42"/>
-    <mergeCell ref="K42:W42"/>
-    <mergeCell ref="X42:AJ42"/>
-    <mergeCell ref="AK42:AV42"/>
-    <mergeCell ref="AW42:BA42"/>
-    <mergeCell ref="B41:J41"/>
-    <mergeCell ref="K41:W41"/>
-    <mergeCell ref="X41:AJ41"/>
-    <mergeCell ref="AK41:AV41"/>
-    <mergeCell ref="AW41:BA41"/>
-    <mergeCell ref="B65:J65"/>
-    <mergeCell ref="K65:W65"/>
-    <mergeCell ref="X65:AJ65"/>
-    <mergeCell ref="AK65:AV65"/>
-    <mergeCell ref="AW65:BA65"/>
-    <mergeCell ref="B64:J64"/>
-    <mergeCell ref="K64:W64"/>
-    <mergeCell ref="X64:AJ64"/>
-    <mergeCell ref="AK64:AV64"/>
-    <mergeCell ref="AW64:BA64"/>
-    <mergeCell ref="B63:J63"/>
-    <mergeCell ref="K63:W63"/>
-    <mergeCell ref="X63:AJ63"/>
-    <mergeCell ref="AK63:AV63"/>
-    <mergeCell ref="AW63:BA63"/>
-    <mergeCell ref="B62:J62"/>
-    <mergeCell ref="K62:W62"/>
-    <mergeCell ref="X62:AJ62"/>
-    <mergeCell ref="AK62:AV62"/>
-    <mergeCell ref="AW62:BA62"/>
-    <mergeCell ref="B40:J40"/>
-    <mergeCell ref="K40:W40"/>
-    <mergeCell ref="X40:AJ40"/>
-    <mergeCell ref="AK40:AV40"/>
-    <mergeCell ref="AW40:BA40"/>
-    <mergeCell ref="B39:J39"/>
-    <mergeCell ref="K39:W39"/>
-    <mergeCell ref="X39:AJ39"/>
-    <mergeCell ref="AK39:AV39"/>
-    <mergeCell ref="AW39:BA39"/>
-    <mergeCell ref="B38:J38"/>
-    <mergeCell ref="K38:W38"/>
-    <mergeCell ref="X38:AJ38"/>
-    <mergeCell ref="AK38:AV38"/>
-    <mergeCell ref="AW38:BA38"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="K37:W37"/>
-    <mergeCell ref="X37:AJ37"/>
-    <mergeCell ref="AK37:AV37"/>
-    <mergeCell ref="AW37:BA37"/>
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="K36:W36"/>
-    <mergeCell ref="X36:AJ36"/>
-    <mergeCell ref="AK36:AV36"/>
-    <mergeCell ref="AW36:BA36"/>
-    <mergeCell ref="B35:J35"/>
-    <mergeCell ref="K35:W35"/>
-    <mergeCell ref="X35:AJ35"/>
-    <mergeCell ref="AK35:AV35"/>
-    <mergeCell ref="AW35:BA35"/>
-    <mergeCell ref="B34:J34"/>
-    <mergeCell ref="K34:W34"/>
-    <mergeCell ref="X34:AJ34"/>
-    <mergeCell ref="AK34:AV34"/>
-    <mergeCell ref="AW34:BA34"/>
-    <mergeCell ref="B33:J33"/>
-    <mergeCell ref="K33:W33"/>
-    <mergeCell ref="X33:AJ33"/>
-    <mergeCell ref="AK33:AV33"/>
-    <mergeCell ref="AW33:BA33"/>
-    <mergeCell ref="B32:J32"/>
-    <mergeCell ref="K32:W32"/>
-    <mergeCell ref="X32:AJ32"/>
-    <mergeCell ref="AK32:AV32"/>
-    <mergeCell ref="AW32:BA32"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="K31:W31"/>
-    <mergeCell ref="X31:AJ31"/>
-    <mergeCell ref="AK31:AV31"/>
-    <mergeCell ref="AW31:BA31"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="K30:W30"/>
-    <mergeCell ref="X30:AJ30"/>
-    <mergeCell ref="AK30:AV30"/>
-    <mergeCell ref="AW30:BA30"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="K21:W21"/>
-    <mergeCell ref="X21:AJ21"/>
-    <mergeCell ref="AK21:AV21"/>
-    <mergeCell ref="AW21:BA21"/>
-    <mergeCell ref="AW26:BA26"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="K25:W25"/>
-    <mergeCell ref="X25:AJ25"/>
-    <mergeCell ref="AK25:AV25"/>
-    <mergeCell ref="AW25:BA25"/>
-    <mergeCell ref="B24:J24"/>
-    <mergeCell ref="K24:W24"/>
-    <mergeCell ref="X24:AJ24"/>
-    <mergeCell ref="AK24:AV24"/>
-    <mergeCell ref="AW24:BA24"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="K23:W23"/>
-    <mergeCell ref="X23:AJ23"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="K20:W20"/>
-    <mergeCell ref="X20:AJ20"/>
-    <mergeCell ref="AK20:AV20"/>
-    <mergeCell ref="AW20:BA20"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="K19:W19"/>
-    <mergeCell ref="X19:AJ19"/>
-    <mergeCell ref="AK19:AV19"/>
-    <mergeCell ref="AW19:BA19"/>
-    <mergeCell ref="X15:AJ15"/>
-    <mergeCell ref="AK15:AV15"/>
-    <mergeCell ref="AW15:BA15"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="K18:W18"/>
-    <mergeCell ref="X18:AJ18"/>
-    <mergeCell ref="AK18:AV18"/>
-    <mergeCell ref="AW18:BA18"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="K17:W17"/>
-    <mergeCell ref="X17:AJ17"/>
-    <mergeCell ref="AK17:AV17"/>
-    <mergeCell ref="AW17:BA17"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="K27:W27"/>
-    <mergeCell ref="X27:AJ27"/>
-    <mergeCell ref="AK27:AV27"/>
-    <mergeCell ref="AW27:BA27"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="K26:W26"/>
-    <mergeCell ref="X26:AJ26"/>
-    <mergeCell ref="AK26:AV26"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="K29:W29"/>
-    <mergeCell ref="X29:AJ29"/>
-    <mergeCell ref="AK29:AV29"/>
-    <mergeCell ref="AW29:BA29"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="K28:W28"/>
-    <mergeCell ref="X28:AJ28"/>
-    <mergeCell ref="AK28:AV28"/>
-    <mergeCell ref="AW28:BA28"/>
-    <mergeCell ref="AK23:AV23"/>
-    <mergeCell ref="AW23:BA23"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="K22:W22"/>
-    <mergeCell ref="X22:AJ22"/>
-    <mergeCell ref="AK22:AV22"/>
-    <mergeCell ref="AW22:BA22"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="K13:W13"/>
-    <mergeCell ref="X13:AJ13"/>
-    <mergeCell ref="AK13:AV13"/>
-    <mergeCell ref="AW13:BA13"/>
-    <mergeCell ref="B14:J14"/>
-    <mergeCell ref="K14:W14"/>
-    <mergeCell ref="X14:AJ14"/>
-    <mergeCell ref="AK14:AV14"/>
-    <mergeCell ref="AW14:BA14"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="K16:W16"/>
-    <mergeCell ref="X16:AJ16"/>
-    <mergeCell ref="AK16:AV16"/>
-    <mergeCell ref="AW16:BA16"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="K15:W15"/>
-    <mergeCell ref="AW1:BA1"/>
-    <mergeCell ref="A2:I4"/>
-    <mergeCell ref="J2:O4"/>
-    <mergeCell ref="AH2:AL4"/>
-    <mergeCell ref="AM2:AQ4"/>
-    <mergeCell ref="AR2:AV4"/>
-    <mergeCell ref="AW2:BA4"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="P1:AG4"/>
-    <mergeCell ref="AH1:AL1"/>
-    <mergeCell ref="AM1:AQ1"/>
-    <mergeCell ref="AR1:AV1"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="K6:W6"/>
-    <mergeCell ref="X6:AJ6"/>
-    <mergeCell ref="AK7:AV7"/>
-    <mergeCell ref="AK8:AV8"/>
-    <mergeCell ref="AK6:AV6"/>
-    <mergeCell ref="AW6:BA6"/>
-    <mergeCell ref="AW7:BA7"/>
-    <mergeCell ref="AW8:BA8"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="K8:W8"/>
-    <mergeCell ref="X8:AJ8"/>
-    <mergeCell ref="K7:W7"/>
-    <mergeCell ref="X7:AJ7"/>
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="K12:W12"/>
-    <mergeCell ref="X12:AJ12"/>
-    <mergeCell ref="AK12:AV12"/>
-    <mergeCell ref="AW12:BA12"/>
-    <mergeCell ref="AW9:BA9"/>
-    <mergeCell ref="AK9:AV9"/>
-    <mergeCell ref="AW10:BA10"/>
-    <mergeCell ref="AW11:BA11"/>
-    <mergeCell ref="B10:J10"/>
-    <mergeCell ref="K10:W10"/>
-    <mergeCell ref="X10:AJ10"/>
-    <mergeCell ref="AK10:AV10"/>
-    <mergeCell ref="X11:AJ11"/>
-    <mergeCell ref="K11:W11"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="AK11:AV11"/>
-    <mergeCell ref="B9:J9"/>
-    <mergeCell ref="X9:AJ9"/>
-    <mergeCell ref="K9:W9"/>
+    <mergeCell ref="B51:J51"/>
+    <mergeCell ref="K51:W51"/>
+    <mergeCell ref="X51:AJ51"/>
+    <mergeCell ref="AK51:AV51"/>
+    <mergeCell ref="AW51:BA51"/>
+    <mergeCell ref="B50:J50"/>
+    <mergeCell ref="K50:W50"/>
+    <mergeCell ref="X50:AJ50"/>
+    <mergeCell ref="AK50:AV50"/>
+    <mergeCell ref="AW50:BA50"/>
+    <mergeCell ref="B53:J53"/>
+    <mergeCell ref="K53:W53"/>
+    <mergeCell ref="X53:AJ53"/>
+    <mergeCell ref="AK53:AV53"/>
+    <mergeCell ref="AW53:BA53"/>
+    <mergeCell ref="B52:J52"/>
+    <mergeCell ref="K52:W52"/>
+    <mergeCell ref="X52:AJ52"/>
+    <mergeCell ref="AK52:AV52"/>
+    <mergeCell ref="AW52:BA52"/>
+    <mergeCell ref="B55:J55"/>
+    <mergeCell ref="K55:W55"/>
+    <mergeCell ref="X55:AJ55"/>
+    <mergeCell ref="AK55:AV55"/>
+    <mergeCell ref="AW55:BA55"/>
+    <mergeCell ref="B54:J54"/>
+    <mergeCell ref="K54:W54"/>
+    <mergeCell ref="X54:AJ54"/>
+    <mergeCell ref="AK54:AV54"/>
+    <mergeCell ref="AW54:BA54"/>
+    <mergeCell ref="B57:J57"/>
+    <mergeCell ref="K57:W57"/>
+    <mergeCell ref="X57:AJ57"/>
+    <mergeCell ref="AK57:AV57"/>
+    <mergeCell ref="AW57:BA57"/>
+    <mergeCell ref="B56:J56"/>
+    <mergeCell ref="K56:W56"/>
+    <mergeCell ref="X56:AJ56"/>
+    <mergeCell ref="AK56:AV56"/>
+    <mergeCell ref="AW56:BA56"/>
+    <mergeCell ref="B59:J59"/>
+    <mergeCell ref="K59:W59"/>
+    <mergeCell ref="X59:AJ59"/>
+    <mergeCell ref="AK59:AV59"/>
+    <mergeCell ref="AW59:BA59"/>
+    <mergeCell ref="B58:J58"/>
+    <mergeCell ref="K58:W58"/>
+    <mergeCell ref="X58:AJ58"/>
+    <mergeCell ref="AK58:AV58"/>
+    <mergeCell ref="AW58:BA58"/>
+    <mergeCell ref="B61:J61"/>
+    <mergeCell ref="K61:W61"/>
+    <mergeCell ref="X61:AJ61"/>
+    <mergeCell ref="AK61:AV61"/>
+    <mergeCell ref="AW61:BA61"/>
+    <mergeCell ref="B60:J60"/>
+    <mergeCell ref="K60:W60"/>
+    <mergeCell ref="X60:AJ60"/>
+    <mergeCell ref="AK60:AV60"/>
+    <mergeCell ref="AW60:BA60"/>
+    <mergeCell ref="AW47:BA47"/>
+    <mergeCell ref="B44:J44"/>
+    <mergeCell ref="K44:W44"/>
+    <mergeCell ref="X44:AJ44"/>
+    <mergeCell ref="AK44:AV44"/>
+    <mergeCell ref="AW44:BA44"/>
+    <mergeCell ref="B45:J45"/>
+    <mergeCell ref="K45:W45"/>
+    <mergeCell ref="X45:AJ45"/>
+    <mergeCell ref="AK45:AV45"/>
+    <mergeCell ref="AW45:BA45"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.62992125984251968" footer="0.39370078740157483"/>

--- a/20 開発資料/05.改修管理/070_改修管理_交通宿泊手配入力.xlsx
+++ b/20 開発資料/05.改修管理/070_改修管理_交通宿泊手配入力.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="108">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1153,6 +1153,34 @@
     </rPh>
     <rPh sb="25" eb="26">
       <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タクチケ　発行フラグＯＮ、利用日入力にて登録ボタンを押すと、利用日が登録されていないとメッセージが出力される。</t>
+    <rPh sb="5" eb="7">
+      <t>ハッコウ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>リヨウビ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>リヨウビ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>シュツリョク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1413,26 +1441,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1470,14 +1489,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1787,7 +1815,7 @@
       <pane xSplit="48" ySplit="6" topLeftCell="AW40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AW1" sqref="AW1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="X46" sqref="X46:AJ46"/>
+      <selection pane="bottomRight" activeCell="X47" sqref="X47:AJ47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
@@ -1797,246 +1825,246 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="25" t="s">
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="27"/>
-      <c r="AH1" s="22" t="s">
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="24"/>
+      <c r="AH1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22"/>
-      <c r="AM1" s="22" t="s">
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="19"/>
+      <c r="AM1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="AN1" s="22"/>
-      <c r="AO1" s="22"/>
-      <c r="AP1" s="22"/>
-      <c r="AQ1" s="22"/>
-      <c r="AR1" s="22" t="s">
+      <c r="AN1" s="19"/>
+      <c r="AO1" s="19"/>
+      <c r="AP1" s="19"/>
+      <c r="AQ1" s="19"/>
+      <c r="AR1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="AS1" s="22"/>
-      <c r="AT1" s="22"/>
-      <c r="AU1" s="22"/>
-      <c r="AV1" s="22"/>
-      <c r="AW1" s="22" t="s">
+      <c r="AS1" s="19"/>
+      <c r="AT1" s="19"/>
+      <c r="AU1" s="19"/>
+      <c r="AV1" s="19"/>
+      <c r="AW1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="AX1" s="22"/>
-      <c r="AY1" s="22"/>
-      <c r="AZ1" s="22"/>
-      <c r="BA1" s="22"/>
+      <c r="AX1" s="19"/>
+      <c r="AY1" s="19"/>
+      <c r="AZ1" s="19"/>
+      <c r="BA1" s="19"/>
     </row>
     <row r="2" spans="1:59" ht="11.25" customHeight="1">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="24">
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="21">
         <v>41611</v>
       </c>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="24"/>
-      <c r="AK2" s="24"/>
-      <c r="AL2" s="24"/>
-      <c r="AM2" s="22" t="s">
+      <c r="AI2" s="21"/>
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="21"/>
+      <c r="AL2" s="21"/>
+      <c r="AM2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="AN2" s="22"/>
-      <c r="AO2" s="22"/>
-      <c r="AP2" s="22"/>
-      <c r="AQ2" s="22"/>
-      <c r="AR2" s="24"/>
-      <c r="AS2" s="24"/>
-      <c r="AT2" s="24"/>
-      <c r="AU2" s="24"/>
-      <c r="AV2" s="24"/>
-      <c r="AW2" s="22"/>
-      <c r="AX2" s="22"/>
-      <c r="AY2" s="22"/>
-      <c r="AZ2" s="22"/>
-      <c r="BA2" s="22"/>
+      <c r="AN2" s="19"/>
+      <c r="AO2" s="19"/>
+      <c r="AP2" s="19"/>
+      <c r="AQ2" s="19"/>
+      <c r="AR2" s="21"/>
+      <c r="AS2" s="21"/>
+      <c r="AT2" s="21"/>
+      <c r="AU2" s="21"/>
+      <c r="AV2" s="21"/>
+      <c r="AW2" s="19"/>
+      <c r="AX2" s="19"/>
+      <c r="AY2" s="19"/>
+      <c r="AZ2" s="19"/>
+      <c r="BA2" s="19"/>
     </row>
     <row r="3" spans="1:59" ht="11.25" customHeight="1">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="29"/>
-      <c r="AD3" s="29"/>
-      <c r="AE3" s="29"/>
-      <c r="AF3" s="29"/>
-      <c r="AG3" s="30"/>
-      <c r="AH3" s="24"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="24"/>
-      <c r="AK3" s="24"/>
-      <c r="AL3" s="24"/>
-      <c r="AM3" s="22"/>
-      <c r="AN3" s="22"/>
-      <c r="AO3" s="22"/>
-      <c r="AP3" s="22"/>
-      <c r="AQ3" s="22"/>
-      <c r="AR3" s="24"/>
-      <c r="AS3" s="24"/>
-      <c r="AT3" s="24"/>
-      <c r="AU3" s="24"/>
-      <c r="AV3" s="24"/>
-      <c r="AW3" s="22"/>
-      <c r="AX3" s="22"/>
-      <c r="AY3" s="22"/>
-      <c r="AZ3" s="22"/>
-      <c r="BA3" s="22"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="21"/>
+      <c r="AI3" s="21"/>
+      <c r="AJ3" s="21"/>
+      <c r="AK3" s="21"/>
+      <c r="AL3" s="21"/>
+      <c r="AM3" s="19"/>
+      <c r="AN3" s="19"/>
+      <c r="AO3" s="19"/>
+      <c r="AP3" s="19"/>
+      <c r="AQ3" s="19"/>
+      <c r="AR3" s="21"/>
+      <c r="AS3" s="21"/>
+      <c r="AT3" s="21"/>
+      <c r="AU3" s="21"/>
+      <c r="AV3" s="21"/>
+      <c r="AW3" s="19"/>
+      <c r="AX3" s="19"/>
+      <c r="AY3" s="19"/>
+      <c r="AZ3" s="19"/>
+      <c r="BA3" s="19"/>
     </row>
     <row r="4" spans="1:59">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="32"/>
-      <c r="AD4" s="32"/>
-      <c r="AE4" s="32"/>
-      <c r="AF4" s="32"/>
-      <c r="AG4" s="33"/>
-      <c r="AH4" s="24"/>
-      <c r="AI4" s="24"/>
-      <c r="AJ4" s="24"/>
-      <c r="AK4" s="24"/>
-      <c r="AL4" s="24"/>
-      <c r="AM4" s="22"/>
-      <c r="AN4" s="22"/>
-      <c r="AO4" s="22"/>
-      <c r="AP4" s="22"/>
-      <c r="AQ4" s="22"/>
-      <c r="AR4" s="24"/>
-      <c r="AS4" s="24"/>
-      <c r="AT4" s="24"/>
-      <c r="AU4" s="24"/>
-      <c r="AV4" s="24"/>
-      <c r="AW4" s="22"/>
-      <c r="AX4" s="22"/>
-      <c r="AY4" s="22"/>
-      <c r="AZ4" s="22"/>
-      <c r="BA4" s="22"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="29"/>
+      <c r="AE4" s="29"/>
+      <c r="AF4" s="29"/>
+      <c r="AG4" s="30"/>
+      <c r="AH4" s="21"/>
+      <c r="AI4" s="21"/>
+      <c r="AJ4" s="21"/>
+      <c r="AK4" s="21"/>
+      <c r="AL4" s="21"/>
+      <c r="AM4" s="19"/>
+      <c r="AN4" s="19"/>
+      <c r="AO4" s="19"/>
+      <c r="AP4" s="19"/>
+      <c r="AQ4" s="19"/>
+      <c r="AR4" s="21"/>
+      <c r="AS4" s="21"/>
+      <c r="AT4" s="21"/>
+      <c r="AU4" s="21"/>
+      <c r="AV4" s="21"/>
+      <c r="AW4" s="19"/>
+      <c r="AX4" s="19"/>
+      <c r="AY4" s="19"/>
+      <c r="AZ4" s="19"/>
+      <c r="BA4" s="19"/>
     </row>
     <row r="5" spans="1:59">
       <c r="A5" s="2"/>
@@ -2063,68 +2091,68 @@
       <c r="A6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34" t="s">
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34" t="s">
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="34"/>
-      <c r="AA6" s="34"/>
-      <c r="AB6" s="34"/>
-      <c r="AC6" s="34"/>
-      <c r="AD6" s="34"/>
-      <c r="AE6" s="34"/>
-      <c r="AF6" s="34"/>
-      <c r="AG6" s="34"/>
-      <c r="AH6" s="34"/>
-      <c r="AI6" s="34"/>
-      <c r="AJ6" s="34"/>
-      <c r="AK6" s="34" t="s">
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16"/>
+      <c r="AC6" s="16"/>
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="16"/>
+      <c r="AF6" s="16"/>
+      <c r="AG6" s="16"/>
+      <c r="AH6" s="16"/>
+      <c r="AI6" s="16"/>
+      <c r="AJ6" s="16"/>
+      <c r="AK6" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="AL6" s="34"/>
-      <c r="AM6" s="34"/>
-      <c r="AN6" s="34"/>
-      <c r="AO6" s="34"/>
-      <c r="AP6" s="34"/>
-      <c r="AQ6" s="34"/>
-      <c r="AR6" s="34"/>
-      <c r="AS6" s="34"/>
-      <c r="AT6" s="34"/>
-      <c r="AU6" s="34"/>
-      <c r="AV6" s="34"/>
-      <c r="AW6" s="34" t="s">
+      <c r="AL6" s="16"/>
+      <c r="AM6" s="16"/>
+      <c r="AN6" s="16"/>
+      <c r="AO6" s="16"/>
+      <c r="AP6" s="16"/>
+      <c r="AQ6" s="16"/>
+      <c r="AR6" s="16"/>
+      <c r="AS6" s="16"/>
+      <c r="AT6" s="16"/>
+      <c r="AU6" s="16"/>
+      <c r="AV6" s="16"/>
+      <c r="AW6" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="AX6" s="34"/>
-      <c r="AY6" s="34"/>
-      <c r="AZ6" s="34"/>
-      <c r="BA6" s="34"/>
+      <c r="AX6" s="16"/>
+      <c r="AY6" s="16"/>
+      <c r="AZ6" s="16"/>
+      <c r="BA6" s="16"/>
       <c r="BB6" s="2"/>
       <c r="BC6" s="2"/>
       <c r="BD6" s="2"/>
@@ -2136,66 +2164,66 @@
       <c r="A7" s="7">
         <v>1</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18" t="s">
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18"/>
-      <c r="X7" s="18" t="s">
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="18"/>
-      <c r="AA7" s="18"/>
-      <c r="AB7" s="18"/>
-      <c r="AC7" s="18"/>
-      <c r="AD7" s="18"/>
-      <c r="AE7" s="18"/>
-      <c r="AF7" s="18"/>
-      <c r="AG7" s="18"/>
-      <c r="AH7" s="18"/>
-      <c r="AI7" s="18"/>
-      <c r="AJ7" s="18"/>
-      <c r="AK7" s="18" t="s">
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="17"/>
+      <c r="AB7" s="17"/>
+      <c r="AC7" s="17"/>
+      <c r="AD7" s="17"/>
+      <c r="AE7" s="17"/>
+      <c r="AF7" s="17"/>
+      <c r="AG7" s="17"/>
+      <c r="AH7" s="17"/>
+      <c r="AI7" s="17"/>
+      <c r="AJ7" s="17"/>
+      <c r="AK7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="AL7" s="18"/>
-      <c r="AM7" s="18"/>
-      <c r="AN7" s="18"/>
-      <c r="AO7" s="18"/>
-      <c r="AP7" s="18"/>
-      <c r="AQ7" s="18"/>
-      <c r="AR7" s="18"/>
-      <c r="AS7" s="18"/>
-      <c r="AT7" s="18"/>
-      <c r="AU7" s="18"/>
-      <c r="AV7" s="18"/>
-      <c r="AW7" s="35"/>
-      <c r="AX7" s="35"/>
-      <c r="AY7" s="35"/>
-      <c r="AZ7" s="35"/>
-      <c r="BA7" s="35"/>
+      <c r="AL7" s="17"/>
+      <c r="AM7" s="17"/>
+      <c r="AN7" s="17"/>
+      <c r="AO7" s="17"/>
+      <c r="AP7" s="17"/>
+      <c r="AQ7" s="17"/>
+      <c r="AR7" s="17"/>
+      <c r="AS7" s="17"/>
+      <c r="AT7" s="17"/>
+      <c r="AU7" s="17"/>
+      <c r="AV7" s="17"/>
+      <c r="AW7" s="18"/>
+      <c r="AX7" s="18"/>
+      <c r="AY7" s="18"/>
+      <c r="AZ7" s="18"/>
+      <c r="BA7" s="18"/>
     </row>
     <row r="8" spans="1:59" s="3" customFormat="1" ht="18.75" customHeight="1">
       <c r="A8" s="6">
@@ -2254,11 +2282,11 @@
       <c r="AT8" s="13"/>
       <c r="AU8" s="13"/>
       <c r="AV8" s="13"/>
-      <c r="AW8" s="36"/>
-      <c r="AX8" s="36"/>
-      <c r="AY8" s="36"/>
-      <c r="AZ8" s="36"/>
-      <c r="BA8" s="36"/>
+      <c r="AW8" s="15"/>
+      <c r="AX8" s="15"/>
+      <c r="AY8" s="15"/>
+      <c r="AZ8" s="15"/>
+      <c r="BA8" s="15"/>
     </row>
     <row r="9" spans="1:59" s="3" customFormat="1" ht="18.75" customHeight="1">
       <c r="A9" s="6">
@@ -2319,11 +2347,11 @@
       <c r="AT9" s="13"/>
       <c r="AU9" s="13"/>
       <c r="AV9" s="13"/>
-      <c r="AW9" s="36"/>
-      <c r="AX9" s="36"/>
-      <c r="AY9" s="36"/>
-      <c r="AZ9" s="36"/>
-      <c r="BA9" s="36"/>
+      <c r="AW9" s="15"/>
+      <c r="AX9" s="15"/>
+      <c r="AY9" s="15"/>
+      <c r="AZ9" s="15"/>
+      <c r="BA9" s="15"/>
     </row>
     <row r="10" spans="1:59" s="3" customFormat="1" ht="18.75" customHeight="1">
       <c r="A10" s="6">
@@ -2596,7 +2624,7 @@
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
-      <c r="K14" s="21" t="s">
+      <c r="K14" s="31" t="s">
         <v>40</v>
       </c>
       <c r="L14" s="13"/>
@@ -2611,7 +2639,7 @@
       <c r="U14" s="13"/>
       <c r="V14" s="13"/>
       <c r="W14" s="13"/>
-      <c r="X14" s="21" t="s">
+      <c r="X14" s="31" t="s">
         <v>97</v>
       </c>
       <c r="Y14" s="13"/>
@@ -4358,62 +4386,62 @@
       <c r="A43" s="11">
         <v>37</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="18"/>
-      <c r="L43" s="18"/>
-      <c r="M43" s="18"/>
-      <c r="N43" s="18"/>
-      <c r="O43" s="18"/>
-      <c r="P43" s="18"/>
-      <c r="Q43" s="18"/>
-      <c r="R43" s="18"/>
-      <c r="S43" s="18"/>
-      <c r="T43" s="18"/>
-      <c r="U43" s="18"/>
-      <c r="V43" s="18"/>
-      <c r="W43" s="18"/>
-      <c r="X43" s="17" t="s">
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
+      <c r="R43" s="17"/>
+      <c r="S43" s="17"/>
+      <c r="T43" s="17"/>
+      <c r="U43" s="17"/>
+      <c r="V43" s="17"/>
+      <c r="W43" s="17"/>
+      <c r="X43" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="Y43" s="17"/>
-      <c r="Z43" s="17"/>
-      <c r="AA43" s="17"/>
-      <c r="AB43" s="17"/>
-      <c r="AC43" s="17"/>
-      <c r="AD43" s="17"/>
-      <c r="AE43" s="17"/>
-      <c r="AF43" s="17"/>
-      <c r="AG43" s="17"/>
-      <c r="AH43" s="17"/>
-      <c r="AI43" s="17"/>
-      <c r="AJ43" s="17"/>
-      <c r="AK43" s="18"/>
-      <c r="AL43" s="18"/>
-      <c r="AM43" s="18"/>
-      <c r="AN43" s="18"/>
-      <c r="AO43" s="18"/>
-      <c r="AP43" s="18"/>
-      <c r="AQ43" s="18"/>
-      <c r="AR43" s="18"/>
-      <c r="AS43" s="18"/>
-      <c r="AT43" s="18"/>
-      <c r="AU43" s="18"/>
-      <c r="AV43" s="18"/>
-      <c r="AW43" s="18"/>
-      <c r="AX43" s="18"/>
-      <c r="AY43" s="18"/>
-      <c r="AZ43" s="18"/>
-      <c r="BA43" s="18"/>
+      <c r="Y43" s="34"/>
+      <c r="Z43" s="34"/>
+      <c r="AA43" s="34"/>
+      <c r="AB43" s="34"/>
+      <c r="AC43" s="34"/>
+      <c r="AD43" s="34"/>
+      <c r="AE43" s="34"/>
+      <c r="AF43" s="34"/>
+      <c r="AG43" s="34"/>
+      <c r="AH43" s="34"/>
+      <c r="AI43" s="34"/>
+      <c r="AJ43" s="34"/>
+      <c r="AK43" s="17"/>
+      <c r="AL43" s="17"/>
+      <c r="AM43" s="17"/>
+      <c r="AN43" s="17"/>
+      <c r="AO43" s="17"/>
+      <c r="AP43" s="17"/>
+      <c r="AQ43" s="17"/>
+      <c r="AR43" s="17"/>
+      <c r="AS43" s="17"/>
+      <c r="AT43" s="17"/>
+      <c r="AU43" s="17"/>
+      <c r="AV43" s="17"/>
+      <c r="AW43" s="17"/>
+      <c r="AX43" s="17"/>
+      <c r="AY43" s="17"/>
+      <c r="AZ43" s="17"/>
+      <c r="BA43" s="17"/>
     </row>
     <row r="44" spans="1:53" s="12" customFormat="1" ht="30" customHeight="1">
       <c r="A44" s="10">
@@ -4478,7 +4506,7 @@
       <c r="AZ44" s="13"/>
       <c r="BA44" s="13"/>
     </row>
-    <row r="45" spans="1:53" s="12" customFormat="1" ht="44.25" customHeight="1">
+    <row r="45" spans="1:53" s="12" customFormat="1" ht="30" customHeight="1">
       <c r="A45" s="10">
         <v>39</v>
       </c>
@@ -4539,9 +4567,13 @@
       <c r="AZ45" s="13"/>
       <c r="BA45" s="13"/>
     </row>
-    <row r="46" spans="1:53" s="12" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A46" s="10"/>
-      <c r="B46" s="14"/>
+    <row r="46" spans="1:53" s="12" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A46" s="10">
+        <v>40</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>105</v>
+      </c>
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
@@ -4563,7 +4595,9 @@
       <c r="U46" s="13"/>
       <c r="V46" s="13"/>
       <c r="W46" s="13"/>
-      <c r="X46" s="14"/>
+      <c r="X46" s="14" t="s">
+        <v>107</v>
+      </c>
       <c r="Y46" s="14"/>
       <c r="Z46" s="14"/>
       <c r="AA46" s="14"/>
@@ -4651,1027 +4685,1220 @@
     </row>
     <row r="48" spans="1:53" s="12" customFormat="1" ht="18.75" customHeight="1">
       <c r="A48" s="9"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="20"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="20"/>
-      <c r="N48" s="20"/>
-      <c r="O48" s="20"/>
-      <c r="P48" s="20"/>
-      <c r="Q48" s="20"/>
-      <c r="R48" s="20"/>
-      <c r="S48" s="20"/>
-      <c r="T48" s="20"/>
-      <c r="U48" s="20"/>
-      <c r="V48" s="20"/>
-      <c r="W48" s="20"/>
-      <c r="X48" s="19"/>
-      <c r="Y48" s="19"/>
-      <c r="Z48" s="19"/>
-      <c r="AA48" s="19"/>
-      <c r="AB48" s="19"/>
-      <c r="AC48" s="19"/>
-      <c r="AD48" s="19"/>
-      <c r="AE48" s="19"/>
-      <c r="AF48" s="19"/>
-      <c r="AG48" s="19"/>
-      <c r="AH48" s="19"/>
-      <c r="AI48" s="19"/>
-      <c r="AJ48" s="19"/>
-      <c r="AK48" s="20"/>
-      <c r="AL48" s="20"/>
-      <c r="AM48" s="20"/>
-      <c r="AN48" s="20"/>
-      <c r="AO48" s="20"/>
-      <c r="AP48" s="20"/>
-      <c r="AQ48" s="20"/>
-      <c r="AR48" s="20"/>
-      <c r="AS48" s="20"/>
-      <c r="AT48" s="20"/>
-      <c r="AU48" s="20"/>
-      <c r="AV48" s="20"/>
-      <c r="AW48" s="20"/>
-      <c r="AX48" s="20"/>
-      <c r="AY48" s="20"/>
-      <c r="AZ48" s="20"/>
-      <c r="BA48" s="20"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="36"/>
+      <c r="L48" s="36"/>
+      <c r="M48" s="36"/>
+      <c r="N48" s="36"/>
+      <c r="O48" s="36"/>
+      <c r="P48" s="36"/>
+      <c r="Q48" s="36"/>
+      <c r="R48" s="36"/>
+      <c r="S48" s="36"/>
+      <c r="T48" s="36"/>
+      <c r="U48" s="36"/>
+      <c r="V48" s="36"/>
+      <c r="W48" s="36"/>
+      <c r="X48" s="35"/>
+      <c r="Y48" s="35"/>
+      <c r="Z48" s="35"/>
+      <c r="AA48" s="35"/>
+      <c r="AB48" s="35"/>
+      <c r="AC48" s="35"/>
+      <c r="AD48" s="35"/>
+      <c r="AE48" s="35"/>
+      <c r="AF48" s="35"/>
+      <c r="AG48" s="35"/>
+      <c r="AH48" s="35"/>
+      <c r="AI48" s="35"/>
+      <c r="AJ48" s="35"/>
+      <c r="AK48" s="36"/>
+      <c r="AL48" s="36"/>
+      <c r="AM48" s="36"/>
+      <c r="AN48" s="36"/>
+      <c r="AO48" s="36"/>
+      <c r="AP48" s="36"/>
+      <c r="AQ48" s="36"/>
+      <c r="AR48" s="36"/>
+      <c r="AS48" s="36"/>
+      <c r="AT48" s="36"/>
+      <c r="AU48" s="36"/>
+      <c r="AV48" s="36"/>
+      <c r="AW48" s="36"/>
+      <c r="AX48" s="36"/>
+      <c r="AY48" s="36"/>
+      <c r="AZ48" s="36"/>
+      <c r="BA48" s="36"/>
     </row>
     <row r="49" spans="2:53" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="15"/>
-      <c r="L49" s="15"/>
-      <c r="M49" s="15"/>
-      <c r="N49" s="15"/>
-      <c r="O49" s="15"/>
-      <c r="P49" s="15"/>
-      <c r="Q49" s="15"/>
-      <c r="R49" s="15"/>
-      <c r="S49" s="15"/>
-      <c r="T49" s="15"/>
-      <c r="U49" s="15"/>
-      <c r="V49" s="15"/>
-      <c r="W49" s="15"/>
-      <c r="X49" s="16"/>
-      <c r="Y49" s="16"/>
-      <c r="Z49" s="16"/>
-      <c r="AA49" s="16"/>
-      <c r="AB49" s="16"/>
-      <c r="AC49" s="16"/>
-      <c r="AD49" s="16"/>
-      <c r="AE49" s="16"/>
-      <c r="AF49" s="16"/>
-      <c r="AG49" s="16"/>
-      <c r="AH49" s="16"/>
-      <c r="AI49" s="16"/>
-      <c r="AJ49" s="16"/>
-      <c r="AK49" s="15"/>
-      <c r="AL49" s="15"/>
-      <c r="AM49" s="15"/>
-      <c r="AN49" s="15"/>
-      <c r="AO49" s="15"/>
-      <c r="AP49" s="15"/>
-      <c r="AQ49" s="15"/>
-      <c r="AR49" s="15"/>
-      <c r="AS49" s="15"/>
-      <c r="AT49" s="15"/>
-      <c r="AU49" s="15"/>
-      <c r="AV49" s="15"/>
-      <c r="AW49" s="15"/>
-      <c r="AX49" s="15"/>
-      <c r="AY49" s="15"/>
-      <c r="AZ49" s="15"/>
-      <c r="BA49" s="15"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="33"/>
+      <c r="K49" s="32"/>
+      <c r="L49" s="32"/>
+      <c r="M49" s="32"/>
+      <c r="N49" s="32"/>
+      <c r="O49" s="32"/>
+      <c r="P49" s="32"/>
+      <c r="Q49" s="32"/>
+      <c r="R49" s="32"/>
+      <c r="S49" s="32"/>
+      <c r="T49" s="32"/>
+      <c r="U49" s="32"/>
+      <c r="V49" s="32"/>
+      <c r="W49" s="32"/>
+      <c r="X49" s="33"/>
+      <c r="Y49" s="33"/>
+      <c r="Z49" s="33"/>
+      <c r="AA49" s="33"/>
+      <c r="AB49" s="33"/>
+      <c r="AC49" s="33"/>
+      <c r="AD49" s="33"/>
+      <c r="AE49" s="33"/>
+      <c r="AF49" s="33"/>
+      <c r="AG49" s="33"/>
+      <c r="AH49" s="33"/>
+      <c r="AI49" s="33"/>
+      <c r="AJ49" s="33"/>
+      <c r="AK49" s="32"/>
+      <c r="AL49" s="32"/>
+      <c r="AM49" s="32"/>
+      <c r="AN49" s="32"/>
+      <c r="AO49" s="32"/>
+      <c r="AP49" s="32"/>
+      <c r="AQ49" s="32"/>
+      <c r="AR49" s="32"/>
+      <c r="AS49" s="32"/>
+      <c r="AT49" s="32"/>
+      <c r="AU49" s="32"/>
+      <c r="AV49" s="32"/>
+      <c r="AW49" s="32"/>
+      <c r="AX49" s="32"/>
+      <c r="AY49" s="32"/>
+      <c r="AZ49" s="32"/>
+      <c r="BA49" s="32"/>
     </row>
     <row r="50" spans="2:53" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="15"/>
-      <c r="L50" s="15"/>
-      <c r="M50" s="15"/>
-      <c r="N50" s="15"/>
-      <c r="O50" s="15"/>
-      <c r="P50" s="15"/>
-      <c r="Q50" s="15"/>
-      <c r="R50" s="15"/>
-      <c r="S50" s="15"/>
-      <c r="T50" s="15"/>
-      <c r="U50" s="15"/>
-      <c r="V50" s="15"/>
-      <c r="W50" s="15"/>
-      <c r="X50" s="16"/>
-      <c r="Y50" s="16"/>
-      <c r="Z50" s="16"/>
-      <c r="AA50" s="16"/>
-      <c r="AB50" s="16"/>
-      <c r="AC50" s="16"/>
-      <c r="AD50" s="16"/>
-      <c r="AE50" s="16"/>
-      <c r="AF50" s="16"/>
-      <c r="AG50" s="16"/>
-      <c r="AH50" s="16"/>
-      <c r="AI50" s="16"/>
-      <c r="AJ50" s="16"/>
-      <c r="AK50" s="15"/>
-      <c r="AL50" s="15"/>
-      <c r="AM50" s="15"/>
-      <c r="AN50" s="15"/>
-      <c r="AO50" s="15"/>
-      <c r="AP50" s="15"/>
-      <c r="AQ50" s="15"/>
-      <c r="AR50" s="15"/>
-      <c r="AS50" s="15"/>
-      <c r="AT50" s="15"/>
-      <c r="AU50" s="15"/>
-      <c r="AV50" s="15"/>
-      <c r="AW50" s="15"/>
-      <c r="AX50" s="15"/>
-      <c r="AY50" s="15"/>
-      <c r="AZ50" s="15"/>
-      <c r="BA50" s="15"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="33"/>
+      <c r="I50" s="33"/>
+      <c r="J50" s="33"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="32"/>
+      <c r="O50" s="32"/>
+      <c r="P50" s="32"/>
+      <c r="Q50" s="32"/>
+      <c r="R50" s="32"/>
+      <c r="S50" s="32"/>
+      <c r="T50" s="32"/>
+      <c r="U50" s="32"/>
+      <c r="V50" s="32"/>
+      <c r="W50" s="32"/>
+      <c r="X50" s="33"/>
+      <c r="Y50" s="33"/>
+      <c r="Z50" s="33"/>
+      <c r="AA50" s="33"/>
+      <c r="AB50" s="33"/>
+      <c r="AC50" s="33"/>
+      <c r="AD50" s="33"/>
+      <c r="AE50" s="33"/>
+      <c r="AF50" s="33"/>
+      <c r="AG50" s="33"/>
+      <c r="AH50" s="33"/>
+      <c r="AI50" s="33"/>
+      <c r="AJ50" s="33"/>
+      <c r="AK50" s="32"/>
+      <c r="AL50" s="32"/>
+      <c r="AM50" s="32"/>
+      <c r="AN50" s="32"/>
+      <c r="AO50" s="32"/>
+      <c r="AP50" s="32"/>
+      <c r="AQ50" s="32"/>
+      <c r="AR50" s="32"/>
+      <c r="AS50" s="32"/>
+      <c r="AT50" s="32"/>
+      <c r="AU50" s="32"/>
+      <c r="AV50" s="32"/>
+      <c r="AW50" s="32"/>
+      <c r="AX50" s="32"/>
+      <c r="AY50" s="32"/>
+      <c r="AZ50" s="32"/>
+      <c r="BA50" s="32"/>
     </row>
     <row r="51" spans="2:53" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="15"/>
-      <c r="L51" s="15"/>
-      <c r="M51" s="15"/>
-      <c r="N51" s="15"/>
-      <c r="O51" s="15"/>
-      <c r="P51" s="15"/>
-      <c r="Q51" s="15"/>
-      <c r="R51" s="15"/>
-      <c r="S51" s="15"/>
-      <c r="T51" s="15"/>
-      <c r="U51" s="15"/>
-      <c r="V51" s="15"/>
-      <c r="W51" s="15"/>
-      <c r="X51" s="16"/>
-      <c r="Y51" s="16"/>
-      <c r="Z51" s="16"/>
-      <c r="AA51" s="16"/>
-      <c r="AB51" s="16"/>
-      <c r="AC51" s="16"/>
-      <c r="AD51" s="16"/>
-      <c r="AE51" s="16"/>
-      <c r="AF51" s="16"/>
-      <c r="AG51" s="16"/>
-      <c r="AH51" s="16"/>
-      <c r="AI51" s="16"/>
-      <c r="AJ51" s="16"/>
-      <c r="AK51" s="15"/>
-      <c r="AL51" s="15"/>
-      <c r="AM51" s="15"/>
-      <c r="AN51" s="15"/>
-      <c r="AO51" s="15"/>
-      <c r="AP51" s="15"/>
-      <c r="AQ51" s="15"/>
-      <c r="AR51" s="15"/>
-      <c r="AS51" s="15"/>
-      <c r="AT51" s="15"/>
-      <c r="AU51" s="15"/>
-      <c r="AV51" s="15"/>
-      <c r="AW51" s="15"/>
-      <c r="AX51" s="15"/>
-      <c r="AY51" s="15"/>
-      <c r="AZ51" s="15"/>
-      <c r="BA51" s="15"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="33"/>
+      <c r="J51" s="33"/>
+      <c r="K51" s="32"/>
+      <c r="L51" s="32"/>
+      <c r="M51" s="32"/>
+      <c r="N51" s="32"/>
+      <c r="O51" s="32"/>
+      <c r="P51" s="32"/>
+      <c r="Q51" s="32"/>
+      <c r="R51" s="32"/>
+      <c r="S51" s="32"/>
+      <c r="T51" s="32"/>
+      <c r="U51" s="32"/>
+      <c r="V51" s="32"/>
+      <c r="W51" s="32"/>
+      <c r="X51" s="33"/>
+      <c r="Y51" s="33"/>
+      <c r="Z51" s="33"/>
+      <c r="AA51" s="33"/>
+      <c r="AB51" s="33"/>
+      <c r="AC51" s="33"/>
+      <c r="AD51" s="33"/>
+      <c r="AE51" s="33"/>
+      <c r="AF51" s="33"/>
+      <c r="AG51" s="33"/>
+      <c r="AH51" s="33"/>
+      <c r="AI51" s="33"/>
+      <c r="AJ51" s="33"/>
+      <c r="AK51" s="32"/>
+      <c r="AL51" s="32"/>
+      <c r="AM51" s="32"/>
+      <c r="AN51" s="32"/>
+      <c r="AO51" s="32"/>
+      <c r="AP51" s="32"/>
+      <c r="AQ51" s="32"/>
+      <c r="AR51" s="32"/>
+      <c r="AS51" s="32"/>
+      <c r="AT51" s="32"/>
+      <c r="AU51" s="32"/>
+      <c r="AV51" s="32"/>
+      <c r="AW51" s="32"/>
+      <c r="AX51" s="32"/>
+      <c r="AY51" s="32"/>
+      <c r="AZ51" s="32"/>
+      <c r="BA51" s="32"/>
     </row>
     <row r="52" spans="2:53" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="15"/>
-      <c r="L52" s="15"/>
-      <c r="M52" s="15"/>
-      <c r="N52" s="15"/>
-      <c r="O52" s="15"/>
-      <c r="P52" s="15"/>
-      <c r="Q52" s="15"/>
-      <c r="R52" s="15"/>
-      <c r="S52" s="15"/>
-      <c r="T52" s="15"/>
-      <c r="U52" s="15"/>
-      <c r="V52" s="15"/>
-      <c r="W52" s="15"/>
-      <c r="X52" s="16"/>
-      <c r="Y52" s="16"/>
-      <c r="Z52" s="16"/>
-      <c r="AA52" s="16"/>
-      <c r="AB52" s="16"/>
-      <c r="AC52" s="16"/>
-      <c r="AD52" s="16"/>
-      <c r="AE52" s="16"/>
-      <c r="AF52" s="16"/>
-      <c r="AG52" s="16"/>
-      <c r="AH52" s="16"/>
-      <c r="AI52" s="16"/>
-      <c r="AJ52" s="16"/>
-      <c r="AK52" s="15"/>
-      <c r="AL52" s="15"/>
-      <c r="AM52" s="15"/>
-      <c r="AN52" s="15"/>
-      <c r="AO52" s="15"/>
-      <c r="AP52" s="15"/>
-      <c r="AQ52" s="15"/>
-      <c r="AR52" s="15"/>
-      <c r="AS52" s="15"/>
-      <c r="AT52" s="15"/>
-      <c r="AU52" s="15"/>
-      <c r="AV52" s="15"/>
-      <c r="AW52" s="15"/>
-      <c r="AX52" s="15"/>
-      <c r="AY52" s="15"/>
-      <c r="AZ52" s="15"/>
-      <c r="BA52" s="15"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="33"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="32"/>
+      <c r="L52" s="32"/>
+      <c r="M52" s="32"/>
+      <c r="N52" s="32"/>
+      <c r="O52" s="32"/>
+      <c r="P52" s="32"/>
+      <c r="Q52" s="32"/>
+      <c r="R52" s="32"/>
+      <c r="S52" s="32"/>
+      <c r="T52" s="32"/>
+      <c r="U52" s="32"/>
+      <c r="V52" s="32"/>
+      <c r="W52" s="32"/>
+      <c r="X52" s="33"/>
+      <c r="Y52" s="33"/>
+      <c r="Z52" s="33"/>
+      <c r="AA52" s="33"/>
+      <c r="AB52" s="33"/>
+      <c r="AC52" s="33"/>
+      <c r="AD52" s="33"/>
+      <c r="AE52" s="33"/>
+      <c r="AF52" s="33"/>
+      <c r="AG52" s="33"/>
+      <c r="AH52" s="33"/>
+      <c r="AI52" s="33"/>
+      <c r="AJ52" s="33"/>
+      <c r="AK52" s="32"/>
+      <c r="AL52" s="32"/>
+      <c r="AM52" s="32"/>
+      <c r="AN52" s="32"/>
+      <c r="AO52" s="32"/>
+      <c r="AP52" s="32"/>
+      <c r="AQ52" s="32"/>
+      <c r="AR52" s="32"/>
+      <c r="AS52" s="32"/>
+      <c r="AT52" s="32"/>
+      <c r="AU52" s="32"/>
+      <c r="AV52" s="32"/>
+      <c r="AW52" s="32"/>
+      <c r="AX52" s="32"/>
+      <c r="AY52" s="32"/>
+      <c r="AZ52" s="32"/>
+      <c r="BA52" s="32"/>
     </row>
     <row r="53" spans="2:53" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="15"/>
-      <c r="L53" s="15"/>
-      <c r="M53" s="15"/>
-      <c r="N53" s="15"/>
-      <c r="O53" s="15"/>
-      <c r="P53" s="15"/>
-      <c r="Q53" s="15"/>
-      <c r="R53" s="15"/>
-      <c r="S53" s="15"/>
-      <c r="T53" s="15"/>
-      <c r="U53" s="15"/>
-      <c r="V53" s="15"/>
-      <c r="W53" s="15"/>
-      <c r="X53" s="16"/>
-      <c r="Y53" s="16"/>
-      <c r="Z53" s="16"/>
-      <c r="AA53" s="16"/>
-      <c r="AB53" s="16"/>
-      <c r="AC53" s="16"/>
-      <c r="AD53" s="16"/>
-      <c r="AE53" s="16"/>
-      <c r="AF53" s="16"/>
-      <c r="AG53" s="16"/>
-      <c r="AH53" s="16"/>
-      <c r="AI53" s="16"/>
-      <c r="AJ53" s="16"/>
-      <c r="AK53" s="15"/>
-      <c r="AL53" s="15"/>
-      <c r="AM53" s="15"/>
-      <c r="AN53" s="15"/>
-      <c r="AO53" s="15"/>
-      <c r="AP53" s="15"/>
-      <c r="AQ53" s="15"/>
-      <c r="AR53" s="15"/>
-      <c r="AS53" s="15"/>
-      <c r="AT53" s="15"/>
-      <c r="AU53" s="15"/>
-      <c r="AV53" s="15"/>
-      <c r="AW53" s="15"/>
-      <c r="AX53" s="15"/>
-      <c r="AY53" s="15"/>
-      <c r="AZ53" s="15"/>
-      <c r="BA53" s="15"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="33"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="32"/>
+      <c r="M53" s="32"/>
+      <c r="N53" s="32"/>
+      <c r="O53" s="32"/>
+      <c r="P53" s="32"/>
+      <c r="Q53" s="32"/>
+      <c r="R53" s="32"/>
+      <c r="S53" s="32"/>
+      <c r="T53" s="32"/>
+      <c r="U53" s="32"/>
+      <c r="V53" s="32"/>
+      <c r="W53" s="32"/>
+      <c r="X53" s="33"/>
+      <c r="Y53" s="33"/>
+      <c r="Z53" s="33"/>
+      <c r="AA53" s="33"/>
+      <c r="AB53" s="33"/>
+      <c r="AC53" s="33"/>
+      <c r="AD53" s="33"/>
+      <c r="AE53" s="33"/>
+      <c r="AF53" s="33"/>
+      <c r="AG53" s="33"/>
+      <c r="AH53" s="33"/>
+      <c r="AI53" s="33"/>
+      <c r="AJ53" s="33"/>
+      <c r="AK53" s="32"/>
+      <c r="AL53" s="32"/>
+      <c r="AM53" s="32"/>
+      <c r="AN53" s="32"/>
+      <c r="AO53" s="32"/>
+      <c r="AP53" s="32"/>
+      <c r="AQ53" s="32"/>
+      <c r="AR53" s="32"/>
+      <c r="AS53" s="32"/>
+      <c r="AT53" s="32"/>
+      <c r="AU53" s="32"/>
+      <c r="AV53" s="32"/>
+      <c r="AW53" s="32"/>
+      <c r="AX53" s="32"/>
+      <c r="AY53" s="32"/>
+      <c r="AZ53" s="32"/>
+      <c r="BA53" s="32"/>
     </row>
     <row r="54" spans="2:53" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="15"/>
-      <c r="L54" s="15"/>
-      <c r="M54" s="15"/>
-      <c r="N54" s="15"/>
-      <c r="O54" s="15"/>
-      <c r="P54" s="15"/>
-      <c r="Q54" s="15"/>
-      <c r="R54" s="15"/>
-      <c r="S54" s="15"/>
-      <c r="T54" s="15"/>
-      <c r="U54" s="15"/>
-      <c r="V54" s="15"/>
-      <c r="W54" s="15"/>
-      <c r="X54" s="16"/>
-      <c r="Y54" s="16"/>
-      <c r="Z54" s="16"/>
-      <c r="AA54" s="16"/>
-      <c r="AB54" s="16"/>
-      <c r="AC54" s="16"/>
-      <c r="AD54" s="16"/>
-      <c r="AE54" s="16"/>
-      <c r="AF54" s="16"/>
-      <c r="AG54" s="16"/>
-      <c r="AH54" s="16"/>
-      <c r="AI54" s="16"/>
-      <c r="AJ54" s="16"/>
-      <c r="AK54" s="15"/>
-      <c r="AL54" s="15"/>
-      <c r="AM54" s="15"/>
-      <c r="AN54" s="15"/>
-      <c r="AO54" s="15"/>
-      <c r="AP54" s="15"/>
-      <c r="AQ54" s="15"/>
-      <c r="AR54" s="15"/>
-      <c r="AS54" s="15"/>
-      <c r="AT54" s="15"/>
-      <c r="AU54" s="15"/>
-      <c r="AV54" s="15"/>
-      <c r="AW54" s="15"/>
-      <c r="AX54" s="15"/>
-      <c r="AY54" s="15"/>
-      <c r="AZ54" s="15"/>
-      <c r="BA54" s="15"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="32"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="32"/>
+      <c r="L54" s="32"/>
+      <c r="M54" s="32"/>
+      <c r="N54" s="32"/>
+      <c r="O54" s="32"/>
+      <c r="P54" s="32"/>
+      <c r="Q54" s="32"/>
+      <c r="R54" s="32"/>
+      <c r="S54" s="32"/>
+      <c r="T54" s="32"/>
+      <c r="U54" s="32"/>
+      <c r="V54" s="32"/>
+      <c r="W54" s="32"/>
+      <c r="X54" s="33"/>
+      <c r="Y54" s="33"/>
+      <c r="Z54" s="33"/>
+      <c r="AA54" s="33"/>
+      <c r="AB54" s="33"/>
+      <c r="AC54" s="33"/>
+      <c r="AD54" s="33"/>
+      <c r="AE54" s="33"/>
+      <c r="AF54" s="33"/>
+      <c r="AG54" s="33"/>
+      <c r="AH54" s="33"/>
+      <c r="AI54" s="33"/>
+      <c r="AJ54" s="33"/>
+      <c r="AK54" s="32"/>
+      <c r="AL54" s="32"/>
+      <c r="AM54" s="32"/>
+      <c r="AN54" s="32"/>
+      <c r="AO54" s="32"/>
+      <c r="AP54" s="32"/>
+      <c r="AQ54" s="32"/>
+      <c r="AR54" s="32"/>
+      <c r="AS54" s="32"/>
+      <c r="AT54" s="32"/>
+      <c r="AU54" s="32"/>
+      <c r="AV54" s="32"/>
+      <c r="AW54" s="32"/>
+      <c r="AX54" s="32"/>
+      <c r="AY54" s="32"/>
+      <c r="AZ54" s="32"/>
+      <c r="BA54" s="32"/>
     </row>
     <row r="55" spans="2:53" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="15"/>
-      <c r="L55" s="15"/>
-      <c r="M55" s="15"/>
-      <c r="N55" s="15"/>
-      <c r="O55" s="15"/>
-      <c r="P55" s="15"/>
-      <c r="Q55" s="15"/>
-      <c r="R55" s="15"/>
-      <c r="S55" s="15"/>
-      <c r="T55" s="15"/>
-      <c r="U55" s="15"/>
-      <c r="V55" s="15"/>
-      <c r="W55" s="15"/>
-      <c r="X55" s="16"/>
-      <c r="Y55" s="16"/>
-      <c r="Z55" s="16"/>
-      <c r="AA55" s="16"/>
-      <c r="AB55" s="16"/>
-      <c r="AC55" s="16"/>
-      <c r="AD55" s="16"/>
-      <c r="AE55" s="16"/>
-      <c r="AF55" s="16"/>
-      <c r="AG55" s="16"/>
-      <c r="AH55" s="16"/>
-      <c r="AI55" s="16"/>
-      <c r="AJ55" s="16"/>
-      <c r="AK55" s="15"/>
-      <c r="AL55" s="15"/>
-      <c r="AM55" s="15"/>
-      <c r="AN55" s="15"/>
-      <c r="AO55" s="15"/>
-      <c r="AP55" s="15"/>
-      <c r="AQ55" s="15"/>
-      <c r="AR55" s="15"/>
-      <c r="AS55" s="15"/>
-      <c r="AT55" s="15"/>
-      <c r="AU55" s="15"/>
-      <c r="AV55" s="15"/>
-      <c r="AW55" s="15"/>
-      <c r="AX55" s="15"/>
-      <c r="AY55" s="15"/>
-      <c r="AZ55" s="15"/>
-      <c r="BA55" s="15"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="32"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="32"/>
+      <c r="L55" s="32"/>
+      <c r="M55" s="32"/>
+      <c r="N55" s="32"/>
+      <c r="O55" s="32"/>
+      <c r="P55" s="32"/>
+      <c r="Q55" s="32"/>
+      <c r="R55" s="32"/>
+      <c r="S55" s="32"/>
+      <c r="T55" s="32"/>
+      <c r="U55" s="32"/>
+      <c r="V55" s="32"/>
+      <c r="W55" s="32"/>
+      <c r="X55" s="33"/>
+      <c r="Y55" s="33"/>
+      <c r="Z55" s="33"/>
+      <c r="AA55" s="33"/>
+      <c r="AB55" s="33"/>
+      <c r="AC55" s="33"/>
+      <c r="AD55" s="33"/>
+      <c r="AE55" s="33"/>
+      <c r="AF55" s="33"/>
+      <c r="AG55" s="33"/>
+      <c r="AH55" s="33"/>
+      <c r="AI55" s="33"/>
+      <c r="AJ55" s="33"/>
+      <c r="AK55" s="32"/>
+      <c r="AL55" s="32"/>
+      <c r="AM55" s="32"/>
+      <c r="AN55" s="32"/>
+      <c r="AO55" s="32"/>
+      <c r="AP55" s="32"/>
+      <c r="AQ55" s="32"/>
+      <c r="AR55" s="32"/>
+      <c r="AS55" s="32"/>
+      <c r="AT55" s="32"/>
+      <c r="AU55" s="32"/>
+      <c r="AV55" s="32"/>
+      <c r="AW55" s="32"/>
+      <c r="AX55" s="32"/>
+      <c r="AY55" s="32"/>
+      <c r="AZ55" s="32"/>
+      <c r="BA55" s="32"/>
     </row>
     <row r="56" spans="2:53" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="15"/>
-      <c r="K56" s="15"/>
-      <c r="L56" s="15"/>
-      <c r="M56" s="15"/>
-      <c r="N56" s="15"/>
-      <c r="O56" s="15"/>
-      <c r="P56" s="15"/>
-      <c r="Q56" s="15"/>
-      <c r="R56" s="15"/>
-      <c r="S56" s="15"/>
-      <c r="T56" s="15"/>
-      <c r="U56" s="15"/>
-      <c r="V56" s="15"/>
-      <c r="W56" s="15"/>
-      <c r="X56" s="16"/>
-      <c r="Y56" s="16"/>
-      <c r="Z56" s="16"/>
-      <c r="AA56" s="16"/>
-      <c r="AB56" s="16"/>
-      <c r="AC56" s="16"/>
-      <c r="AD56" s="16"/>
-      <c r="AE56" s="16"/>
-      <c r="AF56" s="16"/>
-      <c r="AG56" s="16"/>
-      <c r="AH56" s="16"/>
-      <c r="AI56" s="16"/>
-      <c r="AJ56" s="16"/>
-      <c r="AK56" s="15"/>
-      <c r="AL56" s="15"/>
-      <c r="AM56" s="15"/>
-      <c r="AN56" s="15"/>
-      <c r="AO56" s="15"/>
-      <c r="AP56" s="15"/>
-      <c r="AQ56" s="15"/>
-      <c r="AR56" s="15"/>
-      <c r="AS56" s="15"/>
-      <c r="AT56" s="15"/>
-      <c r="AU56" s="15"/>
-      <c r="AV56" s="15"/>
-      <c r="AW56" s="15"/>
-      <c r="AX56" s="15"/>
-      <c r="AY56" s="15"/>
-      <c r="AZ56" s="15"/>
-      <c r="BA56" s="15"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="32"/>
+      <c r="M56" s="32"/>
+      <c r="N56" s="32"/>
+      <c r="O56" s="32"/>
+      <c r="P56" s="32"/>
+      <c r="Q56" s="32"/>
+      <c r="R56" s="32"/>
+      <c r="S56" s="32"/>
+      <c r="T56" s="32"/>
+      <c r="U56" s="32"/>
+      <c r="V56" s="32"/>
+      <c r="W56" s="32"/>
+      <c r="X56" s="33"/>
+      <c r="Y56" s="33"/>
+      <c r="Z56" s="33"/>
+      <c r="AA56" s="33"/>
+      <c r="AB56" s="33"/>
+      <c r="AC56" s="33"/>
+      <c r="AD56" s="33"/>
+      <c r="AE56" s="33"/>
+      <c r="AF56" s="33"/>
+      <c r="AG56" s="33"/>
+      <c r="AH56" s="33"/>
+      <c r="AI56" s="33"/>
+      <c r="AJ56" s="33"/>
+      <c r="AK56" s="32"/>
+      <c r="AL56" s="32"/>
+      <c r="AM56" s="32"/>
+      <c r="AN56" s="32"/>
+      <c r="AO56" s="32"/>
+      <c r="AP56" s="32"/>
+      <c r="AQ56" s="32"/>
+      <c r="AR56" s="32"/>
+      <c r="AS56" s="32"/>
+      <c r="AT56" s="32"/>
+      <c r="AU56" s="32"/>
+      <c r="AV56" s="32"/>
+      <c r="AW56" s="32"/>
+      <c r="AX56" s="32"/>
+      <c r="AY56" s="32"/>
+      <c r="AZ56" s="32"/>
+      <c r="BA56" s="32"/>
     </row>
     <row r="57" spans="2:53" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B57" s="15"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="15"/>
-      <c r="K57" s="15"/>
-      <c r="L57" s="15"/>
-      <c r="M57" s="15"/>
-      <c r="N57" s="15"/>
-      <c r="O57" s="15"/>
-      <c r="P57" s="15"/>
-      <c r="Q57" s="15"/>
-      <c r="R57" s="15"/>
-      <c r="S57" s="15"/>
-      <c r="T57" s="15"/>
-      <c r="U57" s="15"/>
-      <c r="V57" s="15"/>
-      <c r="W57" s="15"/>
-      <c r="X57" s="16"/>
-      <c r="Y57" s="16"/>
-      <c r="Z57" s="16"/>
-      <c r="AA57" s="16"/>
-      <c r="AB57" s="16"/>
-      <c r="AC57" s="16"/>
-      <c r="AD57" s="16"/>
-      <c r="AE57" s="16"/>
-      <c r="AF57" s="16"/>
-      <c r="AG57" s="16"/>
-      <c r="AH57" s="16"/>
-      <c r="AI57" s="16"/>
-      <c r="AJ57" s="16"/>
-      <c r="AK57" s="15"/>
-      <c r="AL57" s="15"/>
-      <c r="AM57" s="15"/>
-      <c r="AN57" s="15"/>
-      <c r="AO57" s="15"/>
-      <c r="AP57" s="15"/>
-      <c r="AQ57" s="15"/>
-      <c r="AR57" s="15"/>
-      <c r="AS57" s="15"/>
-      <c r="AT57" s="15"/>
-      <c r="AU57" s="15"/>
-      <c r="AV57" s="15"/>
-      <c r="AW57" s="15"/>
-      <c r="AX57" s="15"/>
-      <c r="AY57" s="15"/>
-      <c r="AZ57" s="15"/>
-      <c r="BA57" s="15"/>
+      <c r="B57" s="32"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="32"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="32"/>
+      <c r="L57" s="32"/>
+      <c r="M57" s="32"/>
+      <c r="N57" s="32"/>
+      <c r="O57" s="32"/>
+      <c r="P57" s="32"/>
+      <c r="Q57" s="32"/>
+      <c r="R57" s="32"/>
+      <c r="S57" s="32"/>
+      <c r="T57" s="32"/>
+      <c r="U57" s="32"/>
+      <c r="V57" s="32"/>
+      <c r="W57" s="32"/>
+      <c r="X57" s="33"/>
+      <c r="Y57" s="33"/>
+      <c r="Z57" s="33"/>
+      <c r="AA57" s="33"/>
+      <c r="AB57" s="33"/>
+      <c r="AC57" s="33"/>
+      <c r="AD57" s="33"/>
+      <c r="AE57" s="33"/>
+      <c r="AF57" s="33"/>
+      <c r="AG57" s="33"/>
+      <c r="AH57" s="33"/>
+      <c r="AI57" s="33"/>
+      <c r="AJ57" s="33"/>
+      <c r="AK57" s="32"/>
+      <c r="AL57" s="32"/>
+      <c r="AM57" s="32"/>
+      <c r="AN57" s="32"/>
+      <c r="AO57" s="32"/>
+      <c r="AP57" s="32"/>
+      <c r="AQ57" s="32"/>
+      <c r="AR57" s="32"/>
+      <c r="AS57" s="32"/>
+      <c r="AT57" s="32"/>
+      <c r="AU57" s="32"/>
+      <c r="AV57" s="32"/>
+      <c r="AW57" s="32"/>
+      <c r="AX57" s="32"/>
+      <c r="AY57" s="32"/>
+      <c r="AZ57" s="32"/>
+      <c r="BA57" s="32"/>
     </row>
     <row r="58" spans="2:53" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="15"/>
-      <c r="L58" s="15"/>
-      <c r="M58" s="15"/>
-      <c r="N58" s="15"/>
-      <c r="O58" s="15"/>
-      <c r="P58" s="15"/>
-      <c r="Q58" s="15"/>
-      <c r="R58" s="15"/>
-      <c r="S58" s="15"/>
-      <c r="T58" s="15"/>
-      <c r="U58" s="15"/>
-      <c r="V58" s="15"/>
-      <c r="W58" s="15"/>
-      <c r="X58" s="16"/>
-      <c r="Y58" s="16"/>
-      <c r="Z58" s="16"/>
-      <c r="AA58" s="16"/>
-      <c r="AB58" s="16"/>
-      <c r="AC58" s="16"/>
-      <c r="AD58" s="16"/>
-      <c r="AE58" s="16"/>
-      <c r="AF58" s="16"/>
-      <c r="AG58" s="16"/>
-      <c r="AH58" s="16"/>
-      <c r="AI58" s="16"/>
-      <c r="AJ58" s="16"/>
-      <c r="AK58" s="15"/>
-      <c r="AL58" s="15"/>
-      <c r="AM58" s="15"/>
-      <c r="AN58" s="15"/>
-      <c r="AO58" s="15"/>
-      <c r="AP58" s="15"/>
-      <c r="AQ58" s="15"/>
-      <c r="AR58" s="15"/>
-      <c r="AS58" s="15"/>
-      <c r="AT58" s="15"/>
-      <c r="AU58" s="15"/>
-      <c r="AV58" s="15"/>
-      <c r="AW58" s="15"/>
-      <c r="AX58" s="15"/>
-      <c r="AY58" s="15"/>
-      <c r="AZ58" s="15"/>
-      <c r="BA58" s="15"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="32"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="32"/>
+      <c r="M58" s="32"/>
+      <c r="N58" s="32"/>
+      <c r="O58" s="32"/>
+      <c r="P58" s="32"/>
+      <c r="Q58" s="32"/>
+      <c r="R58" s="32"/>
+      <c r="S58" s="32"/>
+      <c r="T58" s="32"/>
+      <c r="U58" s="32"/>
+      <c r="V58" s="32"/>
+      <c r="W58" s="32"/>
+      <c r="X58" s="33"/>
+      <c r="Y58" s="33"/>
+      <c r="Z58" s="33"/>
+      <c r="AA58" s="33"/>
+      <c r="AB58" s="33"/>
+      <c r="AC58" s="33"/>
+      <c r="AD58" s="33"/>
+      <c r="AE58" s="33"/>
+      <c r="AF58" s="33"/>
+      <c r="AG58" s="33"/>
+      <c r="AH58" s="33"/>
+      <c r="AI58" s="33"/>
+      <c r="AJ58" s="33"/>
+      <c r="AK58" s="32"/>
+      <c r="AL58" s="32"/>
+      <c r="AM58" s="32"/>
+      <c r="AN58" s="32"/>
+      <c r="AO58" s="32"/>
+      <c r="AP58" s="32"/>
+      <c r="AQ58" s="32"/>
+      <c r="AR58" s="32"/>
+      <c r="AS58" s="32"/>
+      <c r="AT58" s="32"/>
+      <c r="AU58" s="32"/>
+      <c r="AV58" s="32"/>
+      <c r="AW58" s="32"/>
+      <c r="AX58" s="32"/>
+      <c r="AY58" s="32"/>
+      <c r="AZ58" s="32"/>
+      <c r="BA58" s="32"/>
     </row>
     <row r="59" spans="2:53" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="15"/>
-      <c r="K59" s="15"/>
-      <c r="L59" s="15"/>
-      <c r="M59" s="15"/>
-      <c r="N59" s="15"/>
-      <c r="O59" s="15"/>
-      <c r="P59" s="15"/>
-      <c r="Q59" s="15"/>
-      <c r="R59" s="15"/>
-      <c r="S59" s="15"/>
-      <c r="T59" s="15"/>
-      <c r="U59" s="15"/>
-      <c r="V59" s="15"/>
-      <c r="W59" s="15"/>
-      <c r="X59" s="16"/>
-      <c r="Y59" s="16"/>
-      <c r="Z59" s="16"/>
-      <c r="AA59" s="16"/>
-      <c r="AB59" s="16"/>
-      <c r="AC59" s="16"/>
-      <c r="AD59" s="16"/>
-      <c r="AE59" s="16"/>
-      <c r="AF59" s="16"/>
-      <c r="AG59" s="16"/>
-      <c r="AH59" s="16"/>
-      <c r="AI59" s="16"/>
-      <c r="AJ59" s="16"/>
-      <c r="AK59" s="15"/>
-      <c r="AL59" s="15"/>
-      <c r="AM59" s="15"/>
-      <c r="AN59" s="15"/>
-      <c r="AO59" s="15"/>
-      <c r="AP59" s="15"/>
-      <c r="AQ59" s="15"/>
-      <c r="AR59" s="15"/>
-      <c r="AS59" s="15"/>
-      <c r="AT59" s="15"/>
-      <c r="AU59" s="15"/>
-      <c r="AV59" s="15"/>
-      <c r="AW59" s="15"/>
-      <c r="AX59" s="15"/>
-      <c r="AY59" s="15"/>
-      <c r="AZ59" s="15"/>
-      <c r="BA59" s="15"/>
+      <c r="B59" s="32"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="32"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="32"/>
+      <c r="L59" s="32"/>
+      <c r="M59" s="32"/>
+      <c r="N59" s="32"/>
+      <c r="O59" s="32"/>
+      <c r="P59" s="32"/>
+      <c r="Q59" s="32"/>
+      <c r="R59" s="32"/>
+      <c r="S59" s="32"/>
+      <c r="T59" s="32"/>
+      <c r="U59" s="32"/>
+      <c r="V59" s="32"/>
+      <c r="W59" s="32"/>
+      <c r="X59" s="33"/>
+      <c r="Y59" s="33"/>
+      <c r="Z59" s="33"/>
+      <c r="AA59" s="33"/>
+      <c r="AB59" s="33"/>
+      <c r="AC59" s="33"/>
+      <c r="AD59" s="33"/>
+      <c r="AE59" s="33"/>
+      <c r="AF59" s="33"/>
+      <c r="AG59" s="33"/>
+      <c r="AH59" s="33"/>
+      <c r="AI59" s="33"/>
+      <c r="AJ59" s="33"/>
+      <c r="AK59" s="32"/>
+      <c r="AL59" s="32"/>
+      <c r="AM59" s="32"/>
+      <c r="AN59" s="32"/>
+      <c r="AO59" s="32"/>
+      <c r="AP59" s="32"/>
+      <c r="AQ59" s="32"/>
+      <c r="AR59" s="32"/>
+      <c r="AS59" s="32"/>
+      <c r="AT59" s="32"/>
+      <c r="AU59" s="32"/>
+      <c r="AV59" s="32"/>
+      <c r="AW59" s="32"/>
+      <c r="AX59" s="32"/>
+      <c r="AY59" s="32"/>
+      <c r="AZ59" s="32"/>
+      <c r="BA59" s="32"/>
     </row>
     <row r="60" spans="2:53" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="15"/>
-      <c r="K60" s="15"/>
-      <c r="L60" s="15"/>
-      <c r="M60" s="15"/>
-      <c r="N60" s="15"/>
-      <c r="O60" s="15"/>
-      <c r="P60" s="15"/>
-      <c r="Q60" s="15"/>
-      <c r="R60" s="15"/>
-      <c r="S60" s="15"/>
-      <c r="T60" s="15"/>
-      <c r="U60" s="15"/>
-      <c r="V60" s="15"/>
-      <c r="W60" s="15"/>
-      <c r="X60" s="16"/>
-      <c r="Y60" s="16"/>
-      <c r="Z60" s="16"/>
-      <c r="AA60" s="16"/>
-      <c r="AB60" s="16"/>
-      <c r="AC60" s="16"/>
-      <c r="AD60" s="16"/>
-      <c r="AE60" s="16"/>
-      <c r="AF60" s="16"/>
-      <c r="AG60" s="16"/>
-      <c r="AH60" s="16"/>
-      <c r="AI60" s="16"/>
-      <c r="AJ60" s="16"/>
-      <c r="AK60" s="15"/>
-      <c r="AL60" s="15"/>
-      <c r="AM60" s="15"/>
-      <c r="AN60" s="15"/>
-      <c r="AO60" s="15"/>
-      <c r="AP60" s="15"/>
-      <c r="AQ60" s="15"/>
-      <c r="AR60" s="15"/>
-      <c r="AS60" s="15"/>
-      <c r="AT60" s="15"/>
-      <c r="AU60" s="15"/>
-      <c r="AV60" s="15"/>
-      <c r="AW60" s="15"/>
-      <c r="AX60" s="15"/>
-      <c r="AY60" s="15"/>
-      <c r="AZ60" s="15"/>
-      <c r="BA60" s="15"/>
+      <c r="B60" s="32"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="32"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="32"/>
+      <c r="L60" s="32"/>
+      <c r="M60" s="32"/>
+      <c r="N60" s="32"/>
+      <c r="O60" s="32"/>
+      <c r="P60" s="32"/>
+      <c r="Q60" s="32"/>
+      <c r="R60" s="32"/>
+      <c r="S60" s="32"/>
+      <c r="T60" s="32"/>
+      <c r="U60" s="32"/>
+      <c r="V60" s="32"/>
+      <c r="W60" s="32"/>
+      <c r="X60" s="33"/>
+      <c r="Y60" s="33"/>
+      <c r="Z60" s="33"/>
+      <c r="AA60" s="33"/>
+      <c r="AB60" s="33"/>
+      <c r="AC60" s="33"/>
+      <c r="AD60" s="33"/>
+      <c r="AE60" s="33"/>
+      <c r="AF60" s="33"/>
+      <c r="AG60" s="33"/>
+      <c r="AH60" s="33"/>
+      <c r="AI60" s="33"/>
+      <c r="AJ60" s="33"/>
+      <c r="AK60" s="32"/>
+      <c r="AL60" s="32"/>
+      <c r="AM60" s="32"/>
+      <c r="AN60" s="32"/>
+      <c r="AO60" s="32"/>
+      <c r="AP60" s="32"/>
+      <c r="AQ60" s="32"/>
+      <c r="AR60" s="32"/>
+      <c r="AS60" s="32"/>
+      <c r="AT60" s="32"/>
+      <c r="AU60" s="32"/>
+      <c r="AV60" s="32"/>
+      <c r="AW60" s="32"/>
+      <c r="AX60" s="32"/>
+      <c r="AY60" s="32"/>
+      <c r="AZ60" s="32"/>
+      <c r="BA60" s="32"/>
     </row>
     <row r="61" spans="2:53" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="15"/>
-      <c r="K61" s="15"/>
-      <c r="L61" s="15"/>
-      <c r="M61" s="15"/>
-      <c r="N61" s="15"/>
-      <c r="O61" s="15"/>
-      <c r="P61" s="15"/>
-      <c r="Q61" s="15"/>
-      <c r="R61" s="15"/>
-      <c r="S61" s="15"/>
-      <c r="T61" s="15"/>
-      <c r="U61" s="15"/>
-      <c r="V61" s="15"/>
-      <c r="W61" s="15"/>
-      <c r="X61" s="16"/>
-      <c r="Y61" s="16"/>
-      <c r="Z61" s="16"/>
-      <c r="AA61" s="16"/>
-      <c r="AB61" s="16"/>
-      <c r="AC61" s="16"/>
-      <c r="AD61" s="16"/>
-      <c r="AE61" s="16"/>
-      <c r="AF61" s="16"/>
-      <c r="AG61" s="16"/>
-      <c r="AH61" s="16"/>
-      <c r="AI61" s="16"/>
-      <c r="AJ61" s="16"/>
-      <c r="AK61" s="15"/>
-      <c r="AL61" s="15"/>
-      <c r="AM61" s="15"/>
-      <c r="AN61" s="15"/>
-      <c r="AO61" s="15"/>
-      <c r="AP61" s="15"/>
-      <c r="AQ61" s="15"/>
-      <c r="AR61" s="15"/>
-      <c r="AS61" s="15"/>
-      <c r="AT61" s="15"/>
-      <c r="AU61" s="15"/>
-      <c r="AV61" s="15"/>
-      <c r="AW61" s="15"/>
-      <c r="AX61" s="15"/>
-      <c r="AY61" s="15"/>
-      <c r="AZ61" s="15"/>
-      <c r="BA61" s="15"/>
+      <c r="B61" s="32"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="32"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="32"/>
+      <c r="L61" s="32"/>
+      <c r="M61" s="32"/>
+      <c r="N61" s="32"/>
+      <c r="O61" s="32"/>
+      <c r="P61" s="32"/>
+      <c r="Q61" s="32"/>
+      <c r="R61" s="32"/>
+      <c r="S61" s="32"/>
+      <c r="T61" s="32"/>
+      <c r="U61" s="32"/>
+      <c r="V61" s="32"/>
+      <c r="W61" s="32"/>
+      <c r="X61" s="33"/>
+      <c r="Y61" s="33"/>
+      <c r="Z61" s="33"/>
+      <c r="AA61" s="33"/>
+      <c r="AB61" s="33"/>
+      <c r="AC61" s="33"/>
+      <c r="AD61" s="33"/>
+      <c r="AE61" s="33"/>
+      <c r="AF61" s="33"/>
+      <c r="AG61" s="33"/>
+      <c r="AH61" s="33"/>
+      <c r="AI61" s="33"/>
+      <c r="AJ61" s="33"/>
+      <c r="AK61" s="32"/>
+      <c r="AL61" s="32"/>
+      <c r="AM61" s="32"/>
+      <c r="AN61" s="32"/>
+      <c r="AO61" s="32"/>
+      <c r="AP61" s="32"/>
+      <c r="AQ61" s="32"/>
+      <c r="AR61" s="32"/>
+      <c r="AS61" s="32"/>
+      <c r="AT61" s="32"/>
+      <c r="AU61" s="32"/>
+      <c r="AV61" s="32"/>
+      <c r="AW61" s="32"/>
+      <c r="AX61" s="32"/>
+      <c r="AY61" s="32"/>
+      <c r="AZ61" s="32"/>
+      <c r="BA61" s="32"/>
     </row>
     <row r="62" spans="2:53" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="15"/>
-      <c r="K62" s="15"/>
-      <c r="L62" s="15"/>
-      <c r="M62" s="15"/>
-      <c r="N62" s="15"/>
-      <c r="O62" s="15"/>
-      <c r="P62" s="15"/>
-      <c r="Q62" s="15"/>
-      <c r="R62" s="15"/>
-      <c r="S62" s="15"/>
-      <c r="T62" s="15"/>
-      <c r="U62" s="15"/>
-      <c r="V62" s="15"/>
-      <c r="W62" s="15"/>
-      <c r="X62" s="16"/>
-      <c r="Y62" s="16"/>
-      <c r="Z62" s="16"/>
-      <c r="AA62" s="16"/>
-      <c r="AB62" s="16"/>
-      <c r="AC62" s="16"/>
-      <c r="AD62" s="16"/>
-      <c r="AE62" s="16"/>
-      <c r="AF62" s="16"/>
-      <c r="AG62" s="16"/>
-      <c r="AH62" s="16"/>
-      <c r="AI62" s="16"/>
-      <c r="AJ62" s="16"/>
-      <c r="AK62" s="15"/>
-      <c r="AL62" s="15"/>
-      <c r="AM62" s="15"/>
-      <c r="AN62" s="15"/>
-      <c r="AO62" s="15"/>
-      <c r="AP62" s="15"/>
-      <c r="AQ62" s="15"/>
-      <c r="AR62" s="15"/>
-      <c r="AS62" s="15"/>
-      <c r="AT62" s="15"/>
-      <c r="AU62" s="15"/>
-      <c r="AV62" s="15"/>
-      <c r="AW62" s="15"/>
-      <c r="AX62" s="15"/>
-      <c r="AY62" s="15"/>
-      <c r="AZ62" s="15"/>
-      <c r="BA62" s="15"/>
+      <c r="B62" s="32"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="32"/>
+      <c r="J62" s="32"/>
+      <c r="K62" s="32"/>
+      <c r="L62" s="32"/>
+      <c r="M62" s="32"/>
+      <c r="N62" s="32"/>
+      <c r="O62" s="32"/>
+      <c r="P62" s="32"/>
+      <c r="Q62" s="32"/>
+      <c r="R62" s="32"/>
+      <c r="S62" s="32"/>
+      <c r="T62" s="32"/>
+      <c r="U62" s="32"/>
+      <c r="V62" s="32"/>
+      <c r="W62" s="32"/>
+      <c r="X62" s="33"/>
+      <c r="Y62" s="33"/>
+      <c r="Z62" s="33"/>
+      <c r="AA62" s="33"/>
+      <c r="AB62" s="33"/>
+      <c r="AC62" s="33"/>
+      <c r="AD62" s="33"/>
+      <c r="AE62" s="33"/>
+      <c r="AF62" s="33"/>
+      <c r="AG62" s="33"/>
+      <c r="AH62" s="33"/>
+      <c r="AI62" s="33"/>
+      <c r="AJ62" s="33"/>
+      <c r="AK62" s="32"/>
+      <c r="AL62" s="32"/>
+      <c r="AM62" s="32"/>
+      <c r="AN62" s="32"/>
+      <c r="AO62" s="32"/>
+      <c r="AP62" s="32"/>
+      <c r="AQ62" s="32"/>
+      <c r="AR62" s="32"/>
+      <c r="AS62" s="32"/>
+      <c r="AT62" s="32"/>
+      <c r="AU62" s="32"/>
+      <c r="AV62" s="32"/>
+      <c r="AW62" s="32"/>
+      <c r="AX62" s="32"/>
+      <c r="AY62" s="32"/>
+      <c r="AZ62" s="32"/>
+      <c r="BA62" s="32"/>
     </row>
     <row r="63" spans="2:53" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B63" s="15"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="15"/>
-      <c r="K63" s="15"/>
-      <c r="L63" s="15"/>
-      <c r="M63" s="15"/>
-      <c r="N63" s="15"/>
-      <c r="O63" s="15"/>
-      <c r="P63" s="15"/>
-      <c r="Q63" s="15"/>
-      <c r="R63" s="15"/>
-      <c r="S63" s="15"/>
-      <c r="T63" s="15"/>
-      <c r="U63" s="15"/>
-      <c r="V63" s="15"/>
-      <c r="W63" s="15"/>
-      <c r="X63" s="16"/>
-      <c r="Y63" s="16"/>
-      <c r="Z63" s="16"/>
-      <c r="AA63" s="16"/>
-      <c r="AB63" s="16"/>
-      <c r="AC63" s="16"/>
-      <c r="AD63" s="16"/>
-      <c r="AE63" s="16"/>
-      <c r="AF63" s="16"/>
-      <c r="AG63" s="16"/>
-      <c r="AH63" s="16"/>
-      <c r="AI63" s="16"/>
-      <c r="AJ63" s="16"/>
-      <c r="AK63" s="15"/>
-      <c r="AL63" s="15"/>
-      <c r="AM63" s="15"/>
-      <c r="AN63" s="15"/>
-      <c r="AO63" s="15"/>
-      <c r="AP63" s="15"/>
-      <c r="AQ63" s="15"/>
-      <c r="AR63" s="15"/>
-      <c r="AS63" s="15"/>
-      <c r="AT63" s="15"/>
-      <c r="AU63" s="15"/>
-      <c r="AV63" s="15"/>
-      <c r="AW63" s="15"/>
-      <c r="AX63" s="15"/>
-      <c r="AY63" s="15"/>
-      <c r="AZ63" s="15"/>
-      <c r="BA63" s="15"/>
+      <c r="B63" s="32"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="32"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="32"/>
+      <c r="L63" s="32"/>
+      <c r="M63" s="32"/>
+      <c r="N63" s="32"/>
+      <c r="O63" s="32"/>
+      <c r="P63" s="32"/>
+      <c r="Q63" s="32"/>
+      <c r="R63" s="32"/>
+      <c r="S63" s="32"/>
+      <c r="T63" s="32"/>
+      <c r="U63" s="32"/>
+      <c r="V63" s="32"/>
+      <c r="W63" s="32"/>
+      <c r="X63" s="33"/>
+      <c r="Y63" s="33"/>
+      <c r="Z63" s="33"/>
+      <c r="AA63" s="33"/>
+      <c r="AB63" s="33"/>
+      <c r="AC63" s="33"/>
+      <c r="AD63" s="33"/>
+      <c r="AE63" s="33"/>
+      <c r="AF63" s="33"/>
+      <c r="AG63" s="33"/>
+      <c r="AH63" s="33"/>
+      <c r="AI63" s="33"/>
+      <c r="AJ63" s="33"/>
+      <c r="AK63" s="32"/>
+      <c r="AL63" s="32"/>
+      <c r="AM63" s="32"/>
+      <c r="AN63" s="32"/>
+      <c r="AO63" s="32"/>
+      <c r="AP63" s="32"/>
+      <c r="AQ63" s="32"/>
+      <c r="AR63" s="32"/>
+      <c r="AS63" s="32"/>
+      <c r="AT63" s="32"/>
+      <c r="AU63" s="32"/>
+      <c r="AV63" s="32"/>
+      <c r="AW63" s="32"/>
+      <c r="AX63" s="32"/>
+      <c r="AY63" s="32"/>
+      <c r="AZ63" s="32"/>
+      <c r="BA63" s="32"/>
     </row>
     <row r="64" spans="2:53" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="15"/>
-      <c r="K64" s="15"/>
-      <c r="L64" s="15"/>
-      <c r="M64" s="15"/>
-      <c r="N64" s="15"/>
-      <c r="O64" s="15"/>
-      <c r="P64" s="15"/>
-      <c r="Q64" s="15"/>
-      <c r="R64" s="15"/>
-      <c r="S64" s="15"/>
-      <c r="T64" s="15"/>
-      <c r="U64" s="15"/>
-      <c r="V64" s="15"/>
-      <c r="W64" s="15"/>
-      <c r="X64" s="16"/>
-      <c r="Y64" s="16"/>
-      <c r="Z64" s="16"/>
-      <c r="AA64" s="16"/>
-      <c r="AB64" s="16"/>
-      <c r="AC64" s="16"/>
-      <c r="AD64" s="16"/>
-      <c r="AE64" s="16"/>
-      <c r="AF64" s="16"/>
-      <c r="AG64" s="16"/>
-      <c r="AH64" s="16"/>
-      <c r="AI64" s="16"/>
-      <c r="AJ64" s="16"/>
-      <c r="AK64" s="15"/>
-      <c r="AL64" s="15"/>
-      <c r="AM64" s="15"/>
-      <c r="AN64" s="15"/>
-      <c r="AO64" s="15"/>
-      <c r="AP64" s="15"/>
-      <c r="AQ64" s="15"/>
-      <c r="AR64" s="15"/>
-      <c r="AS64" s="15"/>
-      <c r="AT64" s="15"/>
-      <c r="AU64" s="15"/>
-      <c r="AV64" s="15"/>
-      <c r="AW64" s="15"/>
-      <c r="AX64" s="15"/>
-      <c r="AY64" s="15"/>
-      <c r="AZ64" s="15"/>
-      <c r="BA64" s="15"/>
+      <c r="B64" s="32"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="32"/>
+      <c r="J64" s="32"/>
+      <c r="K64" s="32"/>
+      <c r="L64" s="32"/>
+      <c r="M64" s="32"/>
+      <c r="N64" s="32"/>
+      <c r="O64" s="32"/>
+      <c r="P64" s="32"/>
+      <c r="Q64" s="32"/>
+      <c r="R64" s="32"/>
+      <c r="S64" s="32"/>
+      <c r="T64" s="32"/>
+      <c r="U64" s="32"/>
+      <c r="V64" s="32"/>
+      <c r="W64" s="32"/>
+      <c r="X64" s="33"/>
+      <c r="Y64" s="33"/>
+      <c r="Z64" s="33"/>
+      <c r="AA64" s="33"/>
+      <c r="AB64" s="33"/>
+      <c r="AC64" s="33"/>
+      <c r="AD64" s="33"/>
+      <c r="AE64" s="33"/>
+      <c r="AF64" s="33"/>
+      <c r="AG64" s="33"/>
+      <c r="AH64" s="33"/>
+      <c r="AI64" s="33"/>
+      <c r="AJ64" s="33"/>
+      <c r="AK64" s="32"/>
+      <c r="AL64" s="32"/>
+      <c r="AM64" s="32"/>
+      <c r="AN64" s="32"/>
+      <c r="AO64" s="32"/>
+      <c r="AP64" s="32"/>
+      <c r="AQ64" s="32"/>
+      <c r="AR64" s="32"/>
+      <c r="AS64" s="32"/>
+      <c r="AT64" s="32"/>
+      <c r="AU64" s="32"/>
+      <c r="AV64" s="32"/>
+      <c r="AW64" s="32"/>
+      <c r="AX64" s="32"/>
+      <c r="AY64" s="32"/>
+      <c r="AZ64" s="32"/>
+      <c r="BA64" s="32"/>
     </row>
     <row r="65" spans="2:53" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="15"/>
-      <c r="K65" s="15"/>
-      <c r="L65" s="15"/>
-      <c r="M65" s="15"/>
-      <c r="N65" s="15"/>
-      <c r="O65" s="15"/>
-      <c r="P65" s="15"/>
-      <c r="Q65" s="15"/>
-      <c r="R65" s="15"/>
-      <c r="S65" s="15"/>
-      <c r="T65" s="15"/>
-      <c r="U65" s="15"/>
-      <c r="V65" s="15"/>
-      <c r="W65" s="15"/>
-      <c r="X65" s="16"/>
-      <c r="Y65" s="16"/>
-      <c r="Z65" s="16"/>
-      <c r="AA65" s="16"/>
-      <c r="AB65" s="16"/>
-      <c r="AC65" s="16"/>
-      <c r="AD65" s="16"/>
-      <c r="AE65" s="16"/>
-      <c r="AF65" s="16"/>
-      <c r="AG65" s="16"/>
-      <c r="AH65" s="16"/>
-      <c r="AI65" s="16"/>
-      <c r="AJ65" s="16"/>
-      <c r="AK65" s="15"/>
-      <c r="AL65" s="15"/>
-      <c r="AM65" s="15"/>
-      <c r="AN65" s="15"/>
-      <c r="AO65" s="15"/>
-      <c r="AP65" s="15"/>
-      <c r="AQ65" s="15"/>
-      <c r="AR65" s="15"/>
-      <c r="AS65" s="15"/>
-      <c r="AT65" s="15"/>
-      <c r="AU65" s="15"/>
-      <c r="AV65" s="15"/>
-      <c r="AW65" s="15"/>
-      <c r="AX65" s="15"/>
-      <c r="AY65" s="15"/>
-      <c r="AZ65" s="15"/>
-      <c r="BA65" s="15"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="32"/>
+      <c r="J65" s="32"/>
+      <c r="K65" s="32"/>
+      <c r="L65" s="32"/>
+      <c r="M65" s="32"/>
+      <c r="N65" s="32"/>
+      <c r="O65" s="32"/>
+      <c r="P65" s="32"/>
+      <c r="Q65" s="32"/>
+      <c r="R65" s="32"/>
+      <c r="S65" s="32"/>
+      <c r="T65" s="32"/>
+      <c r="U65" s="32"/>
+      <c r="V65" s="32"/>
+      <c r="W65" s="32"/>
+      <c r="X65" s="33"/>
+      <c r="Y65" s="33"/>
+      <c r="Z65" s="33"/>
+      <c r="AA65" s="33"/>
+      <c r="AB65" s="33"/>
+      <c r="AC65" s="33"/>
+      <c r="AD65" s="33"/>
+      <c r="AE65" s="33"/>
+      <c r="AF65" s="33"/>
+      <c r="AG65" s="33"/>
+      <c r="AH65" s="33"/>
+      <c r="AI65" s="33"/>
+      <c r="AJ65" s="33"/>
+      <c r="AK65" s="32"/>
+      <c r="AL65" s="32"/>
+      <c r="AM65" s="32"/>
+      <c r="AN65" s="32"/>
+      <c r="AO65" s="32"/>
+      <c r="AP65" s="32"/>
+      <c r="AQ65" s="32"/>
+      <c r="AR65" s="32"/>
+      <c r="AS65" s="32"/>
+      <c r="AT65" s="32"/>
+      <c r="AU65" s="32"/>
+      <c r="AV65" s="32"/>
+      <c r="AW65" s="32"/>
+      <c r="AX65" s="32"/>
+      <c r="AY65" s="32"/>
+      <c r="AZ65" s="32"/>
+      <c r="BA65" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="313">
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="K12:W12"/>
-    <mergeCell ref="X12:AJ12"/>
-    <mergeCell ref="AK12:AV12"/>
-    <mergeCell ref="AW12:BA12"/>
-    <mergeCell ref="AW9:BA9"/>
-    <mergeCell ref="AK9:AV9"/>
-    <mergeCell ref="AW10:BA10"/>
-    <mergeCell ref="AW11:BA11"/>
-    <mergeCell ref="B10:J10"/>
-    <mergeCell ref="K10:W10"/>
-    <mergeCell ref="X10:AJ10"/>
-    <mergeCell ref="AK10:AV10"/>
-    <mergeCell ref="X11:AJ11"/>
-    <mergeCell ref="K11:W11"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="AK11:AV11"/>
-    <mergeCell ref="B9:J9"/>
-    <mergeCell ref="X9:AJ9"/>
-    <mergeCell ref="K9:W9"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="K6:W6"/>
-    <mergeCell ref="X6:AJ6"/>
-    <mergeCell ref="AK7:AV7"/>
-    <mergeCell ref="AK8:AV8"/>
-    <mergeCell ref="AK6:AV6"/>
-    <mergeCell ref="AW6:BA6"/>
-    <mergeCell ref="AW7:BA7"/>
-    <mergeCell ref="AW8:BA8"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="K8:W8"/>
-    <mergeCell ref="X8:AJ8"/>
-    <mergeCell ref="K7:W7"/>
-    <mergeCell ref="X7:AJ7"/>
-    <mergeCell ref="AW1:BA1"/>
-    <mergeCell ref="A2:I4"/>
-    <mergeCell ref="J2:O4"/>
-    <mergeCell ref="AH2:AL4"/>
-    <mergeCell ref="AM2:AQ4"/>
-    <mergeCell ref="AR2:AV4"/>
-    <mergeCell ref="AW2:BA4"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="P1:AG4"/>
-    <mergeCell ref="AH1:AL1"/>
-    <mergeCell ref="AM1:AQ1"/>
-    <mergeCell ref="AR1:AV1"/>
+    <mergeCell ref="AW47:BA47"/>
+    <mergeCell ref="B44:J44"/>
+    <mergeCell ref="K44:W44"/>
+    <mergeCell ref="X44:AJ44"/>
+    <mergeCell ref="AK44:AV44"/>
+    <mergeCell ref="AW44:BA44"/>
+    <mergeCell ref="B45:J45"/>
+    <mergeCell ref="K45:W45"/>
+    <mergeCell ref="X45:AJ45"/>
+    <mergeCell ref="AK45:AV45"/>
+    <mergeCell ref="AW45:BA45"/>
+    <mergeCell ref="B61:J61"/>
+    <mergeCell ref="K61:W61"/>
+    <mergeCell ref="X61:AJ61"/>
+    <mergeCell ref="AK61:AV61"/>
+    <mergeCell ref="AW61:BA61"/>
+    <mergeCell ref="B60:J60"/>
+    <mergeCell ref="K60:W60"/>
+    <mergeCell ref="X60:AJ60"/>
+    <mergeCell ref="AK60:AV60"/>
+    <mergeCell ref="AW60:BA60"/>
+    <mergeCell ref="B59:J59"/>
+    <mergeCell ref="K59:W59"/>
+    <mergeCell ref="X59:AJ59"/>
+    <mergeCell ref="AK59:AV59"/>
+    <mergeCell ref="AW59:BA59"/>
+    <mergeCell ref="B58:J58"/>
+    <mergeCell ref="K58:W58"/>
+    <mergeCell ref="X58:AJ58"/>
+    <mergeCell ref="AK58:AV58"/>
+    <mergeCell ref="AW58:BA58"/>
+    <mergeCell ref="B57:J57"/>
+    <mergeCell ref="K57:W57"/>
+    <mergeCell ref="X57:AJ57"/>
+    <mergeCell ref="AK57:AV57"/>
+    <mergeCell ref="AW57:BA57"/>
+    <mergeCell ref="B56:J56"/>
+    <mergeCell ref="K56:W56"/>
+    <mergeCell ref="X56:AJ56"/>
+    <mergeCell ref="AK56:AV56"/>
+    <mergeCell ref="AW56:BA56"/>
+    <mergeCell ref="B55:J55"/>
+    <mergeCell ref="K55:W55"/>
+    <mergeCell ref="X55:AJ55"/>
+    <mergeCell ref="AK55:AV55"/>
+    <mergeCell ref="AW55:BA55"/>
+    <mergeCell ref="B54:J54"/>
+    <mergeCell ref="K54:W54"/>
+    <mergeCell ref="X54:AJ54"/>
+    <mergeCell ref="AK54:AV54"/>
+    <mergeCell ref="AW54:BA54"/>
+    <mergeCell ref="B53:J53"/>
+    <mergeCell ref="K53:W53"/>
+    <mergeCell ref="X53:AJ53"/>
+    <mergeCell ref="AK53:AV53"/>
+    <mergeCell ref="AW53:BA53"/>
+    <mergeCell ref="B52:J52"/>
+    <mergeCell ref="K52:W52"/>
+    <mergeCell ref="X52:AJ52"/>
+    <mergeCell ref="AK52:AV52"/>
+    <mergeCell ref="AW52:BA52"/>
+    <mergeCell ref="B51:J51"/>
+    <mergeCell ref="K51:W51"/>
+    <mergeCell ref="X51:AJ51"/>
+    <mergeCell ref="AK51:AV51"/>
+    <mergeCell ref="AW51:BA51"/>
+    <mergeCell ref="B50:J50"/>
+    <mergeCell ref="K50:W50"/>
+    <mergeCell ref="X50:AJ50"/>
+    <mergeCell ref="AK50:AV50"/>
+    <mergeCell ref="AW50:BA50"/>
+    <mergeCell ref="B49:J49"/>
+    <mergeCell ref="K49:W49"/>
+    <mergeCell ref="X49:AJ49"/>
+    <mergeCell ref="AK49:AV49"/>
+    <mergeCell ref="AW49:BA49"/>
+    <mergeCell ref="B43:J43"/>
+    <mergeCell ref="K43:W43"/>
+    <mergeCell ref="X43:AJ43"/>
+    <mergeCell ref="AK43:AV43"/>
+    <mergeCell ref="AW43:BA43"/>
+    <mergeCell ref="B46:J46"/>
+    <mergeCell ref="K46:W46"/>
+    <mergeCell ref="X46:AJ46"/>
+    <mergeCell ref="AK46:AV46"/>
+    <mergeCell ref="AW46:BA46"/>
+    <mergeCell ref="B48:J48"/>
+    <mergeCell ref="K48:W48"/>
+    <mergeCell ref="X48:AJ48"/>
+    <mergeCell ref="AK48:AV48"/>
+    <mergeCell ref="AW48:BA48"/>
+    <mergeCell ref="B47:J47"/>
+    <mergeCell ref="K47:W47"/>
+    <mergeCell ref="X47:AJ47"/>
+    <mergeCell ref="AK47:AV47"/>
+    <mergeCell ref="B42:J42"/>
+    <mergeCell ref="K42:W42"/>
+    <mergeCell ref="X42:AJ42"/>
+    <mergeCell ref="AK42:AV42"/>
+    <mergeCell ref="AW42:BA42"/>
+    <mergeCell ref="B41:J41"/>
+    <mergeCell ref="K41:W41"/>
+    <mergeCell ref="X41:AJ41"/>
+    <mergeCell ref="AK41:AV41"/>
+    <mergeCell ref="AW41:BA41"/>
+    <mergeCell ref="B65:J65"/>
+    <mergeCell ref="K65:W65"/>
+    <mergeCell ref="X65:AJ65"/>
+    <mergeCell ref="AK65:AV65"/>
+    <mergeCell ref="AW65:BA65"/>
+    <mergeCell ref="B64:J64"/>
+    <mergeCell ref="K64:W64"/>
+    <mergeCell ref="X64:AJ64"/>
+    <mergeCell ref="AK64:AV64"/>
+    <mergeCell ref="AW64:BA64"/>
+    <mergeCell ref="B63:J63"/>
+    <mergeCell ref="K63:W63"/>
+    <mergeCell ref="X63:AJ63"/>
+    <mergeCell ref="AK63:AV63"/>
+    <mergeCell ref="AW63:BA63"/>
+    <mergeCell ref="B62:J62"/>
+    <mergeCell ref="K62:W62"/>
+    <mergeCell ref="X62:AJ62"/>
+    <mergeCell ref="AK62:AV62"/>
+    <mergeCell ref="AW62:BA62"/>
+    <mergeCell ref="B40:J40"/>
+    <mergeCell ref="K40:W40"/>
+    <mergeCell ref="X40:AJ40"/>
+    <mergeCell ref="AK40:AV40"/>
+    <mergeCell ref="AW40:BA40"/>
+    <mergeCell ref="B39:J39"/>
+    <mergeCell ref="K39:W39"/>
+    <mergeCell ref="X39:AJ39"/>
+    <mergeCell ref="AK39:AV39"/>
+    <mergeCell ref="AW39:BA39"/>
+    <mergeCell ref="B38:J38"/>
+    <mergeCell ref="K38:W38"/>
+    <mergeCell ref="X38:AJ38"/>
+    <mergeCell ref="AK38:AV38"/>
+    <mergeCell ref="AW38:BA38"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="K37:W37"/>
+    <mergeCell ref="X37:AJ37"/>
+    <mergeCell ref="AK37:AV37"/>
+    <mergeCell ref="AW37:BA37"/>
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="K36:W36"/>
+    <mergeCell ref="X36:AJ36"/>
+    <mergeCell ref="AK36:AV36"/>
+    <mergeCell ref="AW36:BA36"/>
+    <mergeCell ref="B35:J35"/>
+    <mergeCell ref="K35:W35"/>
+    <mergeCell ref="X35:AJ35"/>
+    <mergeCell ref="AK35:AV35"/>
+    <mergeCell ref="AW35:BA35"/>
+    <mergeCell ref="B34:J34"/>
+    <mergeCell ref="K34:W34"/>
+    <mergeCell ref="X34:AJ34"/>
+    <mergeCell ref="AK34:AV34"/>
+    <mergeCell ref="AW34:BA34"/>
+    <mergeCell ref="B33:J33"/>
+    <mergeCell ref="K33:W33"/>
+    <mergeCell ref="X33:AJ33"/>
+    <mergeCell ref="AK33:AV33"/>
+    <mergeCell ref="AW33:BA33"/>
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="K32:W32"/>
+    <mergeCell ref="X32:AJ32"/>
+    <mergeCell ref="AK32:AV32"/>
+    <mergeCell ref="AW32:BA32"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="K31:W31"/>
+    <mergeCell ref="X31:AJ31"/>
+    <mergeCell ref="AK31:AV31"/>
+    <mergeCell ref="AW31:BA31"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="K30:W30"/>
+    <mergeCell ref="X30:AJ30"/>
+    <mergeCell ref="AK30:AV30"/>
+    <mergeCell ref="AW30:BA30"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="K21:W21"/>
+    <mergeCell ref="X21:AJ21"/>
+    <mergeCell ref="AK21:AV21"/>
+    <mergeCell ref="AW21:BA21"/>
+    <mergeCell ref="AW26:BA26"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="K25:W25"/>
+    <mergeCell ref="X25:AJ25"/>
+    <mergeCell ref="AK25:AV25"/>
+    <mergeCell ref="AW25:BA25"/>
+    <mergeCell ref="B24:J24"/>
+    <mergeCell ref="K24:W24"/>
+    <mergeCell ref="X24:AJ24"/>
+    <mergeCell ref="AK24:AV24"/>
+    <mergeCell ref="AW24:BA24"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="K23:W23"/>
+    <mergeCell ref="X23:AJ23"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="K20:W20"/>
+    <mergeCell ref="X20:AJ20"/>
+    <mergeCell ref="AK20:AV20"/>
+    <mergeCell ref="AW20:BA20"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="K19:W19"/>
+    <mergeCell ref="X19:AJ19"/>
+    <mergeCell ref="AK19:AV19"/>
+    <mergeCell ref="AW19:BA19"/>
+    <mergeCell ref="X15:AJ15"/>
+    <mergeCell ref="AK15:AV15"/>
+    <mergeCell ref="AW15:BA15"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="K18:W18"/>
+    <mergeCell ref="X18:AJ18"/>
+    <mergeCell ref="AK18:AV18"/>
+    <mergeCell ref="AW18:BA18"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="K17:W17"/>
+    <mergeCell ref="X17:AJ17"/>
+    <mergeCell ref="AK17:AV17"/>
+    <mergeCell ref="AW17:BA17"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="K27:W27"/>
+    <mergeCell ref="X27:AJ27"/>
+    <mergeCell ref="AK27:AV27"/>
+    <mergeCell ref="AW27:BA27"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="K26:W26"/>
+    <mergeCell ref="X26:AJ26"/>
+    <mergeCell ref="AK26:AV26"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="K29:W29"/>
+    <mergeCell ref="X29:AJ29"/>
+    <mergeCell ref="AK29:AV29"/>
+    <mergeCell ref="AW29:BA29"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="K28:W28"/>
+    <mergeCell ref="X28:AJ28"/>
+    <mergeCell ref="AK28:AV28"/>
+    <mergeCell ref="AW28:BA28"/>
     <mergeCell ref="AK23:AV23"/>
     <mergeCell ref="AW23:BA23"/>
     <mergeCell ref="B22:J22"/>
@@ -5696,247 +5923,54 @@
     <mergeCell ref="AW16:BA16"/>
     <mergeCell ref="B15:J15"/>
     <mergeCell ref="K15:W15"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="K29:W29"/>
-    <mergeCell ref="X29:AJ29"/>
-    <mergeCell ref="AK29:AV29"/>
-    <mergeCell ref="AW29:BA29"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="K28:W28"/>
-    <mergeCell ref="X28:AJ28"/>
-    <mergeCell ref="AK28:AV28"/>
-    <mergeCell ref="AW28:BA28"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="K27:W27"/>
-    <mergeCell ref="X27:AJ27"/>
-    <mergeCell ref="AK27:AV27"/>
-    <mergeCell ref="AW27:BA27"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="K26:W26"/>
-    <mergeCell ref="X26:AJ26"/>
-    <mergeCell ref="AK26:AV26"/>
-    <mergeCell ref="X15:AJ15"/>
-    <mergeCell ref="AK15:AV15"/>
-    <mergeCell ref="AW15:BA15"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="K18:W18"/>
-    <mergeCell ref="X18:AJ18"/>
-    <mergeCell ref="AK18:AV18"/>
-    <mergeCell ref="AW18:BA18"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="K17:W17"/>
-    <mergeCell ref="X17:AJ17"/>
-    <mergeCell ref="AK17:AV17"/>
-    <mergeCell ref="AW17:BA17"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="K20:W20"/>
-    <mergeCell ref="X20:AJ20"/>
-    <mergeCell ref="AK20:AV20"/>
-    <mergeCell ref="AW20:BA20"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="K19:W19"/>
-    <mergeCell ref="X19:AJ19"/>
-    <mergeCell ref="AK19:AV19"/>
-    <mergeCell ref="AW19:BA19"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="K30:W30"/>
-    <mergeCell ref="X30:AJ30"/>
-    <mergeCell ref="AK30:AV30"/>
-    <mergeCell ref="AW30:BA30"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="K21:W21"/>
-    <mergeCell ref="X21:AJ21"/>
-    <mergeCell ref="AK21:AV21"/>
-    <mergeCell ref="AW21:BA21"/>
-    <mergeCell ref="AW26:BA26"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="K25:W25"/>
-    <mergeCell ref="X25:AJ25"/>
-    <mergeCell ref="AK25:AV25"/>
-    <mergeCell ref="AW25:BA25"/>
-    <mergeCell ref="B24:J24"/>
-    <mergeCell ref="K24:W24"/>
-    <mergeCell ref="X24:AJ24"/>
-    <mergeCell ref="AK24:AV24"/>
-    <mergeCell ref="AW24:BA24"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="K23:W23"/>
-    <mergeCell ref="X23:AJ23"/>
-    <mergeCell ref="B32:J32"/>
-    <mergeCell ref="K32:W32"/>
-    <mergeCell ref="X32:AJ32"/>
-    <mergeCell ref="AK32:AV32"/>
-    <mergeCell ref="AW32:BA32"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="K31:W31"/>
-    <mergeCell ref="X31:AJ31"/>
-    <mergeCell ref="AK31:AV31"/>
-    <mergeCell ref="AW31:BA31"/>
-    <mergeCell ref="B34:J34"/>
-    <mergeCell ref="K34:W34"/>
-    <mergeCell ref="X34:AJ34"/>
-    <mergeCell ref="AK34:AV34"/>
-    <mergeCell ref="AW34:BA34"/>
-    <mergeCell ref="B33:J33"/>
-    <mergeCell ref="K33:W33"/>
-    <mergeCell ref="X33:AJ33"/>
-    <mergeCell ref="AK33:AV33"/>
-    <mergeCell ref="AW33:BA33"/>
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="K36:W36"/>
-    <mergeCell ref="X36:AJ36"/>
-    <mergeCell ref="AK36:AV36"/>
-    <mergeCell ref="AW36:BA36"/>
-    <mergeCell ref="B35:J35"/>
-    <mergeCell ref="K35:W35"/>
-    <mergeCell ref="X35:AJ35"/>
-    <mergeCell ref="AK35:AV35"/>
-    <mergeCell ref="AW35:BA35"/>
-    <mergeCell ref="B38:J38"/>
-    <mergeCell ref="K38:W38"/>
-    <mergeCell ref="X38:AJ38"/>
-    <mergeCell ref="AK38:AV38"/>
-    <mergeCell ref="AW38:BA38"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="K37:W37"/>
-    <mergeCell ref="X37:AJ37"/>
-    <mergeCell ref="AK37:AV37"/>
-    <mergeCell ref="AW37:BA37"/>
-    <mergeCell ref="B40:J40"/>
-    <mergeCell ref="K40:W40"/>
-    <mergeCell ref="X40:AJ40"/>
-    <mergeCell ref="AK40:AV40"/>
-    <mergeCell ref="AW40:BA40"/>
-    <mergeCell ref="B39:J39"/>
-    <mergeCell ref="K39:W39"/>
-    <mergeCell ref="X39:AJ39"/>
-    <mergeCell ref="AK39:AV39"/>
-    <mergeCell ref="AW39:BA39"/>
-    <mergeCell ref="B63:J63"/>
-    <mergeCell ref="K63:W63"/>
-    <mergeCell ref="X63:AJ63"/>
-    <mergeCell ref="AK63:AV63"/>
-    <mergeCell ref="AW63:BA63"/>
-    <mergeCell ref="B62:J62"/>
-    <mergeCell ref="K62:W62"/>
-    <mergeCell ref="X62:AJ62"/>
-    <mergeCell ref="AK62:AV62"/>
-    <mergeCell ref="AW62:BA62"/>
-    <mergeCell ref="B65:J65"/>
-    <mergeCell ref="K65:W65"/>
-    <mergeCell ref="X65:AJ65"/>
-    <mergeCell ref="AK65:AV65"/>
-    <mergeCell ref="AW65:BA65"/>
-    <mergeCell ref="B64:J64"/>
-    <mergeCell ref="K64:W64"/>
-    <mergeCell ref="X64:AJ64"/>
-    <mergeCell ref="AK64:AV64"/>
-    <mergeCell ref="AW64:BA64"/>
-    <mergeCell ref="B42:J42"/>
-    <mergeCell ref="K42:W42"/>
-    <mergeCell ref="X42:AJ42"/>
-    <mergeCell ref="AK42:AV42"/>
-    <mergeCell ref="AW42:BA42"/>
-    <mergeCell ref="B41:J41"/>
-    <mergeCell ref="K41:W41"/>
-    <mergeCell ref="X41:AJ41"/>
-    <mergeCell ref="AK41:AV41"/>
-    <mergeCell ref="AW41:BA41"/>
-    <mergeCell ref="B49:J49"/>
-    <mergeCell ref="K49:W49"/>
-    <mergeCell ref="X49:AJ49"/>
-    <mergeCell ref="AK49:AV49"/>
-    <mergeCell ref="AW49:BA49"/>
-    <mergeCell ref="B43:J43"/>
-    <mergeCell ref="K43:W43"/>
-    <mergeCell ref="X43:AJ43"/>
-    <mergeCell ref="AK43:AV43"/>
-    <mergeCell ref="AW43:BA43"/>
-    <mergeCell ref="B46:J46"/>
-    <mergeCell ref="K46:W46"/>
-    <mergeCell ref="X46:AJ46"/>
-    <mergeCell ref="AK46:AV46"/>
-    <mergeCell ref="AW46:BA46"/>
-    <mergeCell ref="B48:J48"/>
-    <mergeCell ref="K48:W48"/>
-    <mergeCell ref="X48:AJ48"/>
-    <mergeCell ref="AK48:AV48"/>
-    <mergeCell ref="AW48:BA48"/>
-    <mergeCell ref="B47:J47"/>
-    <mergeCell ref="K47:W47"/>
-    <mergeCell ref="X47:AJ47"/>
-    <mergeCell ref="AK47:AV47"/>
-    <mergeCell ref="B51:J51"/>
-    <mergeCell ref="K51:W51"/>
-    <mergeCell ref="X51:AJ51"/>
-    <mergeCell ref="AK51:AV51"/>
-    <mergeCell ref="AW51:BA51"/>
-    <mergeCell ref="B50:J50"/>
-    <mergeCell ref="K50:W50"/>
-    <mergeCell ref="X50:AJ50"/>
-    <mergeCell ref="AK50:AV50"/>
-    <mergeCell ref="AW50:BA50"/>
-    <mergeCell ref="B53:J53"/>
-    <mergeCell ref="K53:W53"/>
-    <mergeCell ref="X53:AJ53"/>
-    <mergeCell ref="AK53:AV53"/>
-    <mergeCell ref="AW53:BA53"/>
-    <mergeCell ref="B52:J52"/>
-    <mergeCell ref="K52:W52"/>
-    <mergeCell ref="X52:AJ52"/>
-    <mergeCell ref="AK52:AV52"/>
-    <mergeCell ref="AW52:BA52"/>
-    <mergeCell ref="B55:J55"/>
-    <mergeCell ref="K55:W55"/>
-    <mergeCell ref="X55:AJ55"/>
-    <mergeCell ref="AK55:AV55"/>
-    <mergeCell ref="AW55:BA55"/>
-    <mergeCell ref="B54:J54"/>
-    <mergeCell ref="K54:W54"/>
-    <mergeCell ref="X54:AJ54"/>
-    <mergeCell ref="AK54:AV54"/>
-    <mergeCell ref="AW54:BA54"/>
-    <mergeCell ref="B57:J57"/>
-    <mergeCell ref="K57:W57"/>
-    <mergeCell ref="X57:AJ57"/>
-    <mergeCell ref="AK57:AV57"/>
-    <mergeCell ref="AW57:BA57"/>
-    <mergeCell ref="B56:J56"/>
-    <mergeCell ref="K56:W56"/>
-    <mergeCell ref="X56:AJ56"/>
-    <mergeCell ref="AK56:AV56"/>
-    <mergeCell ref="AW56:BA56"/>
-    <mergeCell ref="B59:J59"/>
-    <mergeCell ref="K59:W59"/>
-    <mergeCell ref="X59:AJ59"/>
-    <mergeCell ref="AK59:AV59"/>
-    <mergeCell ref="AW59:BA59"/>
-    <mergeCell ref="B58:J58"/>
-    <mergeCell ref="K58:W58"/>
-    <mergeCell ref="X58:AJ58"/>
-    <mergeCell ref="AK58:AV58"/>
-    <mergeCell ref="AW58:BA58"/>
-    <mergeCell ref="B61:J61"/>
-    <mergeCell ref="K61:W61"/>
-    <mergeCell ref="X61:AJ61"/>
-    <mergeCell ref="AK61:AV61"/>
-    <mergeCell ref="AW61:BA61"/>
-    <mergeCell ref="B60:J60"/>
-    <mergeCell ref="K60:W60"/>
-    <mergeCell ref="X60:AJ60"/>
-    <mergeCell ref="AK60:AV60"/>
-    <mergeCell ref="AW60:BA60"/>
-    <mergeCell ref="AW47:BA47"/>
-    <mergeCell ref="B44:J44"/>
-    <mergeCell ref="K44:W44"/>
-    <mergeCell ref="X44:AJ44"/>
-    <mergeCell ref="AK44:AV44"/>
-    <mergeCell ref="AW44:BA44"/>
-    <mergeCell ref="B45:J45"/>
-    <mergeCell ref="K45:W45"/>
-    <mergeCell ref="X45:AJ45"/>
-    <mergeCell ref="AK45:AV45"/>
-    <mergeCell ref="AW45:BA45"/>
+    <mergeCell ref="AW1:BA1"/>
+    <mergeCell ref="A2:I4"/>
+    <mergeCell ref="J2:O4"/>
+    <mergeCell ref="AH2:AL4"/>
+    <mergeCell ref="AM2:AQ4"/>
+    <mergeCell ref="AR2:AV4"/>
+    <mergeCell ref="AW2:BA4"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="P1:AG4"/>
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="AM1:AQ1"/>
+    <mergeCell ref="AR1:AV1"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="K6:W6"/>
+    <mergeCell ref="X6:AJ6"/>
+    <mergeCell ref="AK7:AV7"/>
+    <mergeCell ref="AK8:AV8"/>
+    <mergeCell ref="AK6:AV6"/>
+    <mergeCell ref="AW6:BA6"/>
+    <mergeCell ref="AW7:BA7"/>
+    <mergeCell ref="AW8:BA8"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="K8:W8"/>
+    <mergeCell ref="X8:AJ8"/>
+    <mergeCell ref="K7:W7"/>
+    <mergeCell ref="X7:AJ7"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="K12:W12"/>
+    <mergeCell ref="X12:AJ12"/>
+    <mergeCell ref="AK12:AV12"/>
+    <mergeCell ref="AW12:BA12"/>
+    <mergeCell ref="AW9:BA9"/>
+    <mergeCell ref="AK9:AV9"/>
+    <mergeCell ref="AW10:BA10"/>
+    <mergeCell ref="AW11:BA11"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="K10:W10"/>
+    <mergeCell ref="X10:AJ10"/>
+    <mergeCell ref="AK10:AV10"/>
+    <mergeCell ref="X11:AJ11"/>
+    <mergeCell ref="K11:W11"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="AK11:AV11"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="X9:AJ9"/>
+    <mergeCell ref="K9:W9"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.62992125984251968" footer="0.39370078740157483"/>
